--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9285276125511289</v>
+        <v>0.9285276125511274</v>
       </c>
       <c r="D2">
         <v>1.02292127473441</v>
       </c>
       <c r="E2">
-        <v>0.9439120025630782</v>
+        <v>0.9439120025630769</v>
       </c>
       <c r="F2">
-        <v>0.9799832502501256</v>
+        <v>0.9799832502501249</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.04649905798317</v>
       </c>
       <c r="J2">
-        <v>0.9530785233588872</v>
+        <v>0.9530785233588858</v>
       </c>
       <c r="K2">
         <v>1.034070255029498</v>
       </c>
       <c r="L2">
-        <v>0.9562122811009992</v>
+        <v>0.9562122811009981</v>
       </c>
       <c r="M2">
-        <v>0.9917286781704809</v>
+        <v>0.9917286781704804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9404746896140106</v>
+        <v>0.9404746896140095</v>
       </c>
       <c r="D3">
         <v>1.027017640832742</v>
       </c>
       <c r="E3">
-        <v>0.9539687450382426</v>
+        <v>0.9539687450382417</v>
       </c>
       <c r="F3">
-        <v>0.9890887777633571</v>
+        <v>0.9890887777633568</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04846189465205</v>
       </c>
       <c r="J3">
-        <v>0.9627309788033441</v>
+        <v>0.9627309788033432</v>
       </c>
       <c r="K3">
         <v>1.037316113727502</v>
       </c>
       <c r="L3">
-        <v>0.9652265743157959</v>
+        <v>0.9652265743157949</v>
       </c>
       <c r="M3">
-        <v>0.9998632000614246</v>
+        <v>0.9998632000614243</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.947840003579544</v>
+        <v>0.9478400035795437</v>
       </c>
       <c r="D4">
-        <v>1.029561700780389</v>
+        <v>1.029561700780388</v>
       </c>
       <c r="E4">
-        <v>0.9601789499771559</v>
+        <v>0.960178949977156</v>
       </c>
       <c r="F4">
-        <v>0.9947175686315879</v>
+        <v>0.9947175686315871</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,10 +515,10 @@
         <v>1.049658739667845</v>
       </c>
       <c r="J4">
-        <v>0.9686791019193282</v>
+        <v>0.9686791019193278</v>
       </c>
       <c r="K4">
-        <v>1.039315968059252</v>
+        <v>1.039315968059251</v>
       </c>
       <c r="L4">
         <v>0.9707829891135769</v>
@@ -541,10 +541,10 @@
         <v>1.030607262060374</v>
       </c>
       <c r="E5">
-        <v>0.9627248364088244</v>
+        <v>0.9627248364088248</v>
       </c>
       <c r="F5">
-        <v>0.9970257455936421</v>
+        <v>0.9970257455936422</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1.040134099793164</v>
       </c>
       <c r="L5">
-        <v>0.9730584738806741</v>
+        <v>0.9730584738806742</v>
       </c>
       <c r="M5">
         <v>1.006934695195302</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9513589267890341</v>
+        <v>0.9513589267890348</v>
       </c>
       <c r="D6">
-        <v>1.030781452613558</v>
+        <v>1.030781452613559</v>
       </c>
       <c r="E6">
-        <v>0.9631486625102486</v>
+        <v>0.9631486625102491</v>
       </c>
       <c r="F6">
-        <v>0.9974100155875465</v>
+        <v>0.997410015587547</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050226077264334</v>
       </c>
       <c r="J6">
-        <v>0.9715199155045497</v>
+        <v>0.9715199155045504</v>
       </c>
       <c r="K6">
         <v>1.040270180267391</v>
       </c>
       <c r="L6">
-        <v>0.9734371457926048</v>
+        <v>0.9734371457926052</v>
       </c>
       <c r="M6">
-        <v>1.007276574525731</v>
+        <v>1.007276574525732</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
         <v>0.9478806176793562</v>
       </c>
       <c r="D7">
-        <v>1.029575763873766</v>
+        <v>1.029575763873767</v>
       </c>
       <c r="E7">
-        <v>0.9602132155799351</v>
+        <v>0.9602132155799348</v>
       </c>
       <c r="F7">
-        <v>0.994748633283185</v>
+        <v>0.9947486332831854</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.049665305354495</v>
       </c>
       <c r="J7">
-        <v>0.968711893701293</v>
+        <v>0.9687118937012928</v>
       </c>
       <c r="K7">
         <v>1.039326987047142</v>
       </c>
       <c r="L7">
-        <v>0.9708136247295396</v>
+        <v>0.9708136247295392</v>
       </c>
       <c r="M7">
         <v>1.004907830692406</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9326459586044871</v>
+        <v>0.9326459586044881</v>
       </c>
       <c r="D8">
         <v>1.024328726469708</v>
       </c>
       <c r="E8">
-        <v>0.94737633447641</v>
+        <v>0.9473763344764113</v>
       </c>
       <c r="F8">
-        <v>0.9831181062458156</v>
+        <v>0.9831181062458165</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.047178197238307</v>
       </c>
       <c r="J8">
-        <v>0.9564062845036053</v>
+        <v>0.9564062845036062</v>
       </c>
       <c r="K8">
         <v>1.035188933080134</v>
       </c>
       <c r="L8">
-        <v>0.9593196827018964</v>
+        <v>0.9593196827018975</v>
       </c>
       <c r="M8">
-        <v>0.9945317157864246</v>
+        <v>0.9945317157864253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9025694780275769</v>
+        <v>0.9025694780275757</v>
       </c>
       <c r="D9">
         <v>1.014183603561626</v>
       </c>
       <c r="E9">
-        <v>0.9221375576333417</v>
+        <v>0.9221375576333407</v>
       </c>
       <c r="F9">
-        <v>0.9603476915583631</v>
+        <v>0.9603476915583622</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.042182718108917</v>
       </c>
       <c r="J9">
-        <v>0.9321031494538534</v>
+        <v>0.9321031494538525</v>
       </c>
       <c r="K9">
         <v>1.027050678029888</v>
       </c>
       <c r="L9">
-        <v>0.9366342681473038</v>
+        <v>0.9366342681473029</v>
       </c>
       <c r="M9">
-        <v>0.9741186209599751</v>
+        <v>0.9741186209599746</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8795654916850669</v>
+        <v>0.8795654916850673</v>
       </c>
       <c r="D10">
         <v>1.006670784947989</v>
       </c>
       <c r="E10">
-        <v>0.9029375638840617</v>
+        <v>0.902937563884062</v>
       </c>
       <c r="F10">
-        <v>0.9431756997861801</v>
+        <v>0.94317569978618</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.038349219841902</v>
       </c>
       <c r="J10">
-        <v>0.9135315907597531</v>
+        <v>0.9135315907597533</v>
       </c>
       <c r="K10">
         <v>1.020920631880154</v>
       </c>
       <c r="L10">
-        <v>0.9193122825805723</v>
+        <v>0.9193122825805727</v>
       </c>
       <c r="M10">
-        <v>0.9586527638318495</v>
+        <v>0.9586527638318494</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8686546440297593</v>
+        <v>0.868654644029759</v>
       </c>
       <c r="D11">
         <v>1.003195470269632</v>
       </c>
       <c r="E11">
-        <v>0.8938657646027908</v>
+        <v>0.8938657646027901</v>
       </c>
       <c r="F11">
-        <v>0.9351235321808782</v>
+        <v>0.9351235321808777</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.036541787139245</v>
       </c>
       <c r="J11">
-        <v>0.9047343551310707</v>
+        <v>0.9047343551310701</v>
       </c>
       <c r="K11">
         <v>1.01805737525881</v>
       </c>
       <c r="L11">
-        <v>0.9111112076599052</v>
+        <v>0.9111112076599046</v>
       </c>
       <c r="M11">
-        <v>0.951382199930863</v>
+        <v>0.9513821999308626</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8644294322614707</v>
+        <v>0.864429432261472</v>
       </c>
       <c r="D12">
         <v>1.001866080643412</v>
       </c>
       <c r="E12">
-        <v>0.8903591087348535</v>
+        <v>0.8903591087348548</v>
       </c>
       <c r="F12">
-        <v>0.9320231291497848</v>
+        <v>0.9320231291497855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035845008019655</v>
+        <v>1.035845008019656</v>
       </c>
       <c r="J12">
-        <v>0.9013301839843962</v>
+        <v>0.9013301839843976</v>
       </c>
       <c r="K12">
         <v>1.016957616606407</v>
       </c>
       <c r="L12">
-        <v>0.9079384910625761</v>
+        <v>0.9079384910625775</v>
       </c>
       <c r="M12">
-        <v>0.9485798006839616</v>
+        <v>0.9485798006839624</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8653441405618169</v>
+        <v>0.8653441405618159</v>
       </c>
       <c r="D13">
         <v>1.002153080155312</v>
       </c>
       <c r="E13">
-        <v>0.891117948918106</v>
+        <v>0.8911179489181049</v>
       </c>
       <c r="F13">
-        <v>0.9326934565894287</v>
+        <v>0.9326934565894283</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.035995682639959</v>
       </c>
       <c r="J13">
-        <v>0.9020670159511116</v>
+        <v>0.9020670159511107</v>
       </c>
       <c r="K13">
         <v>1.017195250776423</v>
       </c>
       <c r="L13">
-        <v>0.9086251878924532</v>
+        <v>0.9086251878924521</v>
       </c>
       <c r="M13">
-        <v>0.9491858338356968</v>
+        <v>0.9491858338356961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8683091105937206</v>
+        <v>0.8683091105937234</v>
       </c>
       <c r="D14">
         <v>1.003086402887605</v>
       </c>
       <c r="E14">
-        <v>0.8935788576493395</v>
+        <v>0.8935788576493422</v>
       </c>
       <c r="F14">
-        <v>0.9348696007434836</v>
+        <v>0.9348696007434845</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.036484731967604</v>
       </c>
       <c r="J14">
-        <v>0.9044559085867245</v>
+        <v>0.9044559085867273</v>
       </c>
       <c r="K14">
         <v>1.017967240739911</v>
       </c>
       <c r="L14">
-        <v>0.9108516768438419</v>
+        <v>0.9108516768438445</v>
       </c>
       <c r="M14">
-        <v>0.9511527364210427</v>
+        <v>0.9511527364210439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,10 +921,10 @@
         <v>1.003656173623975</v>
       </c>
       <c r="E15">
-        <v>0.8950761383880046</v>
+        <v>0.8950761383880047</v>
       </c>
       <c r="F15">
-        <v>0.9361952993572268</v>
+        <v>0.9361952993572271</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036782569590581</v>
       </c>
       <c r="J15">
-        <v>0.9059088882443376</v>
+        <v>0.9059088882443377</v>
       </c>
       <c r="K15">
         <v>1.018437921505485</v>
       </c>
       <c r="L15">
-        <v>0.9122059827709149</v>
+        <v>0.9122059827709151</v>
       </c>
       <c r="M15">
-        <v>0.9523505754332824</v>
+        <v>0.9523505754332827</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8802672619516207</v>
+        <v>0.8802672619516206</v>
       </c>
       <c r="D16">
         <v>1.006896343322276</v>
@@ -962,7 +962,7 @@
         <v>0.9035218428204257</v>
       </c>
       <c r="F16">
-        <v>0.9436957773025983</v>
+        <v>0.9436957773025981</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>1.038465807998281</v>
       </c>
       <c r="J16">
-        <v>0.9140977102647666</v>
+        <v>0.9140977102647668</v>
       </c>
       <c r="K16">
-        <v>1.021105873387127</v>
+        <v>1.021105873387126</v>
       </c>
       <c r="L16">
         <v>0.9198401336519154</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8863647604644185</v>
+        <v>0.8863647604644165</v>
       </c>
       <c r="D17">
-        <v>1.008866131283645</v>
+        <v>1.008866131283644</v>
       </c>
       <c r="E17">
-        <v>0.9086024156437453</v>
+        <v>0.9086024156437434</v>
       </c>
       <c r="F17">
-        <v>0.9482251133791846</v>
+        <v>0.9482251133791835</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.039480140737997</v>
       </c>
       <c r="J17">
-        <v>0.9190178908209516</v>
+        <v>0.9190178908209498</v>
       </c>
       <c r="K17">
         <v>1.022720470669241</v>
       </c>
       <c r="L17">
-        <v>0.9244281983263104</v>
+        <v>0.9244281983263085</v>
       </c>
       <c r="M17">
-        <v>0.9632062199236984</v>
+        <v>0.9632062199236974</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8898320729943801</v>
+        <v>0.8898320729943821</v>
       </c>
       <c r="D18">
-        <v>1.009994042894026</v>
+        <v>1.009994042894027</v>
       </c>
       <c r="E18">
-        <v>0.9114945482521359</v>
+        <v>0.911494548252138</v>
       </c>
       <c r="F18">
-        <v>0.9508088579416363</v>
+        <v>0.9508088579416377</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040057812317757</v>
+        <v>1.040057812317758</v>
       </c>
       <c r="J18">
-        <v>0.9218166956566324</v>
+        <v>0.9218166956566343</v>
       </c>
       <c r="K18">
         <v>1.023642467540671</v>
       </c>
       <c r="L18">
-        <v>0.9270384598472063</v>
+        <v>0.9270384598472081</v>
       </c>
       <c r="M18">
-        <v>0.965534387204288</v>
+        <v>0.9655343872042894</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8909999587443967</v>
+        <v>0.890999958744396</v>
       </c>
       <c r="D19">
-        <v>1.010375197502296</v>
+        <v>1.010375197502295</v>
       </c>
       <c r="E19">
-        <v>0.9124691935220022</v>
+        <v>0.9124691935220016</v>
       </c>
       <c r="F19">
-        <v>0.9516804219458396</v>
+        <v>0.9516804219458386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040252498254526</v>
+        <v>1.040252498254525</v>
       </c>
       <c r="J19">
-        <v>0.9227595532119152</v>
+        <v>0.9227595532119146</v>
       </c>
       <c r="K19">
-        <v>1.023953616881175</v>
+        <v>1.023953616881174</v>
       </c>
       <c r="L19">
-        <v>0.9279178622858943</v>
+        <v>0.9279178622858938</v>
       </c>
       <c r="M19">
-        <v>0.9663194575942964</v>
+        <v>0.9663194575942954</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8857199747016153</v>
+        <v>0.8857199747016167</v>
       </c>
       <c r="D20">
         <v>1.008656999669105</v>
       </c>
       <c r="E20">
-        <v>0.9080648359578237</v>
+        <v>0.9080648359578249</v>
       </c>
       <c r="F20">
-        <v>0.9477452785376257</v>
+        <v>0.9477452785376269</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.039372778230043</v>
       </c>
       <c r="J20">
-        <v>0.9184974953959634</v>
+        <v>0.9184974953959646</v>
       </c>
       <c r="K20">
-        <v>1.022549315249997</v>
+        <v>1.022549315249998</v>
       </c>
       <c r="L20">
-        <v>0.9239428897440723</v>
+        <v>0.9239428897440738</v>
       </c>
       <c r="M20">
-        <v>0.9627737134283941</v>
+        <v>0.9627737134283952</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8674410476851289</v>
+        <v>0.8674410476851292</v>
       </c>
       <c r="D21">
         <v>1.002812674046528</v>
       </c>
       <c r="E21">
-        <v>0.892858185112525</v>
+        <v>0.8928581851125256</v>
       </c>
       <c r="F21">
-        <v>0.9342319633051126</v>
+        <v>0.9342319633051125</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036341451783002</v>
       </c>
       <c r="J21">
-        <v>0.9037564280660814</v>
+        <v>0.9037564280660818</v>
       </c>
       <c r="K21">
         <v>1.017740954671196</v>
       </c>
       <c r="L21">
-        <v>0.9101997269072344</v>
+        <v>0.9101997269072349</v>
       </c>
       <c r="M21">
-        <v>0.9505764916017055</v>
+        <v>0.9505764916017054</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8549280110362411</v>
+        <v>0.8549280110362403</v>
       </c>
       <c r="D22">
-        <v>0.9989115848093219</v>
+        <v>0.9989115848093214</v>
       </c>
       <c r="E22">
-        <v>0.8824870800276874</v>
+        <v>0.8824870800276866</v>
       </c>
       <c r="F22">
-        <v>0.9250896777712204</v>
+        <v>0.9250896777712196</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.034286067175258</v>
       </c>
       <c r="J22">
-        <v>0.8936810207409985</v>
+        <v>0.8936810207409976</v>
       </c>
       <c r="K22">
         <v>1.014504634296815</v>
       </c>
       <c r="L22">
-        <v>0.9008110146916867</v>
+        <v>0.9008110146916857</v>
       </c>
       <c r="M22">
-        <v>0.9423070334951789</v>
+        <v>0.9423070334951781</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8616708071020888</v>
+        <v>0.861670807102088</v>
       </c>
       <c r="D23">
-        <v>1.001003233608399</v>
+        <v>1.001003233608398</v>
       </c>
       <c r="E23">
-        <v>0.8880716052962729</v>
+        <v>0.8880716052962719</v>
       </c>
       <c r="F23">
-        <v>0.9300044923857269</v>
+        <v>0.9300044923857259</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035391196784885</v>
+        <v>1.035391196784884</v>
       </c>
       <c r="J23">
-        <v>0.8991084616666821</v>
+        <v>0.8991084616666815</v>
       </c>
       <c r="K23">
         <v>1.016242491047433</v>
       </c>
       <c r="L23">
-        <v>0.9058680624841092</v>
+        <v>0.9058680624841086</v>
       </c>
       <c r="M23">
-        <v>0.9467543312712527</v>
+        <v>0.9467543312712522</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8860115993217098</v>
+        <v>0.886011599321709</v>
       </c>
       <c r="D24">
         <v>1.00875156187049</v>
       </c>
       <c r="E24">
-        <v>0.9083079636909365</v>
+        <v>0.9083079636909361</v>
       </c>
       <c r="F24">
-        <v>0.9479622737052564</v>
+        <v>0.9479622737052557</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039421333666899</v>
       </c>
       <c r="J24">
-        <v>0.9187328576115951</v>
+        <v>0.9187328576115944</v>
       </c>
       <c r="K24">
         <v>1.022626713764121</v>
       </c>
       <c r="L24">
-        <v>0.9241623818605674</v>
+        <v>0.924162381860567</v>
       </c>
       <c r="M24">
-        <v>0.9629693105773232</v>
+        <v>0.9629693105773224</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9107972761114684</v>
+        <v>0.9107972761114682</v>
       </c>
       <c r="D25">
         <v>1.016926025615605</v>
       </c>
       <c r="E25">
-        <v>0.9290273987892266</v>
+        <v>0.9290273987892265</v>
       </c>
       <c r="F25">
-        <v>0.9665455440953085</v>
+        <v>0.9665455440953087</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.04355501879394</v>
       </c>
       <c r="J25">
-        <v>0.9387506876647715</v>
+        <v>0.9387506876647714</v>
       </c>
       <c r="K25">
-        <v>1.029267148503289</v>
+        <v>1.02926714850329</v>
       </c>
       <c r="L25">
-        <v>0.9428373779987312</v>
+        <v>0.9428373779987311</v>
       </c>
       <c r="M25">
-        <v>0.9796863914971194</v>
+        <v>0.9796863914971196</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9285276125511274</v>
+        <v>0.9285276125511289</v>
       </c>
       <c r="D2">
         <v>1.02292127473441</v>
       </c>
       <c r="E2">
-        <v>0.9439120025630769</v>
+        <v>0.9439120025630782</v>
       </c>
       <c r="F2">
-        <v>0.9799832502501249</v>
+        <v>0.9799832502501256</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.04649905798317</v>
       </c>
       <c r="J2">
-        <v>0.9530785233588858</v>
+        <v>0.9530785233588872</v>
       </c>
       <c r="K2">
         <v>1.034070255029498</v>
       </c>
       <c r="L2">
-        <v>0.9562122811009981</v>
+        <v>0.9562122811009992</v>
       </c>
       <c r="M2">
-        <v>0.9917286781704804</v>
+        <v>0.9917286781704809</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9404746896140095</v>
+        <v>0.9404746896140106</v>
       </c>
       <c r="D3">
         <v>1.027017640832742</v>
       </c>
       <c r="E3">
-        <v>0.9539687450382417</v>
+        <v>0.9539687450382426</v>
       </c>
       <c r="F3">
-        <v>0.9890887777633568</v>
+        <v>0.9890887777633571</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04846189465205</v>
       </c>
       <c r="J3">
-        <v>0.9627309788033432</v>
+        <v>0.9627309788033441</v>
       </c>
       <c r="K3">
         <v>1.037316113727502</v>
       </c>
       <c r="L3">
-        <v>0.9652265743157949</v>
+        <v>0.9652265743157959</v>
       </c>
       <c r="M3">
-        <v>0.9998632000614243</v>
+        <v>0.9998632000614246</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9478400035795437</v>
+        <v>0.947840003579544</v>
       </c>
       <c r="D4">
-        <v>1.029561700780388</v>
+        <v>1.029561700780389</v>
       </c>
       <c r="E4">
-        <v>0.960178949977156</v>
+        <v>0.9601789499771559</v>
       </c>
       <c r="F4">
-        <v>0.9947175686315871</v>
+        <v>0.9947175686315879</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,10 +515,10 @@
         <v>1.049658739667845</v>
       </c>
       <c r="J4">
-        <v>0.9686791019193278</v>
+        <v>0.9686791019193282</v>
       </c>
       <c r="K4">
-        <v>1.039315968059251</v>
+        <v>1.039315968059252</v>
       </c>
       <c r="L4">
         <v>0.9707829891135769</v>
@@ -541,10 +541,10 @@
         <v>1.030607262060374</v>
       </c>
       <c r="E5">
-        <v>0.9627248364088248</v>
+        <v>0.9627248364088244</v>
       </c>
       <c r="F5">
-        <v>0.9970257455936422</v>
+        <v>0.9970257455936421</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1.040134099793164</v>
       </c>
       <c r="L5">
-        <v>0.9730584738806742</v>
+        <v>0.9730584738806741</v>
       </c>
       <c r="M5">
         <v>1.006934695195302</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9513589267890348</v>
+        <v>0.9513589267890341</v>
       </c>
       <c r="D6">
-        <v>1.030781452613559</v>
+        <v>1.030781452613558</v>
       </c>
       <c r="E6">
-        <v>0.9631486625102491</v>
+        <v>0.9631486625102486</v>
       </c>
       <c r="F6">
-        <v>0.997410015587547</v>
+        <v>0.9974100155875465</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.050226077264334</v>
       </c>
       <c r="J6">
-        <v>0.9715199155045504</v>
+        <v>0.9715199155045497</v>
       </c>
       <c r="K6">
         <v>1.040270180267391</v>
       </c>
       <c r="L6">
-        <v>0.9734371457926052</v>
+        <v>0.9734371457926048</v>
       </c>
       <c r="M6">
-        <v>1.007276574525732</v>
+        <v>1.007276574525731</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
         <v>0.9478806176793562</v>
       </c>
       <c r="D7">
-        <v>1.029575763873767</v>
+        <v>1.029575763873766</v>
       </c>
       <c r="E7">
-        <v>0.9602132155799348</v>
+        <v>0.9602132155799351</v>
       </c>
       <c r="F7">
-        <v>0.9947486332831854</v>
+        <v>0.994748633283185</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.049665305354495</v>
       </c>
       <c r="J7">
-        <v>0.9687118937012928</v>
+        <v>0.968711893701293</v>
       </c>
       <c r="K7">
         <v>1.039326987047142</v>
       </c>
       <c r="L7">
-        <v>0.9708136247295392</v>
+        <v>0.9708136247295396</v>
       </c>
       <c r="M7">
         <v>1.004907830692406</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9326459586044881</v>
+        <v>0.9326459586044871</v>
       </c>
       <c r="D8">
         <v>1.024328726469708</v>
       </c>
       <c r="E8">
-        <v>0.9473763344764113</v>
+        <v>0.94737633447641</v>
       </c>
       <c r="F8">
-        <v>0.9831181062458165</v>
+        <v>0.9831181062458156</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.047178197238307</v>
       </c>
       <c r="J8">
-        <v>0.9564062845036062</v>
+        <v>0.9564062845036053</v>
       </c>
       <c r="K8">
         <v>1.035188933080134</v>
       </c>
       <c r="L8">
-        <v>0.9593196827018975</v>
+        <v>0.9593196827018964</v>
       </c>
       <c r="M8">
-        <v>0.9945317157864253</v>
+        <v>0.9945317157864246</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9025694780275757</v>
+        <v>0.9025694780275769</v>
       </c>
       <c r="D9">
         <v>1.014183603561626</v>
       </c>
       <c r="E9">
-        <v>0.9221375576333407</v>
+        <v>0.9221375576333417</v>
       </c>
       <c r="F9">
-        <v>0.9603476915583622</v>
+        <v>0.9603476915583631</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.042182718108917</v>
       </c>
       <c r="J9">
-        <v>0.9321031494538525</v>
+        <v>0.9321031494538534</v>
       </c>
       <c r="K9">
         <v>1.027050678029888</v>
       </c>
       <c r="L9">
-        <v>0.9366342681473029</v>
+        <v>0.9366342681473038</v>
       </c>
       <c r="M9">
-        <v>0.9741186209599746</v>
+        <v>0.9741186209599751</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8795654916850673</v>
+        <v>0.8795654916850669</v>
       </c>
       <c r="D10">
         <v>1.006670784947989</v>
       </c>
       <c r="E10">
-        <v>0.902937563884062</v>
+        <v>0.9029375638840617</v>
       </c>
       <c r="F10">
-        <v>0.94317569978618</v>
+        <v>0.9431756997861801</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.038349219841902</v>
       </c>
       <c r="J10">
-        <v>0.9135315907597533</v>
+        <v>0.9135315907597531</v>
       </c>
       <c r="K10">
         <v>1.020920631880154</v>
       </c>
       <c r="L10">
-        <v>0.9193122825805727</v>
+        <v>0.9193122825805723</v>
       </c>
       <c r="M10">
-        <v>0.9586527638318494</v>
+        <v>0.9586527638318495</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.868654644029759</v>
+        <v>0.8686546440297593</v>
       </c>
       <c r="D11">
         <v>1.003195470269632</v>
       </c>
       <c r="E11">
-        <v>0.8938657646027901</v>
+        <v>0.8938657646027908</v>
       </c>
       <c r="F11">
-        <v>0.9351235321808777</v>
+        <v>0.9351235321808782</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.036541787139245</v>
       </c>
       <c r="J11">
-        <v>0.9047343551310701</v>
+        <v>0.9047343551310707</v>
       </c>
       <c r="K11">
         <v>1.01805737525881</v>
       </c>
       <c r="L11">
-        <v>0.9111112076599046</v>
+        <v>0.9111112076599052</v>
       </c>
       <c r="M11">
-        <v>0.9513821999308626</v>
+        <v>0.951382199930863</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.864429432261472</v>
+        <v>0.8644294322614707</v>
       </c>
       <c r="D12">
         <v>1.001866080643412</v>
       </c>
       <c r="E12">
-        <v>0.8903591087348548</v>
+        <v>0.8903591087348535</v>
       </c>
       <c r="F12">
-        <v>0.9320231291497855</v>
+        <v>0.9320231291497848</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035845008019656</v>
+        <v>1.035845008019655</v>
       </c>
       <c r="J12">
-        <v>0.9013301839843976</v>
+        <v>0.9013301839843962</v>
       </c>
       <c r="K12">
         <v>1.016957616606407</v>
       </c>
       <c r="L12">
-        <v>0.9079384910625775</v>
+        <v>0.9079384910625761</v>
       </c>
       <c r="M12">
-        <v>0.9485798006839624</v>
+        <v>0.9485798006839616</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8653441405618159</v>
+        <v>0.8653441405618169</v>
       </c>
       <c r="D13">
         <v>1.002153080155312</v>
       </c>
       <c r="E13">
-        <v>0.8911179489181049</v>
+        <v>0.891117948918106</v>
       </c>
       <c r="F13">
-        <v>0.9326934565894283</v>
+        <v>0.9326934565894287</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.035995682639959</v>
       </c>
       <c r="J13">
-        <v>0.9020670159511107</v>
+        <v>0.9020670159511116</v>
       </c>
       <c r="K13">
         <v>1.017195250776423</v>
       </c>
       <c r="L13">
-        <v>0.9086251878924521</v>
+        <v>0.9086251878924532</v>
       </c>
       <c r="M13">
-        <v>0.9491858338356961</v>
+        <v>0.9491858338356968</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8683091105937234</v>
+        <v>0.8683091105937206</v>
       </c>
       <c r="D14">
         <v>1.003086402887605</v>
       </c>
       <c r="E14">
-        <v>0.8935788576493422</v>
+        <v>0.8935788576493395</v>
       </c>
       <c r="F14">
-        <v>0.9348696007434845</v>
+        <v>0.9348696007434836</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.036484731967604</v>
       </c>
       <c r="J14">
-        <v>0.9044559085867273</v>
+        <v>0.9044559085867245</v>
       </c>
       <c r="K14">
         <v>1.017967240739911</v>
       </c>
       <c r="L14">
-        <v>0.9108516768438445</v>
+        <v>0.9108516768438419</v>
       </c>
       <c r="M14">
-        <v>0.9511527364210439</v>
+        <v>0.9511527364210427</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,10 +921,10 @@
         <v>1.003656173623975</v>
       </c>
       <c r="E15">
-        <v>0.8950761383880047</v>
+        <v>0.8950761383880046</v>
       </c>
       <c r="F15">
-        <v>0.9361952993572271</v>
+        <v>0.9361952993572268</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036782569590581</v>
       </c>
       <c r="J15">
-        <v>0.9059088882443377</v>
+        <v>0.9059088882443376</v>
       </c>
       <c r="K15">
         <v>1.018437921505485</v>
       </c>
       <c r="L15">
-        <v>0.9122059827709151</v>
+        <v>0.9122059827709149</v>
       </c>
       <c r="M15">
-        <v>0.9523505754332827</v>
+        <v>0.9523505754332824</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8802672619516206</v>
+        <v>0.8802672619516207</v>
       </c>
       <c r="D16">
         <v>1.006896343322276</v>
@@ -962,7 +962,7 @@
         <v>0.9035218428204257</v>
       </c>
       <c r="F16">
-        <v>0.9436957773025981</v>
+        <v>0.9436957773025983</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,10 +971,10 @@
         <v>1.038465807998281</v>
       </c>
       <c r="J16">
-        <v>0.9140977102647668</v>
+        <v>0.9140977102647666</v>
       </c>
       <c r="K16">
-        <v>1.021105873387126</v>
+        <v>1.021105873387127</v>
       </c>
       <c r="L16">
         <v>0.9198401336519154</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8863647604644165</v>
+        <v>0.8863647604644185</v>
       </c>
       <c r="D17">
-        <v>1.008866131283644</v>
+        <v>1.008866131283645</v>
       </c>
       <c r="E17">
-        <v>0.9086024156437434</v>
+        <v>0.9086024156437453</v>
       </c>
       <c r="F17">
-        <v>0.9482251133791835</v>
+        <v>0.9482251133791846</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.039480140737997</v>
       </c>
       <c r="J17">
-        <v>0.9190178908209498</v>
+        <v>0.9190178908209516</v>
       </c>
       <c r="K17">
         <v>1.022720470669241</v>
       </c>
       <c r="L17">
-        <v>0.9244281983263085</v>
+        <v>0.9244281983263104</v>
       </c>
       <c r="M17">
-        <v>0.9632062199236974</v>
+        <v>0.9632062199236984</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8898320729943821</v>
+        <v>0.8898320729943801</v>
       </c>
       <c r="D18">
-        <v>1.009994042894027</v>
+        <v>1.009994042894026</v>
       </c>
       <c r="E18">
-        <v>0.911494548252138</v>
+        <v>0.9114945482521359</v>
       </c>
       <c r="F18">
-        <v>0.9508088579416377</v>
+        <v>0.9508088579416363</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040057812317758</v>
+        <v>1.040057812317757</v>
       </c>
       <c r="J18">
-        <v>0.9218166956566343</v>
+        <v>0.9218166956566324</v>
       </c>
       <c r="K18">
         <v>1.023642467540671</v>
       </c>
       <c r="L18">
-        <v>0.9270384598472081</v>
+        <v>0.9270384598472063</v>
       </c>
       <c r="M18">
-        <v>0.9655343872042894</v>
+        <v>0.965534387204288</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.890999958744396</v>
+        <v>0.8909999587443967</v>
       </c>
       <c r="D19">
-        <v>1.010375197502295</v>
+        <v>1.010375197502296</v>
       </c>
       <c r="E19">
-        <v>0.9124691935220016</v>
+        <v>0.9124691935220022</v>
       </c>
       <c r="F19">
-        <v>0.9516804219458386</v>
+        <v>0.9516804219458396</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040252498254525</v>
+        <v>1.040252498254526</v>
       </c>
       <c r="J19">
-        <v>0.9227595532119146</v>
+        <v>0.9227595532119152</v>
       </c>
       <c r="K19">
-        <v>1.023953616881174</v>
+        <v>1.023953616881175</v>
       </c>
       <c r="L19">
-        <v>0.9279178622858938</v>
+        <v>0.9279178622858943</v>
       </c>
       <c r="M19">
-        <v>0.9663194575942954</v>
+        <v>0.9663194575942964</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8857199747016167</v>
+        <v>0.8857199747016153</v>
       </c>
       <c r="D20">
         <v>1.008656999669105</v>
       </c>
       <c r="E20">
-        <v>0.9080648359578249</v>
+        <v>0.9080648359578237</v>
       </c>
       <c r="F20">
-        <v>0.9477452785376269</v>
+        <v>0.9477452785376257</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.039372778230043</v>
       </c>
       <c r="J20">
-        <v>0.9184974953959646</v>
+        <v>0.9184974953959634</v>
       </c>
       <c r="K20">
-        <v>1.022549315249998</v>
+        <v>1.022549315249997</v>
       </c>
       <c r="L20">
-        <v>0.9239428897440738</v>
+        <v>0.9239428897440723</v>
       </c>
       <c r="M20">
-        <v>0.9627737134283952</v>
+        <v>0.9627737134283941</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8674410476851292</v>
+        <v>0.8674410476851289</v>
       </c>
       <c r="D21">
         <v>1.002812674046528</v>
       </c>
       <c r="E21">
-        <v>0.8928581851125256</v>
+        <v>0.892858185112525</v>
       </c>
       <c r="F21">
-        <v>0.9342319633051125</v>
+        <v>0.9342319633051126</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036341451783002</v>
       </c>
       <c r="J21">
-        <v>0.9037564280660818</v>
+        <v>0.9037564280660814</v>
       </c>
       <c r="K21">
         <v>1.017740954671196</v>
       </c>
       <c r="L21">
-        <v>0.9101997269072349</v>
+        <v>0.9101997269072344</v>
       </c>
       <c r="M21">
-        <v>0.9505764916017054</v>
+        <v>0.9505764916017055</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8549280110362403</v>
+        <v>0.8549280110362411</v>
       </c>
       <c r="D22">
-        <v>0.9989115848093214</v>
+        <v>0.9989115848093219</v>
       </c>
       <c r="E22">
-        <v>0.8824870800276866</v>
+        <v>0.8824870800276874</v>
       </c>
       <c r="F22">
-        <v>0.9250896777712196</v>
+        <v>0.9250896777712204</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.034286067175258</v>
       </c>
       <c r="J22">
-        <v>0.8936810207409976</v>
+        <v>0.8936810207409985</v>
       </c>
       <c r="K22">
         <v>1.014504634296815</v>
       </c>
       <c r="L22">
-        <v>0.9008110146916857</v>
+        <v>0.9008110146916867</v>
       </c>
       <c r="M22">
-        <v>0.9423070334951781</v>
+        <v>0.9423070334951789</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.861670807102088</v>
+        <v>0.8616708071020888</v>
       </c>
       <c r="D23">
-        <v>1.001003233608398</v>
+        <v>1.001003233608399</v>
       </c>
       <c r="E23">
-        <v>0.8880716052962719</v>
+        <v>0.8880716052962729</v>
       </c>
       <c r="F23">
-        <v>0.9300044923857259</v>
+        <v>0.9300044923857269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035391196784884</v>
+        <v>1.035391196784885</v>
       </c>
       <c r="J23">
-        <v>0.8991084616666815</v>
+        <v>0.8991084616666821</v>
       </c>
       <c r="K23">
         <v>1.016242491047433</v>
       </c>
       <c r="L23">
-        <v>0.9058680624841086</v>
+        <v>0.9058680624841092</v>
       </c>
       <c r="M23">
-        <v>0.9467543312712522</v>
+        <v>0.9467543312712527</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.886011599321709</v>
+        <v>0.8860115993217098</v>
       </c>
       <c r="D24">
         <v>1.00875156187049</v>
       </c>
       <c r="E24">
-        <v>0.9083079636909361</v>
+        <v>0.9083079636909365</v>
       </c>
       <c r="F24">
-        <v>0.9479622737052557</v>
+        <v>0.9479622737052564</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039421333666899</v>
       </c>
       <c r="J24">
-        <v>0.9187328576115944</v>
+        <v>0.9187328576115951</v>
       </c>
       <c r="K24">
         <v>1.022626713764121</v>
       </c>
       <c r="L24">
-        <v>0.924162381860567</v>
+        <v>0.9241623818605674</v>
       </c>
       <c r="M24">
-        <v>0.9629693105773224</v>
+        <v>0.9629693105773232</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9107972761114682</v>
+        <v>0.9107972761114684</v>
       </c>
       <c r="D25">
         <v>1.016926025615605</v>
       </c>
       <c r="E25">
-        <v>0.9290273987892265</v>
+        <v>0.9290273987892266</v>
       </c>
       <c r="F25">
-        <v>0.9665455440953087</v>
+        <v>0.9665455440953085</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.04355501879394</v>
       </c>
       <c r="J25">
-        <v>0.9387506876647714</v>
+        <v>0.9387506876647715</v>
       </c>
       <c r="K25">
-        <v>1.02926714850329</v>
+        <v>1.029267148503289</v>
       </c>
       <c r="L25">
-        <v>0.9428373779987311</v>
+        <v>0.9428373779987312</v>
       </c>
       <c r="M25">
-        <v>0.9796863914971196</v>
+        <v>0.9796863914971194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9285276125511289</v>
+        <v>0.9286251006351239</v>
       </c>
       <c r="D2">
-        <v>1.02292127473441</v>
+        <v>1.022936604877634</v>
       </c>
       <c r="E2">
-        <v>0.9439120025630782</v>
+        <v>0.9439980282872698</v>
       </c>
       <c r="F2">
-        <v>0.9799832502501256</v>
+        <v>0.9800387066632232</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04649905798317</v>
+        <v>1.046509498202632</v>
       </c>
       <c r="J2">
-        <v>0.9530785233588872</v>
+        <v>0.9531724283805285</v>
       </c>
       <c r="K2">
-        <v>1.034070255029498</v>
+        <v>1.03408538343885</v>
       </c>
       <c r="L2">
-        <v>0.9562122811009992</v>
+        <v>0.9562969188461848</v>
       </c>
       <c r="M2">
-        <v>0.9917286781704809</v>
+        <v>0.9917833214733462</v>
+      </c>
+      <c r="N2">
+        <v>0.9692450995973952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9404746896140106</v>
+        <v>0.9405561996590368</v>
       </c>
       <c r="D3">
-        <v>1.027017640832742</v>
+        <v>1.027030459397546</v>
       </c>
       <c r="E3">
-        <v>0.9539687450382426</v>
+        <v>0.9540408480941767</v>
       </c>
       <c r="F3">
-        <v>0.9890887777633571</v>
+        <v>0.9891351929518634</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04846189465205</v>
+        <v>1.04847064255396</v>
       </c>
       <c r="J3">
-        <v>0.9627309788033441</v>
+        <v>0.9628098588822164</v>
       </c>
       <c r="K3">
-        <v>1.037316113727502</v>
+        <v>1.037328778813252</v>
       </c>
       <c r="L3">
-        <v>0.9652265743157959</v>
+        <v>0.9652976387436486</v>
       </c>
       <c r="M3">
-        <v>0.9998632000614246</v>
+        <v>0.9999090048572953</v>
+      </c>
+      <c r="N3">
+        <v>0.975996915080786</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.947840003579544</v>
+        <v>0.9479120559304294</v>
       </c>
       <c r="D4">
-        <v>1.029561700780389</v>
+        <v>1.029573038968568</v>
       </c>
       <c r="E4">
-        <v>0.9601789499771559</v>
+        <v>0.9602427859154533</v>
       </c>
       <c r="F4">
-        <v>0.9947175686315879</v>
+        <v>0.9947586406315984</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049658739667845</v>
+        <v>1.049666487758001</v>
       </c>
       <c r="J4">
-        <v>0.9686791019193282</v>
+        <v>0.9687490215732493</v>
       </c>
       <c r="K4">
-        <v>1.039315968059252</v>
+        <v>1.039327178919163</v>
       </c>
       <c r="L4">
-        <v>0.9707829891135769</v>
+        <v>0.9708459723899515</v>
       </c>
       <c r="M4">
-        <v>1.004880168844219</v>
+        <v>1.004920738600177</v>
+      </c>
+      <c r="N4">
+        <v>0.9801532185136452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9508568422183021</v>
+        <v>0.9509251005332769</v>
       </c>
       <c r="D5">
-        <v>1.030607262060374</v>
+        <v>1.030618007914652</v>
       </c>
       <c r="E5">
-        <v>0.9627248364088244</v>
+        <v>0.9627853507836486</v>
       </c>
       <c r="F5">
-        <v>0.9970257455936421</v>
+        <v>0.9970646765795247</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050145323668054</v>
+        <v>1.050152671201201</v>
       </c>
       <c r="J5">
-        <v>0.9711146310521944</v>
+        <v>0.971180942029345</v>
       </c>
       <c r="K5">
-        <v>1.040134099793164</v>
+        <v>1.040144728269437</v>
       </c>
       <c r="L5">
-        <v>0.9730584738806741</v>
+        <v>0.973118205685094</v>
       </c>
       <c r="M5">
-        <v>1.006934695195302</v>
+        <v>1.006973164744593</v>
+      </c>
+      <c r="N5">
+        <v>0.9818539711758105</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9513589267890341</v>
+        <v>0.9514265580056163</v>
       </c>
       <c r="D6">
-        <v>1.030781452613558</v>
+        <v>1.030792100654216</v>
       </c>
       <c r="E6">
-        <v>0.9631486625102486</v>
+        <v>0.9632086276053543</v>
       </c>
       <c r="F6">
-        <v>0.9974100155875465</v>
+        <v>0.9974485928497334</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050226077264334</v>
+        <v>1.050233358623845</v>
       </c>
       <c r="J6">
-        <v>0.9715199155045497</v>
+        <v>0.9715856292385454</v>
       </c>
       <c r="K6">
-        <v>1.040270180267391</v>
+        <v>1.040280712543914</v>
       </c>
       <c r="L6">
-        <v>0.9734371457926048</v>
+        <v>0.9734963396495987</v>
       </c>
       <c r="M6">
-        <v>1.007276574525731</v>
+        <v>1.007314696951467</v>
+      </c>
+      <c r="N6">
+        <v>0.9821369193569315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9478806176793562</v>
+        <v>0.9479526186530355</v>
       </c>
       <c r="D7">
-        <v>1.029575763873766</v>
+        <v>1.029587094034672</v>
       </c>
       <c r="E7">
-        <v>0.9602132155799351</v>
+        <v>0.9602770065582649</v>
       </c>
       <c r="F7">
-        <v>0.994748633283185</v>
+        <v>0.9947896762802179</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049665305354495</v>
+        <v>1.049673048018301</v>
       </c>
       <c r="J7">
-        <v>0.968711893701293</v>
+        <v>0.9687817645422314</v>
       </c>
       <c r="K7">
-        <v>1.039326987047142</v>
+        <v>1.039338190016634</v>
       </c>
       <c r="L7">
-        <v>0.9708136247295396</v>
+        <v>0.970876564012541</v>
       </c>
       <c r="M7">
-        <v>1.004907830692406</v>
+        <v>1.004948372007965</v>
+      </c>
+      <c r="N7">
+        <v>0.9801761217284367</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9326459586044871</v>
+        <v>0.9327378449090352</v>
       </c>
       <c r="D8">
-        <v>1.024328726469708</v>
+        <v>1.02434317472528</v>
       </c>
       <c r="E8">
-        <v>0.94737633447641</v>
+        <v>0.9474574855192085</v>
       </c>
       <c r="F8">
-        <v>0.9831181062458156</v>
+        <v>0.983170391326856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047178197238307</v>
+        <v>1.047188043781301</v>
       </c>
       <c r="J8">
-        <v>0.9564062845036053</v>
+        <v>0.9564949379235942</v>
       </c>
       <c r="K8">
-        <v>1.035188933080134</v>
+        <v>1.035203197074468</v>
       </c>
       <c r="L8">
-        <v>0.9593196827018964</v>
+        <v>0.9593995731503202</v>
       </c>
       <c r="M8">
-        <v>0.9945317157864246</v>
+        <v>0.9945832616090839</v>
+      </c>
+      <c r="N8">
+        <v>0.971573741527249</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9025694780275769</v>
+        <v>0.9027048876441354</v>
       </c>
       <c r="D9">
-        <v>1.014183603561626</v>
+        <v>1.014204930090412</v>
       </c>
       <c r="E9">
-        <v>0.9221375576333417</v>
+        <v>0.9222563868451243</v>
       </c>
       <c r="F9">
-        <v>0.9603476915583631</v>
+        <v>0.9604246275573991</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042182718108917</v>
+        <v>1.042197180919362</v>
       </c>
       <c r="J9">
-        <v>0.9321031494538534</v>
+        <v>0.9322321633691012</v>
       </c>
       <c r="K9">
-        <v>1.027050678029888</v>
+        <v>1.027071670827201</v>
       </c>
       <c r="L9">
-        <v>0.9366342681473038</v>
+        <v>0.9367507176020652</v>
       </c>
       <c r="M9">
-        <v>0.9741186209599751</v>
+        <v>0.974194171311084</v>
+      </c>
+      <c r="N9">
+        <v>0.9545503287957601</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8795654916850669</v>
+        <v>0.8797391174596528</v>
       </c>
       <c r="D10">
-        <v>1.006670784947989</v>
+        <v>1.006698173965899</v>
       </c>
       <c r="E10">
-        <v>0.9029375638840617</v>
+        <v>0.9030890903107364</v>
       </c>
       <c r="F10">
-        <v>0.9431756997861801</v>
+        <v>0.9432742329452571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038349219841902</v>
+        <v>1.038367728385935</v>
       </c>
       <c r="J10">
-        <v>0.9135315907597531</v>
+        <v>0.9136952497395545</v>
       </c>
       <c r="K10">
-        <v>1.020920631880154</v>
+        <v>1.020947534865195</v>
       </c>
       <c r="L10">
-        <v>0.9193122825805723</v>
+        <v>0.919460227443484</v>
       </c>
       <c r="M10">
-        <v>0.9586527638318495</v>
+        <v>0.9587492231680541</v>
+      </c>
+      <c r="N10">
+        <v>0.941523569730066</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8686546440297593</v>
+        <v>0.8688483002080465</v>
       </c>
       <c r="D11">
-        <v>1.003195470269632</v>
+        <v>1.00322603433197</v>
       </c>
       <c r="E11">
-        <v>0.8938657646027908</v>
+        <v>0.8940342821987205</v>
       </c>
       <c r="F11">
-        <v>0.9351235321808782</v>
+        <v>0.9352333410951313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036541787139245</v>
+        <v>1.036562407596604</v>
       </c>
       <c r="J11">
-        <v>0.9047343551310707</v>
+        <v>0.9049159001153543</v>
       </c>
       <c r="K11">
-        <v>1.01805737525881</v>
+        <v>1.018087367733539</v>
       </c>
       <c r="L11">
-        <v>0.9111112076599052</v>
+        <v>0.9112754442976829</v>
       </c>
       <c r="M11">
-        <v>0.951382199930863</v>
+        <v>0.9514895372831845</v>
+      </c>
+      <c r="N11">
+        <v>0.9353504076952579</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8644294322614707</v>
+        <v>0.8646312283685784</v>
       </c>
       <c r="D12">
-        <v>1.001866080643412</v>
+        <v>1.001897933395544</v>
       </c>
       <c r="E12">
-        <v>0.8903591087348535</v>
+        <v>0.8905345027171905</v>
       </c>
       <c r="F12">
-        <v>0.9320231291497848</v>
+        <v>0.9321375092865405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035845008019655</v>
+        <v>1.035866484492072</v>
       </c>
       <c r="J12">
-        <v>0.9013301839843962</v>
+        <v>0.9015189471247232</v>
       </c>
       <c r="K12">
-        <v>1.016957616606407</v>
+        <v>1.01698886210564</v>
       </c>
       <c r="L12">
-        <v>0.9079384910625761</v>
+        <v>0.9081093076782983</v>
       </c>
       <c r="M12">
-        <v>0.9485798006839616</v>
+        <v>0.9486915412904451</v>
+      </c>
+      <c r="N12">
+        <v>0.9329615027470286</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8653441405618169</v>
+        <v>0.8655441552285895</v>
       </c>
       <c r="D13">
-        <v>1.002153080155312</v>
+        <v>1.002184650970887</v>
       </c>
       <c r="E13">
-        <v>0.891117948918106</v>
+        <v>0.891291839383021</v>
       </c>
       <c r="F13">
-        <v>0.9326934565894287</v>
+        <v>0.9328068368845545</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035995682639959</v>
+        <v>1.036016971889815</v>
       </c>
       <c r="J13">
-        <v>0.9020670159511116</v>
+        <v>0.9022542018049216</v>
       </c>
       <c r="K13">
-        <v>1.017195250776423</v>
+        <v>1.017226222184893</v>
       </c>
       <c r="L13">
-        <v>0.9086251878924532</v>
+        <v>0.9087945664352948</v>
       </c>
       <c r="M13">
-        <v>0.9491858338356968</v>
+        <v>0.9492966116563342</v>
+      </c>
+      <c r="N13">
+        <v>0.9334785825684695</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8683091105937206</v>
+        <v>0.8685034240344618</v>
       </c>
       <c r="D14">
-        <v>1.003086402887605</v>
+        <v>1.003117071045876</v>
       </c>
       <c r="E14">
-        <v>0.8935788576493395</v>
+        <v>0.8937479310888982</v>
       </c>
       <c r="F14">
-        <v>0.9348696007434836</v>
+        <v>0.9349797790119286</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036484731967604</v>
+        <v>1.036505421594862</v>
       </c>
       <c r="J14">
-        <v>0.9044559085867245</v>
+        <v>0.9046380374620806</v>
       </c>
       <c r="K14">
-        <v>1.017967240739911</v>
+        <v>1.017997334448648</v>
       </c>
       <c r="L14">
-        <v>0.9108516768438419</v>
+        <v>0.9110164456437311</v>
       </c>
       <c r="M14">
-        <v>0.9511527364210427</v>
+        <v>0.9512604296947963</v>
+      </c>
+      <c r="N14">
+        <v>0.9351550068647946</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8701120264483502</v>
+        <v>0.8703029265393533</v>
       </c>
       <c r="D15">
-        <v>1.003656173623975</v>
+        <v>1.003686301111905</v>
       </c>
       <c r="E15">
-        <v>0.8950761383880046</v>
+        <v>0.8952423240099161</v>
       </c>
       <c r="F15">
-        <v>0.9361952993572268</v>
+        <v>0.9363035590012353</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036782569590581</v>
+        <v>1.036802899905043</v>
       </c>
       <c r="J15">
-        <v>0.9059088882443376</v>
+        <v>0.9060879827631293</v>
       </c>
       <c r="K15">
-        <v>1.018437921505485</v>
+        <v>1.018467489371122</v>
       </c>
       <c r="L15">
-        <v>0.9122059827709149</v>
+        <v>0.9123679862464665</v>
       </c>
       <c r="M15">
-        <v>0.9523505754332824</v>
+        <v>0.9524564195882973</v>
+      </c>
+      <c r="N15">
+        <v>0.9361746361604414</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8802672619516207</v>
+        <v>0.8804396451225514</v>
       </c>
       <c r="D16">
-        <v>1.006896343322276</v>
+        <v>1.006923535241401</v>
       </c>
       <c r="E16">
-        <v>0.9035218428204257</v>
+        <v>0.9036723118779454</v>
       </c>
       <c r="F16">
-        <v>0.9436957773025983</v>
+        <v>0.9437936097964201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038465807998281</v>
+        <v>1.038484185295814</v>
       </c>
       <c r="J16">
-        <v>0.9140977102647666</v>
+        <v>0.9142602537004054</v>
       </c>
       <c r="K16">
-        <v>1.021105873387127</v>
+        <v>1.021132584466478</v>
       </c>
       <c r="L16">
-        <v>0.9198401336519154</v>
+        <v>0.919987063055405</v>
       </c>
       <c r="M16">
-        <v>0.9591219702059156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9592177527739847</v>
+      </c>
+      <c r="N16">
+        <v>0.9419207920265483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8863647604644185</v>
+        <v>0.8865265633789857</v>
       </c>
       <c r="D17">
-        <v>1.008866131283645</v>
+        <v>1.008891644648719</v>
       </c>
       <c r="E17">
-        <v>0.9086024156437453</v>
+        <v>0.9087438659003672</v>
       </c>
       <c r="F17">
-        <v>0.9482251133791846</v>
+        <v>0.9483169751064895</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039480140737997</v>
+        <v>1.039497399567527</v>
       </c>
       <c r="J17">
-        <v>0.9190178908209516</v>
+        <v>0.9191709067529999</v>
       </c>
       <c r="K17">
-        <v>1.022720470669241</v>
+        <v>1.022745546810405</v>
       </c>
       <c r="L17">
-        <v>0.9244281983263104</v>
+        <v>0.9245664583942765</v>
       </c>
       <c r="M17">
-        <v>0.9632062199236984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9632962312742959</v>
+      </c>
+      <c r="N17">
+        <v>0.9453728239557376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8898320729943801</v>
+        <v>0.8899880256775317</v>
       </c>
       <c r="D18">
-        <v>1.009994042894026</v>
+        <v>1.010018627995228</v>
       </c>
       <c r="E18">
-        <v>0.9114945482521359</v>
+        <v>0.9116309995526253</v>
       </c>
       <c r="F18">
-        <v>0.9508088579416363</v>
+        <v>0.9508974147407039</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040057812317757</v>
+        <v>1.040074452033865</v>
       </c>
       <c r="J18">
-        <v>0.9218166956566324</v>
+        <v>0.9219644207383112</v>
       </c>
       <c r="K18">
-        <v>1.023642467540671</v>
+        <v>1.023666639045567</v>
       </c>
       <c r="L18">
-        <v>0.9270384598472063</v>
+        <v>0.927171908352483</v>
       </c>
       <c r="M18">
-        <v>0.965534387204288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9656212008394063</v>
+      </c>
+      <c r="N18">
+        <v>0.9473362422211188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8909999587443967</v>
+        <v>0.8911539669021366</v>
       </c>
       <c r="D19">
-        <v>1.010375197502296</v>
+        <v>1.010399474066212</v>
       </c>
       <c r="E19">
-        <v>0.9124691935220022</v>
+        <v>0.9126039813363337</v>
       </c>
       <c r="F19">
-        <v>0.9516804219458396</v>
+        <v>0.9517678797445834</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040252498254526</v>
+        <v>1.040268932093111</v>
       </c>
       <c r="J19">
-        <v>0.9227595532119152</v>
+        <v>0.922905516055459</v>
       </c>
       <c r="K19">
-        <v>1.023953616881175</v>
+        <v>1.02397748762045</v>
       </c>
       <c r="L19">
-        <v>0.9279178622858943</v>
+        <v>0.9280497086426815</v>
       </c>
       <c r="M19">
-        <v>0.9663194575942964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9664052073538366</v>
+      </c>
+      <c r="N19">
+        <v>0.9479976293909251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8857199747016153</v>
+        <v>0.8858828785308452</v>
       </c>
       <c r="D20">
-        <v>1.008656999669105</v>
+        <v>1.008682687713546</v>
       </c>
       <c r="E20">
-        <v>0.9080648359578237</v>
+        <v>0.9082072259685449</v>
       </c>
       <c r="F20">
-        <v>0.9477452785376257</v>
+        <v>0.9478377619341335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039372778230043</v>
+        <v>1.039390153515917</v>
       </c>
       <c r="J20">
-        <v>0.9184974953959634</v>
+        <v>0.9186515051519563</v>
       </c>
       <c r="K20">
-        <v>1.022549315249997</v>
+        <v>1.02257456158407</v>
       </c>
       <c r="L20">
-        <v>0.9239428897440723</v>
+        <v>0.9240820538296685</v>
       </c>
       <c r="M20">
-        <v>0.9627737134283941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9628643260190094</v>
+      </c>
+      <c r="N20">
+        <v>0.945007734949459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8674410476851289</v>
+        <v>0.8676370188539186</v>
       </c>
       <c r="D21">
-        <v>1.002812674046528</v>
+        <v>1.002843604722516</v>
       </c>
       <c r="E21">
-        <v>0.892858185112525</v>
+        <v>0.8930286600103038</v>
       </c>
       <c r="F21">
-        <v>0.9342319633051126</v>
+        <v>0.9343430729563799</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036341451783002</v>
+        <v>1.036362315829692</v>
       </c>
       <c r="J21">
-        <v>0.9037564280660814</v>
+        <v>0.9039400287842609</v>
       </c>
       <c r="K21">
-        <v>1.017740954671196</v>
+        <v>1.017771303665141</v>
       </c>
       <c r="L21">
-        <v>0.9101997269072344</v>
+        <v>0.9103658372377783</v>
       </c>
       <c r="M21">
-        <v>0.9505764916017055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9506850822759094</v>
+      </c>
+      <c r="N21">
+        <v>0.9346641425959695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8549280110362411</v>
+        <v>0.8551489788273584</v>
       </c>
       <c r="D22">
-        <v>0.9989115848093219</v>
+        <v>0.9989464677665097</v>
       </c>
       <c r="E22">
-        <v>0.8824870800276874</v>
+        <v>0.8826786058236969</v>
       </c>
       <c r="F22">
-        <v>0.9250896777712204</v>
+        <v>0.9252147964287617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034286067175258</v>
+        <v>1.034309554071404</v>
       </c>
       <c r="J22">
-        <v>0.8936810207409985</v>
+        <v>0.8938866749496199</v>
       </c>
       <c r="K22">
-        <v>1.014504634296815</v>
+        <v>1.01453882426686</v>
       </c>
       <c r="L22">
-        <v>0.9008110146916867</v>
+        <v>0.9009972393768612</v>
       </c>
       <c r="M22">
-        <v>0.9423070334951789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9424291039560493</v>
+      </c>
+      <c r="N22">
+        <v>0.9275937049896976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8616708071020888</v>
+        <v>0.8618780421014381</v>
       </c>
       <c r="D23">
-        <v>1.001003233608399</v>
+        <v>1.001035946776182</v>
       </c>
       <c r="E23">
-        <v>0.8880716052962729</v>
+        <v>0.8882515848402424</v>
       </c>
       <c r="F23">
-        <v>0.9300044923857269</v>
+        <v>0.9301219230585019</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035391196784885</v>
+        <v>1.03541324444136</v>
       </c>
       <c r="J23">
-        <v>0.8991084616666821</v>
+        <v>0.8993020321181484</v>
       </c>
       <c r="K23">
-        <v>1.016242491047433</v>
+        <v>1.016274572875115</v>
       </c>
       <c r="L23">
-        <v>0.9058680624841092</v>
+        <v>0.9060432629073069</v>
       </c>
       <c r="M23">
-        <v>0.9467543312712527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9468690082844603</v>
+      </c>
+      <c r="N23">
+        <v>0.9314023862810211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8860115993217098</v>
+        <v>0.8861740047151364</v>
       </c>
       <c r="D24">
-        <v>1.00875156187049</v>
+        <v>1.008777170829699</v>
       </c>
       <c r="E24">
-        <v>0.9083079636909365</v>
+        <v>0.9084499282686724</v>
       </c>
       <c r="F24">
-        <v>0.9479622737052564</v>
+        <v>0.9480544756535623</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039421333666899</v>
+        <v>1.039438656229571</v>
       </c>
       <c r="J24">
-        <v>0.9187328576115951</v>
+        <v>0.9188864174879794</v>
       </c>
       <c r="K24">
-        <v>1.022626713764121</v>
+        <v>1.022651883045736</v>
       </c>
       <c r="L24">
-        <v>0.9241623818605674</v>
+        <v>0.9243011367110905</v>
       </c>
       <c r="M24">
-        <v>0.9629693105773232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9630596509788112</v>
+      </c>
+      <c r="N24">
+        <v>0.94517285661423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9107972761114684</v>
+        <v>0.910920137547773</v>
       </c>
       <c r="D25">
-        <v>1.016926025615605</v>
+        <v>1.016945364084354</v>
       </c>
       <c r="E25">
-        <v>0.9290273987892266</v>
+        <v>0.9291354121180466</v>
       </c>
       <c r="F25">
-        <v>0.9665455440953085</v>
+        <v>0.9666153736484075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04355501879394</v>
+        <v>1.043568150502511</v>
       </c>
       <c r="J25">
-        <v>0.9387506876647715</v>
+        <v>0.9388681677576357</v>
       </c>
       <c r="K25">
-        <v>1.029267148503289</v>
+        <v>1.029286199347772</v>
       </c>
       <c r="L25">
-        <v>0.9428373779987312</v>
+        <v>0.9429433636295763</v>
       </c>
       <c r="M25">
-        <v>0.9796863914971194</v>
+        <v>0.9797550381518387</v>
+      </c>
+      <c r="N25">
+        <v>0.9592101067847146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286251006351239</v>
+        <v>0.9643306391404917</v>
       </c>
       <c r="D2">
-        <v>1.022936604877634</v>
+        <v>1.031066471128329</v>
       </c>
       <c r="E2">
-        <v>0.9439980282872698</v>
+        <v>0.979908419041974</v>
       </c>
       <c r="F2">
-        <v>0.9800387066632232</v>
+        <v>0.9809544009144351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046509498202632</v>
+        <v>1.043879652160054</v>
       </c>
       <c r="J2">
-        <v>0.9531724283805285</v>
+        <v>0.9876331953826404</v>
       </c>
       <c r="K2">
-        <v>1.03408538343885</v>
+        <v>1.042109323778051</v>
       </c>
       <c r="L2">
-        <v>0.9562969188461848</v>
+        <v>0.9916549443338887</v>
       </c>
       <c r="M2">
-        <v>0.9917833214733462</v>
+        <v>0.9926856065460019</v>
       </c>
       <c r="N2">
-        <v>0.9692450995973952</v>
+        <v>0.9890357478031947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9405561996590368</v>
+        <v>0.9762590732853449</v>
       </c>
       <c r="D3">
-        <v>1.027030459397546</v>
+        <v>1.03388117186686</v>
       </c>
       <c r="E3">
-        <v>0.9540408480941767</v>
+        <v>0.9905203134309699</v>
       </c>
       <c r="F3">
-        <v>0.9891351929518634</v>
+        <v>0.9925507525893187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04847064255396</v>
+        <v>1.045271649212987</v>
       </c>
       <c r="J3">
-        <v>0.9628098588822164</v>
+        <v>0.9974185500179689</v>
       </c>
       <c r="K3">
-        <v>1.037328778813252</v>
+        <v>1.044098140723425</v>
       </c>
       <c r="L3">
-        <v>0.9652976387436486</v>
+        <v>1.001275943010836</v>
       </c>
       <c r="M3">
-        <v>0.9999090048572953</v>
+        <v>1.003279843693484</v>
       </c>
       <c r="N3">
-        <v>0.975996915080786</v>
+        <v>0.9988349987645011</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9479120559304294</v>
+        <v>0.9836203321087366</v>
       </c>
       <c r="D4">
-        <v>1.029573038968568</v>
+        <v>1.035644078461861</v>
       </c>
       <c r="E4">
-        <v>0.9602427859154533</v>
+        <v>0.9970775641708369</v>
       </c>
       <c r="F4">
-        <v>0.9947586406315984</v>
+        <v>0.9997191484778195</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049666487758001</v>
+        <v>1.046121617252503</v>
       </c>
       <c r="J4">
-        <v>0.9687490215732493</v>
+        <v>1.003452519201617</v>
       </c>
       <c r="K4">
-        <v>1.039327178919163</v>
+        <v>1.045330532801714</v>
       </c>
       <c r="L4">
-        <v>0.9708459723899515</v>
+        <v>1.007211388859963</v>
       </c>
       <c r="M4">
-        <v>1.004920738600177</v>
+        <v>1.009820964312228</v>
       </c>
       <c r="N4">
-        <v>0.9801532185136452</v>
+        <v>1.004877536876496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9509251005332769</v>
+        <v>0.986637106243194</v>
       </c>
       <c r="D5">
-        <v>1.030618007914652</v>
+        <v>1.036372062989497</v>
       </c>
       <c r="E5">
-        <v>0.9627853507836486</v>
+        <v>0.9997666584908276</v>
       </c>
       <c r="F5">
-        <v>0.9970646765795247</v>
+        <v>1.002659603280245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050152671201201</v>
+        <v>1.046467526115213</v>
       </c>
       <c r="J5">
-        <v>0.971180942029345</v>
+        <v>1.005924057084516</v>
       </c>
       <c r="K5">
-        <v>1.040144728269437</v>
+        <v>1.045836359872994</v>
       </c>
       <c r="L5">
-        <v>0.973118205685094</v>
+        <v>1.009643229630663</v>
       </c>
       <c r="M5">
-        <v>1.006973164744593</v>
+        <v>1.012502237567921</v>
       </c>
       <c r="N5">
-        <v>0.9818539711758105</v>
+        <v>1.007352584626678</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9514265580056163</v>
+        <v>0.9871392691762283</v>
       </c>
       <c r="D6">
-        <v>1.030792100654216</v>
+        <v>1.036493546476857</v>
       </c>
       <c r="E6">
-        <v>0.9632086276053543</v>
+        <v>1.000214378165915</v>
       </c>
       <c r="F6">
-        <v>0.9974485928497334</v>
+        <v>1.003149217681514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050233358623845</v>
+        <v>1.046524955569693</v>
       </c>
       <c r="J6">
-        <v>0.9715856292385454</v>
+        <v>1.006335381797612</v>
       </c>
       <c r="K6">
-        <v>1.040280712543914</v>
+        <v>1.04592059156838</v>
       </c>
       <c r="L6">
-        <v>0.9734963396495987</v>
+        <v>1.010047986034425</v>
       </c>
       <c r="M6">
-        <v>1.007314696951467</v>
+        <v>1.012948585316188</v>
       </c>
       <c r="N6">
-        <v>0.9821369193569315</v>
+        <v>1.007764493468046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9479526186530355</v>
+        <v>0.9836609392248143</v>
       </c>
       <c r="D7">
-        <v>1.029587094034672</v>
+        <v>1.035653856437692</v>
       </c>
       <c r="E7">
-        <v>0.9602770065582649</v>
+        <v>0.99711375361576</v>
       </c>
       <c r="F7">
-        <v>0.9947896762802179</v>
+        <v>0.99975871772022</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049673048018301</v>
+        <v>1.046126283276061</v>
       </c>
       <c r="J7">
-        <v>0.9687817645422314</v>
+        <v>1.003485792500224</v>
       </c>
       <c r="K7">
-        <v>1.039338190016634</v>
+        <v>1.045337338952417</v>
       </c>
       <c r="L7">
-        <v>0.970876564012541</v>
+        <v>1.007244125140077</v>
       </c>
       <c r="M7">
-        <v>1.004948372007965</v>
+        <v>1.009857053234471</v>
       </c>
       <c r="N7">
-        <v>0.9801761217284367</v>
+        <v>1.004910857427003</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9327378449090352</v>
+        <v>0.9684408401015632</v>
       </c>
       <c r="D8">
-        <v>1.02434317472528</v>
+        <v>1.032030345318816</v>
       </c>
       <c r="E8">
-        <v>0.9474574855192085</v>
+        <v>0.9835630308177958</v>
       </c>
       <c r="F8">
-        <v>0.983170391326856</v>
+        <v>0.9849474789245353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047188043781301</v>
+        <v>1.044361066387988</v>
       </c>
       <c r="J8">
-        <v>0.9564949379235942</v>
+        <v>0.9910058681517705</v>
       </c>
       <c r="K8">
-        <v>1.035203197074468</v>
+        <v>1.042793243985268</v>
       </c>
       <c r="L8">
-        <v>0.9593995731503202</v>
+        <v>0.9949703527471894</v>
       </c>
       <c r="M8">
-        <v>0.9945832616090839</v>
+        <v>0.9963352819405329</v>
       </c>
       <c r="N8">
-        <v>0.971573741527249</v>
+        <v>0.9924132101545079</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9027048876441354</v>
+        <v>0.9384679938578545</v>
       </c>
       <c r="D9">
-        <v>1.014204930090412</v>
+        <v>1.025152912071216</v>
       </c>
       <c r="E9">
-        <v>0.9222563868451243</v>
+        <v>0.9569616428914194</v>
       </c>
       <c r="F9">
-        <v>0.9604246275573991</v>
+        <v>0.955892349630145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042197180919362</v>
+        <v>1.040822147548626</v>
       </c>
       <c r="J9">
-        <v>0.9322321633691012</v>
+        <v>0.9663977599776983</v>
       </c>
       <c r="K9">
-        <v>1.027071670827201</v>
+        <v>1.037850668935681</v>
       </c>
       <c r="L9">
-        <v>0.9367507176020652</v>
+        <v>0.9707938435079191</v>
       </c>
       <c r="M9">
-        <v>0.974194171311084</v>
+        <v>0.9697440166959098</v>
       </c>
       <c r="N9">
-        <v>0.9545503287957601</v>
+        <v>0.967770155644239</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8797391174596528</v>
+        <v>0.9156191702006798</v>
       </c>
       <c r="D10">
-        <v>1.006698173965899</v>
+        <v>1.020157644896196</v>
       </c>
       <c r="E10">
-        <v>0.9030890903107364</v>
+        <v>0.9367643560355873</v>
       </c>
       <c r="F10">
-        <v>0.9432742329452571</v>
+        <v>0.9338408117846679</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038367728385935</v>
+        <v>1.038104374617217</v>
       </c>
       <c r="J10">
-        <v>0.9136952497395545</v>
+        <v>0.947632562737765</v>
       </c>
       <c r="K10">
-        <v>1.020947534865195</v>
+        <v>1.034172241189972</v>
       </c>
       <c r="L10">
-        <v>0.919460227443484</v>
+        <v>0.95237760269024</v>
       </c>
       <c r="M10">
-        <v>0.9587492231680541</v>
+        <v>0.9495169809364422</v>
       </c>
       <c r="N10">
-        <v>0.941523569730066</v>
+        <v>0.9489783096718265</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8688483002080465</v>
+        <v>0.9048084370819905</v>
       </c>
       <c r="D11">
-        <v>1.00322603433197</v>
+        <v>1.017872758356542</v>
       </c>
       <c r="E11">
-        <v>0.8940342821987205</v>
+        <v>0.9272348262362127</v>
       </c>
       <c r="F11">
-        <v>0.9352333410951313</v>
+        <v>0.9234367266163886</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036562407596604</v>
+        <v>1.036820435728672</v>
       </c>
       <c r="J11">
-        <v>0.9049159001153543</v>
+        <v>0.9387574867894304</v>
       </c>
       <c r="K11">
-        <v>1.018087367733539</v>
+        <v>1.032465312210438</v>
       </c>
       <c r="L11">
-        <v>0.9112754442976829</v>
+        <v>0.9436730992316661</v>
       </c>
       <c r="M11">
-        <v>0.9514895372831845</v>
+        <v>0.9399629371842002</v>
       </c>
       <c r="N11">
-        <v>0.9353504076952579</v>
+        <v>0.9400906300976599</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8646312283685784</v>
+        <v>0.9006270563288412</v>
       </c>
       <c r="D12">
-        <v>1.001897933395544</v>
+        <v>1.017002883878487</v>
       </c>
       <c r="E12">
-        <v>0.8905345027171905</v>
+        <v>0.9235538192748487</v>
       </c>
       <c r="F12">
-        <v>0.9321375092865405</v>
+        <v>0.9194177457833794</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035866484492072</v>
+        <v>1.036324843778374</v>
       </c>
       <c r="J12">
-        <v>0.9015189471247232</v>
+        <v>0.9353258797869304</v>
       </c>
       <c r="K12">
-        <v>1.01698886210564</v>
+        <v>1.031811427699149</v>
       </c>
       <c r="L12">
-        <v>0.9081093076782983</v>
+        <v>0.9403083712479022</v>
       </c>
       <c r="M12">
-        <v>0.9486915412904451</v>
+        <v>0.936270713594473</v>
       </c>
       <c r="N12">
-        <v>0.9329615027470286</v>
+        <v>0.9366541498196059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8655441552285895</v>
+        <v>0.9015320262214098</v>
       </c>
       <c r="D13">
-        <v>1.002184650970887</v>
+        <v>1.01719048784838</v>
       </c>
       <c r="E13">
-        <v>0.891291839383021</v>
+        <v>0.9243502611820464</v>
       </c>
       <c r="F13">
-        <v>0.9328068368845545</v>
+        <v>0.920287324402096</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036016971889815</v>
+        <v>1.036432045447675</v>
       </c>
       <c r="J13">
-        <v>0.9022542018049216</v>
+        <v>0.9360685170007558</v>
       </c>
       <c r="K13">
-        <v>1.017226222184893</v>
+        <v>1.031952639085452</v>
       </c>
       <c r="L13">
-        <v>0.9087945664352948</v>
+        <v>0.9410364916283138</v>
       </c>
       <c r="M13">
-        <v>0.9492966116563342</v>
+        <v>0.9370696642532119</v>
       </c>
       <c r="N13">
-        <v>0.9334785825684695</v>
+        <v>0.9373978416634565</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8685034240344618</v>
+        <v>0.904466378594174</v>
       </c>
       <c r="D14">
-        <v>1.003117071045876</v>
+        <v>1.017801305569874</v>
       </c>
       <c r="E14">
-        <v>0.8937479310888982</v>
+        <v>0.9269335981862479</v>
       </c>
       <c r="F14">
-        <v>0.9349797790119286</v>
+        <v>0.9231078456471483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036505421594862</v>
+        <v>1.036779868786403</v>
       </c>
       <c r="J14">
-        <v>0.9046380374620806</v>
+        <v>0.9384767377121863</v>
       </c>
       <c r="K14">
-        <v>1.017997334448648</v>
+        <v>1.03241168552704</v>
       </c>
       <c r="L14">
-        <v>0.9110164456437311</v>
+        <v>0.9433978024220846</v>
       </c>
       <c r="M14">
-        <v>0.9512604296947963</v>
+        <v>0.9396608275799365</v>
       </c>
       <c r="N14">
-        <v>0.9351550068647946</v>
+        <v>0.9398094823245239</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8703029265393533</v>
+        <v>0.9062513740825262</v>
       </c>
       <c r="D15">
-        <v>1.003686301111905</v>
+        <v>1.018174746239203</v>
       </c>
       <c r="E15">
-        <v>0.8952423240099161</v>
+        <v>0.9285057243214888</v>
       </c>
       <c r="F15">
-        <v>0.9363035590012353</v>
+        <v>0.92482428628149</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036802899905043</v>
+        <v>1.036991608321762</v>
       </c>
       <c r="J15">
-        <v>0.9060879827631293</v>
+        <v>0.9399418446552699</v>
       </c>
       <c r="K15">
-        <v>1.018467489371122</v>
+        <v>1.032691793481836</v>
       </c>
       <c r="L15">
-        <v>0.9123679862464665</v>
+        <v>0.944834494286767</v>
       </c>
       <c r="M15">
-        <v>0.9524564195882973</v>
+        <v>0.941237483054546</v>
       </c>
       <c r="N15">
-        <v>0.9361746361604414</v>
+        <v>0.9412766698875168</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8804396451225514</v>
+        <v>0.9163151185771293</v>
       </c>
       <c r="D16">
-        <v>1.006923535241401</v>
+        <v>1.020306491704005</v>
       </c>
       <c r="E16">
-        <v>0.9036723118779454</v>
+        <v>0.937378429969854</v>
       </c>
       <c r="F16">
-        <v>0.9437936097964201</v>
+        <v>0.9345112321259001</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038484185295814</v>
+        <v>1.038187124571455</v>
       </c>
       <c r="J16">
-        <v>0.9142602537004054</v>
+        <v>0.948204016941802</v>
       </c>
       <c r="K16">
-        <v>1.021132584466478</v>
+        <v>1.034282906014345</v>
       </c>
       <c r="L16">
-        <v>0.919987063055405</v>
+        <v>0.9529381934308944</v>
       </c>
       <c r="M16">
-        <v>0.9592177527739847</v>
+        <v>0.9501324083447718</v>
       </c>
       <c r="N16">
-        <v>0.9419207920265483</v>
+        <v>0.9495505754063802</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8865265633789857</v>
+        <v>0.9223650293432104</v>
       </c>
       <c r="D17">
-        <v>1.008891644648719</v>
+        <v>1.021609269646924</v>
       </c>
       <c r="E17">
-        <v>0.9087438659003672</v>
+        <v>0.9427196082518584</v>
       </c>
       <c r="F17">
-        <v>0.9483169751064895</v>
+        <v>0.9403425254186051</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039497399567527</v>
+        <v>1.038906757552533</v>
       </c>
       <c r="J17">
-        <v>0.9191709067529999</v>
+        <v>0.9531721324017099</v>
       </c>
       <c r="K17">
-        <v>1.022745546810405</v>
+        <v>1.035248729534066</v>
       </c>
       <c r="L17">
-        <v>0.9245664583942765</v>
+        <v>0.9578124809436034</v>
       </c>
       <c r="M17">
-        <v>0.9632962312742959</v>
+        <v>0.9554841886949934</v>
       </c>
       <c r="N17">
-        <v>0.9453728239557376</v>
+        <v>0.9545257461600922</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8899880256775317</v>
+        <v>0.925807618042131</v>
       </c>
       <c r="D18">
-        <v>1.010018627995228</v>
+        <v>1.022357624273804</v>
       </c>
       <c r="E18">
-        <v>0.9116309995526253</v>
+        <v>0.9457612803159808</v>
       </c>
       <c r="F18">
-        <v>0.9508974147407039</v>
+        <v>0.9436633506485589</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040074452033865</v>
+        <v>1.039316378880306</v>
       </c>
       <c r="J18">
-        <v>0.9219644207383112</v>
+        <v>0.9559994256933118</v>
       </c>
       <c r="K18">
-        <v>1.023666639045567</v>
+        <v>1.03580128163147</v>
       </c>
       <c r="L18">
-        <v>0.927171908352483</v>
+        <v>0.9605868764126937</v>
       </c>
       <c r="M18">
-        <v>0.9656212008394063</v>
+        <v>0.9585309520837704</v>
       </c>
       <c r="N18">
-        <v>0.9473362422211188</v>
+        <v>0.9573570545324631</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8911539669021366</v>
+        <v>0.9269675476579661</v>
       </c>
       <c r="D19">
-        <v>1.010399474066212</v>
+        <v>1.022610911556634</v>
       </c>
       <c r="E19">
-        <v>0.9126039813363337</v>
+        <v>0.9467865094126265</v>
       </c>
       <c r="F19">
-        <v>0.9517678797445834</v>
+        <v>0.9447826839917123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040268932093111</v>
+        <v>1.039454398050286</v>
       </c>
       <c r="J19">
-        <v>0.922905516055459</v>
+        <v>0.9569520740202252</v>
       </c>
       <c r="K19">
-        <v>1.02397748762045</v>
+        <v>1.035987926433737</v>
       </c>
       <c r="L19">
-        <v>0.9280497086426815</v>
+        <v>0.961521783246949</v>
       </c>
       <c r="M19">
-        <v>0.9664052073538366</v>
+        <v>0.9595577410462696</v>
       </c>
       <c r="N19">
-        <v>0.9479976293909251</v>
+        <v>0.958311055729271</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8858828785308452</v>
+        <v>0.9217250255548439</v>
       </c>
       <c r="D20">
-        <v>1.008682687713546</v>
+        <v>1.02147070494504</v>
       </c>
       <c r="E20">
-        <v>0.9082072259685449</v>
+        <v>0.9421543264379261</v>
       </c>
       <c r="F20">
-        <v>0.9478377619341335</v>
+        <v>0.9397253690450028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039390153515917</v>
+        <v>1.038830611690697</v>
       </c>
       <c r="J20">
-        <v>0.9186515051519563</v>
+        <v>0.9526465361291733</v>
       </c>
       <c r="K20">
-        <v>1.02257456158407</v>
+        <v>1.035146239638396</v>
       </c>
       <c r="L20">
-        <v>0.9240820538296685</v>
+        <v>0.9572967584790634</v>
       </c>
       <c r="M20">
-        <v>0.9628643260190094</v>
+        <v>0.9549178846526312</v>
       </c>
       <c r="N20">
-        <v>0.945007734949459</v>
+        <v>0.953999403480562</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8676370188539186</v>
+        <v>0.9036071308919853</v>
       </c>
       <c r="D21">
-        <v>1.002843604722516</v>
+        <v>1.017622046415878</v>
       </c>
       <c r="E21">
-        <v>0.8930286600103038</v>
+        <v>0.9261769965635435</v>
       </c>
       <c r="F21">
-        <v>0.9343430729563799</v>
+        <v>0.922281784240885</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036362315829692</v>
+        <v>1.03667798386065</v>
       </c>
       <c r="J21">
-        <v>0.9039400287842609</v>
+        <v>0.9377715184604972</v>
       </c>
       <c r="K21">
-        <v>1.017771303665141</v>
+        <v>1.032277081720001</v>
       </c>
       <c r="L21">
-        <v>0.9103658372377783</v>
+        <v>0.9427062940104074</v>
       </c>
       <c r="M21">
-        <v>0.9506850822759094</v>
+        <v>0.9389019831228078</v>
       </c>
       <c r="N21">
-        <v>0.9346641425959695</v>
+        <v>0.9391032615806078</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8551489788273584</v>
+        <v>0.8912352915121966</v>
       </c>
       <c r="D22">
-        <v>0.9989464677665097</v>
+        <v>1.015077669703407</v>
       </c>
       <c r="E22">
-        <v>0.8826786058236969</v>
+        <v>0.9152960945320683</v>
       </c>
       <c r="F22">
-        <v>0.9252147964287617</v>
+        <v>0.9104012564642543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034309554071404</v>
+        <v>1.035214532969701</v>
       </c>
       <c r="J22">
-        <v>0.8938866749496199</v>
+        <v>0.9276210214231934</v>
       </c>
       <c r="K22">
-        <v>1.01453882426686</v>
+        <v>1.03035623786556</v>
       </c>
       <c r="L22">
-        <v>0.9009972393768612</v>
+        <v>0.9327555357828862</v>
       </c>
       <c r="M22">
-        <v>0.9424291039560493</v>
+        <v>0.9279843313383702</v>
       </c>
       <c r="N22">
-        <v>0.9275937049896976</v>
+        <v>0.9289383496732326</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8618780421014381</v>
+        <v>0.8978986531826441</v>
       </c>
       <c r="D23">
-        <v>1.001035946776182</v>
+        <v>1.016439495233098</v>
       </c>
       <c r="E23">
-        <v>0.8882515848402424</v>
+        <v>0.9211534042120417</v>
       </c>
       <c r="F23">
-        <v>0.9301219230585019</v>
+        <v>0.9167968601032664</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03541324444136</v>
+        <v>1.036001852918924</v>
       </c>
       <c r="J23">
-        <v>0.8993020321181484</v>
+        <v>0.9330871100158228</v>
       </c>
       <c r="K23">
-        <v>1.016274572875115</v>
+        <v>1.031386731052416</v>
       </c>
       <c r="L23">
-        <v>0.9060432629073069</v>
+        <v>0.9381135091907233</v>
       </c>
       <c r="M23">
-        <v>0.9468690082844603</v>
+        <v>0.9338624649020404</v>
       </c>
       <c r="N23">
-        <v>0.9314023862810211</v>
+        <v>0.9344122007386327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8861740047151364</v>
+        <v>0.9220144801510691</v>
       </c>
       <c r="D24">
-        <v>1.008777170829699</v>
+        <v>1.021533351806683</v>
       </c>
       <c r="E24">
-        <v>0.9084499282686724</v>
+        <v>0.942409979160863</v>
       </c>
       <c r="F24">
-        <v>0.9480544756535623</v>
+        <v>0.9400044822536585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039438656229571</v>
+        <v>1.038865049841329</v>
       </c>
       <c r="J24">
-        <v>0.9188864174879794</v>
+        <v>0.9528842467885341</v>
       </c>
       <c r="K24">
-        <v>1.022651883045736</v>
+        <v>1.035192583579762</v>
       </c>
       <c r="L24">
-        <v>0.9243011367110905</v>
+        <v>0.9575300019757934</v>
       </c>
       <c r="M24">
-        <v>0.9630596509788112</v>
+        <v>0.9551740026272186</v>
       </c>
       <c r="N24">
-        <v>0.94517285661423</v>
+        <v>0.9542374517163245</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.910920137547773</v>
+        <v>0.9466569608415009</v>
       </c>
       <c r="D25">
-        <v>1.016945364084354</v>
+        <v>1.026996384383743</v>
       </c>
       <c r="E25">
-        <v>0.9291354121180466</v>
+        <v>0.9642179221564224</v>
       </c>
       <c r="F25">
-        <v>0.9666153736484075</v>
+        <v>0.9638160553674779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043568150502511</v>
+        <v>1.041794126326054</v>
       </c>
       <c r="J25">
-        <v>0.9388681677576357</v>
+        <v>0.9731232689214903</v>
       </c>
       <c r="K25">
-        <v>1.029286199347772</v>
+        <v>1.039189587822939</v>
       </c>
       <c r="L25">
-        <v>0.9429433636295763</v>
+        <v>0.9773983256169302</v>
       </c>
       <c r="M25">
-        <v>0.9797550381518387</v>
+        <v>0.9770033132120352</v>
       </c>
       <c r="N25">
-        <v>0.9592101067847146</v>
+        <v>0.9745052155821579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9643306391404917</v>
+        <v>1.00101256257664</v>
       </c>
       <c r="D2">
-        <v>1.031066471128329</v>
+        <v>1.03871073507185</v>
       </c>
       <c r="E2">
-        <v>0.979908419041974</v>
+        <v>1.013645674897913</v>
       </c>
       <c r="F2">
-        <v>0.9809544009144351</v>
+        <v>1.016055537968805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043879652160054</v>
+        <v>1.051313008669099</v>
       </c>
       <c r="J2">
-        <v>0.9876331953826404</v>
+        <v>1.023163030192576</v>
       </c>
       <c r="K2">
-        <v>1.042109323778051</v>
+        <v>1.049655877420468</v>
       </c>
       <c r="L2">
-        <v>0.9916549443338887</v>
+        <v>1.024918121632021</v>
       </c>
       <c r="M2">
-        <v>0.9926856065460019</v>
+        <v>1.027295635023687</v>
       </c>
       <c r="N2">
-        <v>0.9890357478031947</v>
+        <v>1.011679836478632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9762590732853449</v>
+        <v>1.005066315445616</v>
       </c>
       <c r="D3">
-        <v>1.03388117186686</v>
+        <v>1.041291589608929</v>
       </c>
       <c r="E3">
-        <v>0.9905203134309699</v>
+        <v>1.017137897342478</v>
       </c>
       <c r="F3">
-        <v>0.9925507525893187</v>
+        <v>1.020192590663129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045271649212987</v>
+        <v>1.052491843485062</v>
       </c>
       <c r="J3">
-        <v>0.9974185500179689</v>
+        <v>1.0254198140013</v>
       </c>
       <c r="K3">
-        <v>1.044098140723425</v>
+        <v>1.0514220511023</v>
       </c>
       <c r="L3">
-        <v>1.001275943010836</v>
+        <v>1.027556092817191</v>
       </c>
       <c r="M3">
-        <v>1.003279843693484</v>
+        <v>1.030573461680615</v>
       </c>
       <c r="N3">
-        <v>0.9988349987645011</v>
+        <v>1.012431256585275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836203321087366</v>
+        <v>1.007638056231571</v>
       </c>
       <c r="D4">
-        <v>1.035644078461861</v>
+        <v>1.042927913382865</v>
       </c>
       <c r="E4">
-        <v>0.9970775641708369</v>
+        <v>1.019359388292334</v>
       </c>
       <c r="F4">
-        <v>0.9997191484778195</v>
+        <v>1.022824859061338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046121617252503</v>
+        <v>1.053227306251829</v>
       </c>
       <c r="J4">
-        <v>1.003452519201617</v>
+        <v>1.026848377413651</v>
       </c>
       <c r="K4">
-        <v>1.045330532801714</v>
+        <v>1.052534437167118</v>
       </c>
       <c r="L4">
-        <v>1.007211388859963</v>
+        <v>1.029229645111454</v>
       </c>
       <c r="M4">
-        <v>1.009820964312228</v>
+        <v>1.032655396996604</v>
       </c>
       <c r="N4">
-        <v>1.004877536876496</v>
+        <v>1.01290686430411</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.986637106243194</v>
+        <v>1.008707325370051</v>
       </c>
       <c r="D5">
-        <v>1.036372062989497</v>
+        <v>1.04360793985863</v>
       </c>
       <c r="E5">
-        <v>0.9997666584908276</v>
+        <v>1.020284439543438</v>
       </c>
       <c r="F5">
-        <v>1.002659603280245</v>
+        <v>1.023921121603632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046467526115213</v>
+        <v>1.053530065610195</v>
       </c>
       <c r="J5">
-        <v>1.005924057084516</v>
+        <v>1.027441552311156</v>
       </c>
       <c r="K5">
-        <v>1.045836359872994</v>
+        <v>1.052994933383528</v>
       </c>
       <c r="L5">
-        <v>1.009643229630663</v>
+        <v>1.029925439936722</v>
       </c>
       <c r="M5">
-        <v>1.012502237567921</v>
+        <v>1.033521580045387</v>
       </c>
       <c r="N5">
-        <v>1.007352584626678</v>
+        <v>1.01310433509253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9871392691762283</v>
+        <v>1.008886174168905</v>
       </c>
       <c r="D6">
-        <v>1.036493546476857</v>
+        <v>1.043721661908348</v>
       </c>
       <c r="E6">
-        <v>1.000214378165915</v>
+        <v>1.020439247986622</v>
       </c>
       <c r="F6">
-        <v>1.003149217681514</v>
+        <v>1.024104592379575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046524955569693</v>
+        <v>1.053580526377433</v>
       </c>
       <c r="J6">
-        <v>1.006335381797612</v>
+        <v>1.027540721156468</v>
       </c>
       <c r="K6">
-        <v>1.04592059156838</v>
+        <v>1.053071837288212</v>
       </c>
       <c r="L6">
-        <v>1.010047986034425</v>
+        <v>1.030041817937553</v>
       </c>
       <c r="M6">
-        <v>1.012948585316188</v>
+        <v>1.03366649255663</v>
       </c>
       <c r="N6">
-        <v>1.007764493468046</v>
+        <v>1.013137348042751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9836609392248143</v>
+        <v>1.007652390072936</v>
       </c>
       <c r="D7">
-        <v>1.035653856437692</v>
+        <v>1.042937030681966</v>
       </c>
       <c r="E7">
-        <v>0.99711375361576</v>
+        <v>1.019371783332151</v>
       </c>
       <c r="F7">
-        <v>0.99975871772022</v>
+        <v>1.022839547558595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046126283276061</v>
+        <v>1.053231376854616</v>
       </c>
       <c r="J7">
-        <v>1.003485792500224</v>
+        <v>1.026856332233988</v>
       </c>
       <c r="K7">
-        <v>1.045337338952417</v>
+        <v>1.052540618259073</v>
       </c>
       <c r="L7">
-        <v>1.007244125140077</v>
+        <v>1.029238972578832</v>
       </c>
       <c r="M7">
-        <v>1.009857053234471</v>
+        <v>1.032667006220058</v>
       </c>
       <c r="N7">
-        <v>1.004910857427003</v>
+        <v>1.012909512557312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9684408401015632</v>
+        <v>1.002393413327445</v>
       </c>
       <c r="D8">
-        <v>1.032030345318816</v>
+        <v>1.039590024437293</v>
       </c>
       <c r="E8">
-        <v>0.9835630308177958</v>
+        <v>1.014833974654356</v>
       </c>
       <c r="F8">
-        <v>0.9849474789245353</v>
+        <v>1.017463143869301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044361066387988</v>
+        <v>1.051717127722764</v>
       </c>
       <c r="J8">
-        <v>0.9910058681517705</v>
+        <v>1.023932414830018</v>
       </c>
       <c r="K8">
-        <v>1.042793243985268</v>
+        <v>1.050259153398014</v>
       </c>
       <c r="L8">
-        <v>0.9949703527471894</v>
+        <v>1.025816690503037</v>
       </c>
       <c r="M8">
-        <v>0.9963352819405329</v>
+        <v>1.028411649467548</v>
       </c>
       <c r="N8">
-        <v>0.9924132101545079</v>
+        <v>1.01193602009477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9384679938578545</v>
+        <v>0.9927148735924213</v>
       </c>
       <c r="D9">
-        <v>1.025152912071216</v>
+        <v>1.033426121993157</v>
       </c>
       <c r="E9">
-        <v>0.9569616428914194</v>
+        <v>1.006531715261493</v>
       </c>
       <c r="F9">
-        <v>0.955892349630145</v>
+        <v>1.007630322732823</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040822147548626</v>
+        <v>1.0488342634159</v>
       </c>
       <c r="J9">
-        <v>0.9663977599776983</v>
+        <v>1.018527537559734</v>
       </c>
       <c r="K9">
-        <v>1.037850668935681</v>
+        <v>1.045999201870036</v>
       </c>
       <c r="L9">
-        <v>0.9707938435079191</v>
+        <v>1.019519701431913</v>
       </c>
       <c r="M9">
-        <v>0.9697440166959098</v>
+        <v>1.020600804540609</v>
       </c>
       <c r="N9">
-        <v>0.967770155644239</v>
+        <v>1.010136221882498</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9156191702006798</v>
+        <v>0.9859582921124103</v>
       </c>
       <c r="D10">
-        <v>1.020157644896196</v>
+        <v>1.029125830039259</v>
       </c>
       <c r="E10">
-        <v>0.9367643560355873</v>
+        <v>1.000771304991839</v>
       </c>
       <c r="F10">
-        <v>0.9338408117846679</v>
+        <v>1.000809135863382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038104374617217</v>
+        <v>1.046760217892505</v>
       </c>
       <c r="J10">
-        <v>0.947632562737765</v>
+        <v>1.014740315312289</v>
       </c>
       <c r="K10">
-        <v>1.034172241189972</v>
+        <v>1.04298839474986</v>
       </c>
       <c r="L10">
-        <v>0.95237760269024</v>
+        <v>1.015126647239396</v>
       </c>
       <c r="M10">
-        <v>0.9495169809364422</v>
+        <v>1.015163796464166</v>
       </c>
       <c r="N10">
-        <v>0.9489783096718265</v>
+        <v>1.008875021140658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9048084370819905</v>
+        <v>0.9829538464412733</v>
       </c>
       <c r="D11">
-        <v>1.017872758356542</v>
+        <v>1.027215548540363</v>
       </c>
       <c r="E11">
-        <v>0.9272348262362127</v>
+        <v>0.9982187450303103</v>
       </c>
       <c r="F11">
-        <v>0.9234367266163886</v>
+        <v>0.9977864952555273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036820435728672</v>
+        <v>1.045824153453608</v>
       </c>
       <c r="J11">
-        <v>0.9387574867894304</v>
+        <v>1.013053370909248</v>
       </c>
       <c r="K11">
-        <v>1.032465312210438</v>
+        <v>1.041641844154651</v>
       </c>
       <c r="L11">
-        <v>0.9436730992316661</v>
+        <v>1.013174331572364</v>
       </c>
       <c r="M11">
-        <v>0.9399629371842002</v>
+        <v>1.012750276109427</v>
       </c>
       <c r="N11">
-        <v>0.9400906300976599</v>
+        <v>1.008313253882182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9006270563288412</v>
+        <v>0.9818254175961815</v>
       </c>
       <c r="D12">
-        <v>1.017002883878487</v>
+        <v>1.026498475773994</v>
       </c>
       <c r="E12">
-        <v>0.9235538192748487</v>
+        <v>0.9972614253814213</v>
       </c>
       <c r="F12">
-        <v>0.9194177457833794</v>
+        <v>0.9966528435645119</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036324843778374</v>
+        <v>1.045470576548495</v>
       </c>
       <c r="J12">
-        <v>0.9353258797869304</v>
+        <v>1.012419384940546</v>
       </c>
       <c r="K12">
-        <v>1.031811427699149</v>
+        <v>1.041135025977721</v>
       </c>
       <c r="L12">
-        <v>0.9403083712479022</v>
+        <v>1.012441280905971</v>
       </c>
       <c r="M12">
-        <v>0.936270713594473</v>
+        <v>1.0118444519915</v>
       </c>
       <c r="N12">
-        <v>0.9366541498196059</v>
+        <v>1.008102134871784</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9015320262214098</v>
+        <v>0.9820680426747189</v>
       </c>
       <c r="D13">
-        <v>1.01719048784838</v>
+        <v>1.026652634525342</v>
       </c>
       <c r="E13">
-        <v>0.9243502611820464</v>
+        <v>0.9974671965719997</v>
       </c>
       <c r="F13">
-        <v>0.920287324402096</v>
+        <v>0.9968965183485222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036432045447675</v>
+        <v>1.045546689023618</v>
       </c>
       <c r="J13">
-        <v>0.9360685170007558</v>
+        <v>1.012555716235231</v>
       </c>
       <c r="K13">
-        <v>1.031952639085452</v>
+        <v>1.041244044629734</v>
       </c>
       <c r="L13">
-        <v>0.9410364916283138</v>
+        <v>1.01259888488558</v>
       </c>
       <c r="M13">
-        <v>0.9370696642532119</v>
+        <v>1.012039184012584</v>
       </c>
       <c r="N13">
-        <v>0.9373978416634565</v>
+        <v>1.008147533341774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.904466378594174</v>
+        <v>0.982860827650002</v>
       </c>
       <c r="D14">
-        <v>1.017801305569874</v>
+        <v>1.027156429845001</v>
       </c>
       <c r="E14">
-        <v>0.9269335981862479</v>
+        <v>0.9981398026552558</v>
       </c>
       <c r="F14">
-        <v>0.9231078456471483</v>
+        <v>0.9976930130142039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036779868786403</v>
+        <v>1.045795047686286</v>
       </c>
       <c r="J14">
-        <v>0.9384767377121863</v>
+        <v>1.013001117840661</v>
       </c>
       <c r="K14">
-        <v>1.03241168552704</v>
+        <v>1.041600087317988</v>
       </c>
       <c r="L14">
-        <v>0.9433978024220846</v>
+        <v>1.013113900083413</v>
       </c>
       <c r="M14">
-        <v>0.9396608275799365</v>
+        <v>1.012675593433943</v>
       </c>
       <c r="N14">
-        <v>0.9398094823245239</v>
+        <v>1.008295853379303</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9062513740825262</v>
+        <v>0.9833476209392596</v>
       </c>
       <c r="D15">
-        <v>1.018174746239203</v>
+        <v>1.027465831587308</v>
       </c>
       <c r="E15">
-        <v>0.9285057243214888</v>
+        <v>0.9985529869700259</v>
       </c>
       <c r="F15">
-        <v>0.92482428628149</v>
+        <v>0.9981822975196993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036991608321762</v>
+        <v>1.045947285007227</v>
       </c>
       <c r="J15">
-        <v>0.9399418446552699</v>
+        <v>1.013274556964127</v>
       </c>
       <c r="K15">
-        <v>1.032691793481836</v>
+        <v>1.04181856932872</v>
       </c>
       <c r="L15">
-        <v>0.944834494286767</v>
+        <v>1.013430163838755</v>
       </c>
       <c r="M15">
-        <v>0.941237483054546</v>
+        <v>1.013066455900306</v>
       </c>
       <c r="N15">
-        <v>0.9412766698875168</v>
+        <v>1.008386909988236</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9163151185771293</v>
+        <v>0.9861559762696522</v>
       </c>
       <c r="D16">
-        <v>1.020306491704005</v>
+        <v>1.029251570892518</v>
       </c>
       <c r="E16">
-        <v>0.937378429969854</v>
+        <v>1.000939446181184</v>
       </c>
       <c r="F16">
-        <v>0.9345112321259001</v>
+        <v>1.001008239137378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038187124571455</v>
+        <v>1.046821526460168</v>
       </c>
       <c r="J16">
-        <v>0.948204016941802</v>
+        <v>1.014851254847968</v>
       </c>
       <c r="K16">
-        <v>1.034282906014345</v>
+        <v>1.043076840295049</v>
       </c>
       <c r="L16">
-        <v>0.9529381934308944</v>
+        <v>1.015255131391802</v>
       </c>
       <c r="M16">
-        <v>0.9501324083447718</v>
+        <v>1.015322689051082</v>
       </c>
       <c r="N16">
-        <v>0.9495505754063802</v>
+        <v>1.00891196538536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9223650293432104</v>
+        <v>0.9878960710285561</v>
       </c>
       <c r="D17">
-        <v>1.021609269646924</v>
+        <v>1.030358624948517</v>
       </c>
       <c r="E17">
-        <v>0.9427196082518584</v>
+        <v>1.00242051344878</v>
       </c>
       <c r="F17">
-        <v>0.9403425254186051</v>
+        <v>1.002762028683827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038906757552533</v>
+        <v>1.047359625188326</v>
       </c>
       <c r="J17">
-        <v>0.9531721324017099</v>
+        <v>1.01582746532571</v>
       </c>
       <c r="K17">
-        <v>1.035248729534066</v>
+        <v>1.043854502644864</v>
       </c>
       <c r="L17">
-        <v>0.9578124809436034</v>
+        <v>1.016386234985564</v>
       </c>
       <c r="M17">
-        <v>0.9554841886949934</v>
+        <v>1.016721802229354</v>
       </c>
       <c r="N17">
-        <v>0.9545257461600922</v>
+        <v>1.00923705704309</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.925807618042131</v>
+        <v>0.9889034785427713</v>
       </c>
       <c r="D18">
-        <v>1.022357624273804</v>
+        <v>1.030999716270278</v>
       </c>
       <c r="E18">
-        <v>0.9457612803159808</v>
+        <v>1.003278803785998</v>
       </c>
       <c r="F18">
-        <v>0.9436633506485589</v>
+        <v>1.003778362964871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039316378880306</v>
+        <v>1.047669835962061</v>
       </c>
       <c r="J18">
-        <v>0.9559994256933118</v>
+        <v>1.016392354518642</v>
       </c>
       <c r="K18">
-        <v>1.03580128163147</v>
+        <v>1.044303980354419</v>
       </c>
       <c r="L18">
-        <v>0.9605868764126937</v>
+        <v>1.017041179802899</v>
       </c>
       <c r="M18">
-        <v>0.9585309520837704</v>
+        <v>1.017532194110544</v>
       </c>
       <c r="N18">
-        <v>0.9573570545324631</v>
+        <v>1.009425173793356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9269675476579661</v>
+        <v>0.9892457138474342</v>
       </c>
       <c r="D19">
-        <v>1.022610911556634</v>
+        <v>1.031217533494646</v>
       </c>
       <c r="E19">
-        <v>0.9467865094126265</v>
+        <v>1.003570522933743</v>
       </c>
       <c r="F19">
-        <v>0.9447826839917123</v>
+        <v>1.004123799384159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039454398050286</v>
+        <v>1.047774995278885</v>
       </c>
       <c r="J19">
-        <v>0.9569520740202252</v>
+        <v>1.016584209942732</v>
       </c>
       <c r="K19">
-        <v>1.035987926433737</v>
+        <v>1.044456548096757</v>
       </c>
       <c r="L19">
-        <v>0.961521783246949</v>
+        <v>1.017263693612938</v>
       </c>
       <c r="M19">
-        <v>0.9595577410462696</v>
+        <v>1.017807564841046</v>
       </c>
       <c r="N19">
-        <v>0.958311055729271</v>
+        <v>1.009489064652577</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9217250255548439</v>
+        <v>0.9877101615765137</v>
       </c>
       <c r="D20">
-        <v>1.02147070494504</v>
+        <v>1.030240329758874</v>
       </c>
       <c r="E20">
-        <v>0.9421543264379261</v>
+        <v>1.002262190301566</v>
       </c>
       <c r="F20">
-        <v>0.9397253690450028</v>
+        <v>1.002574552341737</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038830611690697</v>
+        <v>1.047302271365161</v>
       </c>
       <c r="J20">
-        <v>0.9526465361291733</v>
+        <v>1.015723196667092</v>
       </c>
       <c r="K20">
-        <v>1.035146239638396</v>
+        <v>1.043771494429909</v>
       </c>
       <c r="L20">
-        <v>0.9572967584790634</v>
+        <v>1.016265378112155</v>
       </c>
       <c r="M20">
-        <v>0.9549178846526312</v>
+        <v>1.016572281913862</v>
       </c>
       <c r="N20">
-        <v>0.953999403480562</v>
+        <v>1.009202334031089</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9036071308919853</v>
+        <v>0.9826277208039721</v>
       </c>
       <c r="D21">
-        <v>1.017622046415878</v>
+        <v>1.027008284164594</v>
       </c>
       <c r="E21">
-        <v>0.9261769965635435</v>
+        <v>0.9979419940860934</v>
       </c>
       <c r="F21">
-        <v>0.922281784240885</v>
+        <v>0.9974587708075257</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03667798386065</v>
+        <v>1.045722076039874</v>
       </c>
       <c r="J21">
-        <v>0.9377715184604972</v>
+        <v>1.012870164479043</v>
       </c>
       <c r="K21">
-        <v>1.032277081720001</v>
+        <v>1.041495426936998</v>
       </c>
       <c r="L21">
-        <v>0.9427062940104074</v>
+        <v>1.012962461197985</v>
       </c>
       <c r="M21">
-        <v>0.9389019831228078</v>
+        <v>1.012488448024405</v>
       </c>
       <c r="N21">
-        <v>0.9391032615806078</v>
+        <v>1.008252245401268</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8912352915121966</v>
+        <v>0.9793598630166807</v>
       </c>
       <c r="D22">
-        <v>1.015077669703407</v>
+        <v>1.024932581194424</v>
       </c>
       <c r="E22">
-        <v>0.9152960945320683</v>
+        <v>0.9951723388436036</v>
       </c>
       <c r="F22">
-        <v>0.9104012564642543</v>
+        <v>0.9941788716254319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035214532969701</v>
+        <v>1.04469442550085</v>
       </c>
       <c r="J22">
-        <v>0.9276210214231934</v>
+        <v>1.011033484776961</v>
       </c>
       <c r="K22">
-        <v>1.03035623786556</v>
+        <v>1.040025787809061</v>
       </c>
       <c r="L22">
-        <v>0.9327555357828862</v>
+        <v>1.010840043152884</v>
       </c>
       <c r="M22">
-        <v>0.9279843313383702</v>
+        <v>1.009866535000143</v>
       </c>
       <c r="N22">
-        <v>0.9289383496732326</v>
+        <v>1.007640636178731</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8978986531826441</v>
+        <v>0.9810992842938281</v>
       </c>
       <c r="D23">
-        <v>1.016439495233098</v>
+        <v>1.026037174318159</v>
       </c>
       <c r="E23">
-        <v>0.9211534042120417</v>
+        <v>0.9966457961638063</v>
       </c>
       <c r="F23">
-        <v>0.9167968601032664</v>
+        <v>0.9959238070282773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036001852918924</v>
+        <v>1.045242497397571</v>
       </c>
       <c r="J23">
-        <v>0.9330871100158228</v>
+        <v>1.01201131550269</v>
       </c>
       <c r="K23">
-        <v>1.031386731052416</v>
+        <v>1.040808602733231</v>
       </c>
       <c r="L23">
-        <v>0.9381135091907233</v>
+        <v>1.011969634876299</v>
       </c>
       <c r="M23">
-        <v>0.9338624649020404</v>
+        <v>1.011261753896881</v>
       </c>
       <c r="N23">
-        <v>0.9344122007386327</v>
+        <v>1.007966248053163</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9220144801510691</v>
+        <v>0.9877941893752928</v>
       </c>
       <c r="D24">
-        <v>1.021533351806683</v>
+        <v>1.030293796566691</v>
       </c>
       <c r="E24">
-        <v>0.942409979160863</v>
+        <v>1.002333746964178</v>
       </c>
       <c r="F24">
-        <v>0.9400044822536585</v>
+        <v>1.00265928525451</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038865049841329</v>
+        <v>1.047328198365728</v>
       </c>
       <c r="J24">
-        <v>0.9528842467885341</v>
+        <v>1.01577032512485</v>
       </c>
       <c r="K24">
-        <v>1.035192583579762</v>
+        <v>1.043809014984813</v>
       </c>
       <c r="L24">
-        <v>0.9575300019757934</v>
+        <v>1.016320002966534</v>
       </c>
       <c r="M24">
-        <v>0.9551740026272186</v>
+        <v>1.016639861252325</v>
       </c>
       <c r="N24">
-        <v>0.9542374517163245</v>
+        <v>1.009218028505218</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9466569608415009</v>
+        <v>0.9952685106833729</v>
       </c>
       <c r="D25">
-        <v>1.026996384383743</v>
+        <v>1.035052375917414</v>
       </c>
       <c r="E25">
-        <v>0.9642179221564224</v>
+        <v>1.008716286309038</v>
       </c>
       <c r="F25">
-        <v>0.9638160553674779</v>
+        <v>1.010217327046871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041794126326054</v>
+        <v>1.049605761278343</v>
       </c>
       <c r="J25">
-        <v>0.9731232689214903</v>
+        <v>1.019956164294344</v>
       </c>
       <c r="K25">
-        <v>1.039189587822939</v>
+        <v>1.047129869944184</v>
       </c>
       <c r="L25">
-        <v>0.9773983256169302</v>
+        <v>1.021180783412712</v>
       </c>
       <c r="M25">
-        <v>0.9770033132120352</v>
+        <v>1.022659076004834</v>
       </c>
       <c r="N25">
-        <v>0.9745052155821579</v>
+        <v>1.01061196939386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00101256257664</v>
+        <v>1.028528782021803</v>
       </c>
       <c r="D2">
-        <v>1.03871073507185</v>
+        <v>1.037627011731702</v>
       </c>
       <c r="E2">
-        <v>1.013645674897913</v>
+        <v>1.037150153806133</v>
       </c>
       <c r="F2">
-        <v>1.016055537968805</v>
+        <v>1.044963062975236</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051313008669099</v>
+        <v>1.036838182609293</v>
       </c>
       <c r="J2">
-        <v>1.023163030192576</v>
+        <v>1.033680597415674</v>
       </c>
       <c r="K2">
-        <v>1.049655877420468</v>
+        <v>1.040417357087322</v>
       </c>
       <c r="L2">
-        <v>1.024918121632021</v>
+        <v>1.03994186036851</v>
       </c>
       <c r="M2">
-        <v>1.027295635023687</v>
+        <v>1.047732637222567</v>
       </c>
       <c r="N2">
-        <v>1.011679836478632</v>
+        <v>1.015244064075143</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005066315445616</v>
+        <v>1.029382535204035</v>
       </c>
       <c r="D3">
-        <v>1.041291589608929</v>
+        <v>1.038149895012419</v>
       </c>
       <c r="E3">
-        <v>1.017137897342478</v>
+        <v>1.037942831302007</v>
       </c>
       <c r="F3">
-        <v>1.020192590663129</v>
+        <v>1.045917564499063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052491843485062</v>
+        <v>1.037010305478713</v>
       </c>
       <c r="J3">
-        <v>1.0254198140013</v>
+        <v>1.034175488631602</v>
       </c>
       <c r="K3">
-        <v>1.0514220511023</v>
+        <v>1.040750846638599</v>
       </c>
       <c r="L3">
-        <v>1.027556092817191</v>
+        <v>1.04054433141454</v>
       </c>
       <c r="M3">
-        <v>1.030573461680615</v>
+        <v>1.048498109937444</v>
       </c>
       <c r="N3">
-        <v>1.012431256585275</v>
+        <v>1.015408258463826</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007638056231571</v>
+        <v>1.029935329201887</v>
       </c>
       <c r="D4">
-        <v>1.042927913382865</v>
+        <v>1.038487958456991</v>
       </c>
       <c r="E4">
-        <v>1.019359388292334</v>
+        <v>1.038456524174829</v>
       </c>
       <c r="F4">
-        <v>1.022824859061338</v>
+        <v>1.046536309035299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053227306251829</v>
+        <v>1.037120190943779</v>
       </c>
       <c r="J4">
-        <v>1.026848377413651</v>
+        <v>1.034495431615556</v>
       </c>
       <c r="K4">
-        <v>1.052534437167118</v>
+        <v>1.040965647602495</v>
       </c>
       <c r="L4">
-        <v>1.029229645111454</v>
+        <v>1.040934292407169</v>
       </c>
       <c r="M4">
-        <v>1.032655396996604</v>
+        <v>1.048993917284953</v>
       </c>
       <c r="N4">
-        <v>1.01290686430411</v>
+        <v>1.015514386075599</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008707325370051</v>
+        <v>1.030167808241237</v>
       </c>
       <c r="D5">
-        <v>1.04360793985863</v>
+        <v>1.038630012042195</v>
       </c>
       <c r="E5">
-        <v>1.020284439543438</v>
+        <v>1.038672665181523</v>
       </c>
       <c r="F5">
-        <v>1.023921121603632</v>
+        <v>1.046796695307102</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053530065610195</v>
+        <v>1.037166029279617</v>
       </c>
       <c r="J5">
-        <v>1.027441552311156</v>
+        <v>1.0346298663287</v>
       </c>
       <c r="K5">
-        <v>1.052994933383528</v>
+        <v>1.041055711705317</v>
       </c>
       <c r="L5">
-        <v>1.029925439936722</v>
+        <v>1.041098259914119</v>
       </c>
       <c r="M5">
-        <v>1.033521580045387</v>
+        <v>1.049202471820275</v>
       </c>
       <c r="N5">
-        <v>1.01310433509253</v>
+        <v>1.01555897366583</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008886174168905</v>
+        <v>1.030206847405779</v>
       </c>
       <c r="D6">
-        <v>1.043721661908348</v>
+        <v>1.038653859402328</v>
       </c>
       <c r="E6">
-        <v>1.020439247986622</v>
+        <v>1.038708966981029</v>
       </c>
       <c r="F6">
-        <v>1.024104592379575</v>
+        <v>1.046840430862726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053580526377433</v>
+        <v>1.037173704746484</v>
       </c>
       <c r="J6">
-        <v>1.027540721156468</v>
+        <v>1.034652434410209</v>
       </c>
       <c r="K6">
-        <v>1.053071837288212</v>
+        <v>1.041070819853146</v>
       </c>
       <c r="L6">
-        <v>1.030041817937553</v>
+        <v>1.041125792378987</v>
       </c>
       <c r="M6">
-        <v>1.03366649255663</v>
+        <v>1.04923749587054</v>
       </c>
       <c r="N6">
-        <v>1.013137348042751</v>
+        <v>1.01556645843757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007652390072936</v>
+        <v>1.029938435268148</v>
       </c>
       <c r="D7">
-        <v>1.042937030681966</v>
+        <v>1.038489856854767</v>
       </c>
       <c r="E7">
-        <v>1.019371783332151</v>
+        <v>1.038459411538526</v>
       </c>
       <c r="F7">
-        <v>1.022839547558595</v>
+        <v>1.046539787285991</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053231376854616</v>
+        <v>1.037120804843802</v>
       </c>
       <c r="J7">
-        <v>1.026856332233988</v>
+        <v>1.034497228212593</v>
       </c>
       <c r="K7">
-        <v>1.052540618259073</v>
+        <v>1.040966851981311</v>
       </c>
       <c r="L7">
-        <v>1.029238972578832</v>
+        <v>1.04093648324099</v>
       </c>
       <c r="M7">
-        <v>1.032667006220058</v>
+        <v>1.048996703542458</v>
       </c>
       <c r="N7">
-        <v>1.012909512557312</v>
+        <v>1.015514981969503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002393413327445</v>
+        <v>1.028817236810443</v>
       </c>
       <c r="D8">
-        <v>1.039590024437293</v>
+        <v>1.03780377875667</v>
       </c>
       <c r="E8">
-        <v>1.014833974654356</v>
+        <v>1.037417880912095</v>
       </c>
       <c r="F8">
-        <v>1.017463143869301</v>
+        <v>1.045285408714451</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051717127722764</v>
+        <v>1.03689666020922</v>
       </c>
       <c r="J8">
-        <v>1.023932414830018</v>
+        <v>1.033847906480433</v>
       </c>
       <c r="K8">
-        <v>1.050259153398014</v>
+        <v>1.0405302653758</v>
       </c>
       <c r="L8">
-        <v>1.025816690503037</v>
+        <v>1.040145442257511</v>
       </c>
       <c r="M8">
-        <v>1.028411649467548</v>
+        <v>1.047991228878748</v>
       </c>
       <c r="N8">
-        <v>1.01193602009477</v>
+        <v>1.015299578342354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9927148735924213</v>
+        <v>1.026844350421973</v>
       </c>
       <c r="D9">
-        <v>1.033426121993157</v>
+        <v>1.036592786822446</v>
       </c>
       <c r="E9">
-        <v>1.006531715261493</v>
+        <v>1.035588597258563</v>
       </c>
       <c r="F9">
-        <v>1.007630322732823</v>
+        <v>1.043083669944983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0488342634159</v>
+        <v>1.036490320884332</v>
       </c>
       <c r="J9">
-        <v>1.018527537559734</v>
+        <v>1.03270158882821</v>
       </c>
       <c r="K9">
-        <v>1.045999201870036</v>
+        <v>1.039753432065143</v>
       </c>
       <c r="L9">
-        <v>1.019519701431913</v>
+        <v>1.0387525176692</v>
       </c>
       <c r="M9">
-        <v>1.020600804540609</v>
+        <v>1.046223311723763</v>
       </c>
       <c r="N9">
-        <v>1.010136221882498</v>
+        <v>1.014919130789967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9859582921124103</v>
+        <v>1.025531064044551</v>
       </c>
       <c r="D10">
-        <v>1.029125830039259</v>
+        <v>1.035784207840833</v>
       </c>
       <c r="E10">
-        <v>1.000771304991839</v>
+        <v>1.034373222544149</v>
       </c>
       <c r="F10">
-        <v>1.000809135863382</v>
+        <v>1.041621747678446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046760217892505</v>
+        <v>1.036211838901601</v>
       </c>
       <c r="J10">
-        <v>1.014740315312289</v>
+        <v>1.031936013225089</v>
       </c>
       <c r="K10">
-        <v>1.04298839474986</v>
+        <v>1.039230577592385</v>
       </c>
       <c r="L10">
-        <v>1.015126647239396</v>
+        <v>1.037824643489367</v>
       </c>
       <c r="M10">
-        <v>1.015163796464166</v>
+        <v>1.04504737992812</v>
       </c>
       <c r="N10">
-        <v>1.008875021140658</v>
+        <v>1.0146649327292</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9829538464412733</v>
+        <v>1.024962881313058</v>
       </c>
       <c r="D11">
-        <v>1.027215548540363</v>
+        <v>1.035433812140337</v>
       </c>
       <c r="E11">
-        <v>0.9982187450303103</v>
+        <v>1.033847955770299</v>
       </c>
       <c r="F11">
-        <v>0.9977864952555273</v>
+        <v>1.040990139694846</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045824153453608</v>
+        <v>1.03608946437876</v>
       </c>
       <c r="J11">
-        <v>1.013053370909248</v>
+        <v>1.031604201276876</v>
       </c>
       <c r="K11">
-        <v>1.041641844154651</v>
+        <v>1.03900301591817</v>
       </c>
       <c r="L11">
-        <v>1.013174331572364</v>
+        <v>1.037423055689323</v>
       </c>
       <c r="M11">
-        <v>1.012750276109427</v>
+        <v>1.044538842020059</v>
       </c>
       <c r="N11">
-        <v>1.008313253882182</v>
+        <v>1.014554732957943</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9818254175961815</v>
+        <v>1.024751906258967</v>
       </c>
       <c r="D12">
-        <v>1.026498475773994</v>
+        <v>1.035303620147436</v>
       </c>
       <c r="E12">
-        <v>0.9972614253814213</v>
+        <v>1.033652999929034</v>
       </c>
       <c r="F12">
-        <v>0.9966528435645119</v>
+        <v>1.040755746423384</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045470576548495</v>
+        <v>1.03604374098915</v>
       </c>
       <c r="J12">
-        <v>1.012419384940546</v>
+        <v>1.031480905697039</v>
       </c>
       <c r="K12">
-        <v>1.041135025977721</v>
+        <v>1.03891831619134</v>
       </c>
       <c r="L12">
-        <v>1.012441280905971</v>
+        <v>1.037273917587655</v>
       </c>
       <c r="M12">
-        <v>1.0118444519915</v>
+        <v>1.044350047231685</v>
       </c>
       <c r="N12">
-        <v>1.008102134871784</v>
+        <v>1.014513780681857</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9820680426747189</v>
+        <v>1.024797157784993</v>
       </c>
       <c r="D13">
-        <v>1.026652634525342</v>
+        <v>1.035331548524266</v>
       </c>
       <c r="E13">
-        <v>0.9974671965719997</v>
+        <v>1.033694811731502</v>
       </c>
       <c r="F13">
-        <v>0.9968965183485222</v>
+        <v>1.040806014863318</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045546689023618</v>
+        <v>1.036053560926812</v>
       </c>
       <c r="J13">
-        <v>1.012555716235231</v>
+        <v>1.031507355074133</v>
       </c>
       <c r="K13">
-        <v>1.041244044629734</v>
+        <v>1.038936492384622</v>
       </c>
       <c r="L13">
-        <v>1.01259888488558</v>
+        <v>1.037305906862006</v>
       </c>
       <c r="M13">
-        <v>1.012039184012584</v>
+        <v>1.044390539859287</v>
       </c>
       <c r="N13">
-        <v>1.008147533341774</v>
+        <v>1.014522565945252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.982860827650002</v>
+        <v>1.024945440545908</v>
       </c>
       <c r="D14">
-        <v>1.027156429845001</v>
+        <v>1.035423051222457</v>
       </c>
       <c r="E14">
-        <v>0.9981398026552558</v>
+        <v>1.033831837557195</v>
       </c>
       <c r="F14">
-        <v>0.9976930130142039</v>
+        <v>1.040970760297872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045795047686286</v>
+        <v>1.036085690332017</v>
       </c>
       <c r="J14">
-        <v>1.013001117840661</v>
+        <v>1.031594010554573</v>
       </c>
       <c r="K14">
-        <v>1.041600087317988</v>
+        <v>1.038996018137113</v>
       </c>
       <c r="L14">
-        <v>1.013113900083413</v>
+        <v>1.037410727278448</v>
       </c>
       <c r="M14">
-        <v>1.012675593433943</v>
+        <v>1.044523234159513</v>
       </c>
       <c r="N14">
-        <v>1.008295853379303</v>
+        <v>1.014551348218829</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9833476209392596</v>
+        <v>1.025036812203824</v>
       </c>
       <c r="D15">
-        <v>1.027465831587308</v>
+        <v>1.035479423889424</v>
       </c>
       <c r="E15">
-        <v>0.9985529869700259</v>
+        <v>1.033916283830967</v>
       </c>
       <c r="F15">
-        <v>0.9981822975196993</v>
+        <v>1.04107229381028</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045947285007227</v>
+        <v>1.036105450827</v>
       </c>
       <c r="J15">
-        <v>1.013274556964127</v>
+        <v>1.031647395814349</v>
       </c>
       <c r="K15">
-        <v>1.04181856932872</v>
+        <v>1.039032671011114</v>
       </c>
       <c r="L15">
-        <v>1.013430163838755</v>
+        <v>1.037475314541839</v>
       </c>
       <c r="M15">
-        <v>1.013066455900306</v>
+        <v>1.044605004636514</v>
       </c>
       <c r="N15">
-        <v>1.008386909988236</v>
+        <v>1.014569079398874</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9861559762696522</v>
+        <v>1.025568782667526</v>
       </c>
       <c r="D16">
-        <v>1.029251570892518</v>
+        <v>1.03580745681136</v>
       </c>
       <c r="E16">
-        <v>1.000939446181184</v>
+        <v>1.034408103944936</v>
       </c>
       <c r="F16">
-        <v>1.001008239137378</v>
+        <v>1.041663695349706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046821526460168</v>
+        <v>1.036219922858047</v>
       </c>
       <c r="J16">
-        <v>1.014851254847968</v>
+        <v>1.031958027999996</v>
       </c>
       <c r="K16">
-        <v>1.043076840295049</v>
+        <v>1.039245655745946</v>
       </c>
       <c r="L16">
-        <v>1.015255131391802</v>
+        <v>1.037851299614842</v>
       </c>
       <c r="M16">
-        <v>1.015322689051082</v>
+        <v>1.045081143695719</v>
       </c>
       <c r="N16">
-        <v>1.00891196538536</v>
+        <v>1.014672243613843</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9878960710285561</v>
+        <v>1.025902602866647</v>
       </c>
       <c r="D17">
-        <v>1.030358624948517</v>
+        <v>1.036013150799056</v>
       </c>
       <c r="E17">
-        <v>1.00242051344878</v>
+        <v>1.034716878174251</v>
       </c>
       <c r="F17">
-        <v>1.002762028683827</v>
+        <v>1.042035045621998</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047359625188326</v>
+        <v>1.036291249532119</v>
       </c>
       <c r="J17">
-        <v>1.01582746532571</v>
+        <v>1.032152796450176</v>
       </c>
       <c r="K17">
-        <v>1.043854502644864</v>
+        <v>1.039378945286483</v>
       </c>
       <c r="L17">
-        <v>1.016386234985564</v>
+        <v>1.03808719630322</v>
       </c>
       <c r="M17">
-        <v>1.016721802229354</v>
+        <v>1.045379987731725</v>
       </c>
       <c r="N17">
-        <v>1.00923705704309</v>
+        <v>1.014736921193731</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9889034785427713</v>
+        <v>1.026097360660425</v>
       </c>
       <c r="D18">
-        <v>1.030999716270278</v>
+        <v>1.036133101891511</v>
       </c>
       <c r="E18">
-        <v>1.003278803785998</v>
+        <v>1.034897077190655</v>
       </c>
       <c r="F18">
-        <v>1.003778362964871</v>
+        <v>1.042251784275559</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047669835962061</v>
+        <v>1.036332680407585</v>
       </c>
       <c r="J18">
-        <v>1.016392354518642</v>
+        <v>1.03226637134941</v>
       </c>
       <c r="K18">
-        <v>1.044303980354419</v>
+        <v>1.039456578586186</v>
       </c>
       <c r="L18">
-        <v>1.017041179802899</v>
+        <v>1.038224808889731</v>
       </c>
       <c r="M18">
-        <v>1.017532194110544</v>
+        <v>1.045554360859387</v>
       </c>
       <c r="N18">
-        <v>1.009425173793356</v>
+        <v>1.014774633929296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9892457138474342</v>
+        <v>1.026163775816528</v>
       </c>
       <c r="D19">
-        <v>1.031217533494646</v>
+        <v>1.036173997519671</v>
       </c>
       <c r="E19">
-        <v>1.003570522933743</v>
+        <v>1.034958536672085</v>
       </c>
       <c r="F19">
-        <v>1.004123799384159</v>
+        <v>1.042325709628839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047774995278885</v>
+        <v>1.036346777934331</v>
       </c>
       <c r="J19">
-        <v>1.016584209942732</v>
+        <v>1.032305092291093</v>
       </c>
       <c r="K19">
-        <v>1.044456548096757</v>
+        <v>1.039483030454874</v>
       </c>
       <c r="L19">
-        <v>1.017263693612938</v>
+        <v>1.038271734246714</v>
       </c>
       <c r="M19">
-        <v>1.017807564841046</v>
+        <v>1.045613828140059</v>
       </c>
       <c r="N19">
-        <v>1.009489064652577</v>
+        <v>1.014787490847547</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9877101615765137</v>
+        <v>1.025866782338362</v>
       </c>
       <c r="D20">
-        <v>1.030240329758874</v>
+        <v>1.035991084531346</v>
       </c>
       <c r="E20">
-        <v>1.002262190301566</v>
+        <v>1.034683739656218</v>
       </c>
       <c r="F20">
-        <v>1.002574552341737</v>
+        <v>1.041995189140034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047302271365161</v>
+        <v>1.036283614718716</v>
       </c>
       <c r="J20">
-        <v>1.015723196667092</v>
+        <v>1.032131902758728</v>
       </c>
       <c r="K20">
-        <v>1.043771494429909</v>
+        <v>1.039364656178838</v>
       </c>
       <c r="L20">
-        <v>1.016265378112155</v>
+        <v>1.038061884946019</v>
       </c>
       <c r="M20">
-        <v>1.016572281913862</v>
+        <v>1.045347918124276</v>
       </c>
       <c r="N20">
-        <v>1.009202334031089</v>
+        <v>1.014729983202108</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826277208039721</v>
+        <v>1.024901772934039</v>
       </c>
       <c r="D21">
-        <v>1.027008284164594</v>
+        <v>1.035396107030986</v>
       </c>
       <c r="E21">
-        <v>0.9979419940860934</v>
+        <v>1.033791482668242</v>
       </c>
       <c r="F21">
-        <v>0.9974587708075257</v>
+        <v>1.040922240951581</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045722076039874</v>
+        <v>1.036076236415218</v>
       </c>
       <c r="J21">
-        <v>1.012870164479043</v>
+        <v>1.031568493932024</v>
       </c>
       <c r="K21">
-        <v>1.041495426936998</v>
+        <v>1.038978494056097</v>
       </c>
       <c r="L21">
-        <v>1.012962461197985</v>
+        <v>1.037379859454207</v>
       </c>
       <c r="M21">
-        <v>1.012488448024405</v>
+        <v>1.044484156255643</v>
       </c>
       <c r="N21">
-        <v>1.008252245401268</v>
+        <v>1.014542873082684</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9793598630166807</v>
+        <v>1.024295458045913</v>
       </c>
       <c r="D22">
-        <v>1.024932581194424</v>
+        <v>1.035021793918589</v>
       </c>
       <c r="E22">
-        <v>0.9951723388436036</v>
+        <v>1.033231363345005</v>
       </c>
       <c r="F22">
-        <v>0.9941788716254319</v>
+        <v>1.040248875103393</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04469442550085</v>
+        <v>1.035944299065164</v>
       </c>
       <c r="J22">
-        <v>1.011033484776961</v>
+        <v>1.031213991732669</v>
       </c>
       <c r="K22">
-        <v>1.040025787809061</v>
+        <v>1.038734697286228</v>
       </c>
       <c r="L22">
-        <v>1.010840043152884</v>
+        <v>1.03695121419249</v>
       </c>
       <c r="M22">
-        <v>1.009866535000143</v>
+        <v>1.043941647413473</v>
       </c>
       <c r="N22">
-        <v>1.007640636178731</v>
+        <v>1.014425118787888</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9810992842938281</v>
+        <v>1.02461683631829</v>
       </c>
       <c r="D23">
-        <v>1.026037174318159</v>
+        <v>1.035220245251115</v>
       </c>
       <c r="E23">
-        <v>0.9966457961638063</v>
+        <v>1.033528209428119</v>
       </c>
       <c r="F23">
-        <v>0.9959238070282773</v>
+        <v>1.040605721071914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045242497397571</v>
+        <v>1.036014388214948</v>
       </c>
       <c r="J23">
-        <v>1.01201131550269</v>
+        <v>1.031401944771881</v>
       </c>
       <c r="K23">
-        <v>1.040808602733231</v>
+        <v>1.038864033005985</v>
       </c>
       <c r="L23">
-        <v>1.011969634876299</v>
+        <v>1.037178430502245</v>
       </c>
       <c r="M23">
-        <v>1.011261753896881</v>
+        <v>1.044229186868685</v>
       </c>
       <c r="N23">
-        <v>1.007966248053163</v>
+        <v>1.01448755292845</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9877941893752928</v>
+        <v>1.025882967950849</v>
       </c>
       <c r="D24">
-        <v>1.030293796566691</v>
+        <v>1.036001055410734</v>
       </c>
       <c r="E24">
-        <v>1.002333746964178</v>
+        <v>1.03469871322893</v>
       </c>
       <c r="F24">
-        <v>1.00265928525451</v>
+        <v>1.042013198147594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047328198365728</v>
+        <v>1.036287065096172</v>
       </c>
       <c r="J24">
-        <v>1.01577032512485</v>
+        <v>1.032141343812099</v>
       </c>
       <c r="K24">
-        <v>1.043809014984813</v>
+        <v>1.03937111315847</v>
       </c>
       <c r="L24">
-        <v>1.016320002966534</v>
+        <v>1.038073322003224</v>
       </c>
       <c r="M24">
-        <v>1.016639861252325</v>
+        <v>1.045362408806633</v>
       </c>
       <c r="N24">
-        <v>1.009218028505218</v>
+        <v>1.014733118220864</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9952685106833729</v>
+        <v>1.027354047476105</v>
       </c>
       <c r="D25">
-        <v>1.035052375917414</v>
+        <v>1.036906086296807</v>
       </c>
       <c r="E25">
-        <v>1.008716286309038</v>
+        <v>1.036060786881886</v>
       </c>
       <c r="F25">
-        <v>1.010217327046871</v>
+        <v>1.043651838737917</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049605761278343</v>
+        <v>1.03659671091345</v>
       </c>
       <c r="J25">
-        <v>1.019956164294344</v>
+        <v>1.032998184784613</v>
       </c>
       <c r="K25">
-        <v>1.047129869944184</v>
+        <v>1.039955143518099</v>
       </c>
       <c r="L25">
-        <v>1.021180783412712</v>
+        <v>1.039112496811935</v>
       </c>
       <c r="M25">
-        <v>1.022659076004834</v>
+        <v>1.046679894671931</v>
       </c>
       <c r="N25">
-        <v>1.01061196939386</v>
+        <v>1.015017587218659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028528782021803</v>
+        <v>1.00101256257664</v>
       </c>
       <c r="D2">
-        <v>1.037627011731702</v>
+        <v>1.03871073507185</v>
       </c>
       <c r="E2">
-        <v>1.037150153806133</v>
+        <v>1.013645674897913</v>
       </c>
       <c r="F2">
-        <v>1.044963062975236</v>
+        <v>1.016055537968805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036838182609293</v>
+        <v>1.051313008669098</v>
       </c>
       <c r="J2">
-        <v>1.033680597415674</v>
+        <v>1.023163030192576</v>
       </c>
       <c r="K2">
-        <v>1.040417357087322</v>
+        <v>1.049655877420467</v>
       </c>
       <c r="L2">
-        <v>1.03994186036851</v>
+        <v>1.024918121632021</v>
       </c>
       <c r="M2">
-        <v>1.047732637222567</v>
+        <v>1.027295635023687</v>
       </c>
       <c r="N2">
-        <v>1.015244064075143</v>
+        <v>1.011679836478632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029382535204035</v>
+        <v>1.005066315445615</v>
       </c>
       <c r="D3">
-        <v>1.038149895012419</v>
+        <v>1.041291589608928</v>
       </c>
       <c r="E3">
-        <v>1.037942831302007</v>
+        <v>1.017137897342477</v>
       </c>
       <c r="F3">
-        <v>1.045917564499063</v>
+        <v>1.020192590663128</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037010305478713</v>
+        <v>1.052491843485061</v>
       </c>
       <c r="J3">
-        <v>1.034175488631602</v>
+        <v>1.025419814001299</v>
       </c>
       <c r="K3">
-        <v>1.040750846638599</v>
+        <v>1.051422051102299</v>
       </c>
       <c r="L3">
-        <v>1.04054433141454</v>
+        <v>1.02755609281719</v>
       </c>
       <c r="M3">
-        <v>1.048498109937444</v>
+        <v>1.030573461680614</v>
       </c>
       <c r="N3">
-        <v>1.015408258463826</v>
+        <v>1.012431256585275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029935329201887</v>
+        <v>1.00763805623157</v>
       </c>
       <c r="D4">
-        <v>1.038487958456991</v>
+        <v>1.042927913382865</v>
       </c>
       <c r="E4">
-        <v>1.038456524174829</v>
+        <v>1.019359388292333</v>
       </c>
       <c r="F4">
-        <v>1.046536309035299</v>
+        <v>1.022824859061337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037120190943779</v>
+        <v>1.053227306251829</v>
       </c>
       <c r="J4">
-        <v>1.034495431615556</v>
+        <v>1.02684837741365</v>
       </c>
       <c r="K4">
-        <v>1.040965647602495</v>
+        <v>1.052534437167117</v>
       </c>
       <c r="L4">
-        <v>1.040934292407169</v>
+        <v>1.029229645111453</v>
       </c>
       <c r="M4">
-        <v>1.048993917284953</v>
+        <v>1.032655396996603</v>
       </c>
       <c r="N4">
-        <v>1.015514386075599</v>
+        <v>1.012906864304109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030167808241237</v>
+        <v>1.008707325370051</v>
       </c>
       <c r="D5">
-        <v>1.038630012042195</v>
+        <v>1.04360793985863</v>
       </c>
       <c r="E5">
-        <v>1.038672665181523</v>
+        <v>1.020284439543438</v>
       </c>
       <c r="F5">
-        <v>1.046796695307102</v>
+        <v>1.023921121603632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037166029279617</v>
+        <v>1.053530065610195</v>
       </c>
       <c r="J5">
-        <v>1.0346298663287</v>
+        <v>1.027441552311155</v>
       </c>
       <c r="K5">
-        <v>1.041055711705317</v>
+        <v>1.052994933383528</v>
       </c>
       <c r="L5">
-        <v>1.041098259914119</v>
+        <v>1.029925439936721</v>
       </c>
       <c r="M5">
-        <v>1.049202471820275</v>
+        <v>1.033521580045387</v>
       </c>
       <c r="N5">
-        <v>1.01555897366583</v>
+        <v>1.01310433509253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030206847405779</v>
+        <v>1.008886174168904</v>
       </c>
       <c r="D6">
-        <v>1.038653859402328</v>
+        <v>1.043721661908347</v>
       </c>
       <c r="E6">
-        <v>1.038708966981029</v>
+        <v>1.020439247986621</v>
       </c>
       <c r="F6">
-        <v>1.046840430862726</v>
+        <v>1.024104592379574</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037173704746484</v>
+        <v>1.053580526377433</v>
       </c>
       <c r="J6">
-        <v>1.034652434410209</v>
+        <v>1.027540721156467</v>
       </c>
       <c r="K6">
-        <v>1.041070819853146</v>
+        <v>1.053071837288211</v>
       </c>
       <c r="L6">
-        <v>1.041125792378987</v>
+        <v>1.030041817937553</v>
       </c>
       <c r="M6">
-        <v>1.04923749587054</v>
+        <v>1.03366649255663</v>
       </c>
       <c r="N6">
-        <v>1.01556645843757</v>
+        <v>1.013137348042751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029938435268148</v>
+        <v>1.007652390072936</v>
       </c>
       <c r="D7">
-        <v>1.038489856854767</v>
+        <v>1.042937030681966</v>
       </c>
       <c r="E7">
-        <v>1.038459411538526</v>
+        <v>1.019371783332151</v>
       </c>
       <c r="F7">
-        <v>1.046539787285991</v>
+        <v>1.022839547558595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037120804843802</v>
+        <v>1.053231376854616</v>
       </c>
       <c r="J7">
-        <v>1.034497228212593</v>
+        <v>1.026856332233988</v>
       </c>
       <c r="K7">
-        <v>1.040966851981311</v>
+        <v>1.052540618259073</v>
       </c>
       <c r="L7">
-        <v>1.04093648324099</v>
+        <v>1.029238972578832</v>
       </c>
       <c r="M7">
-        <v>1.048996703542458</v>
+        <v>1.032667006220058</v>
       </c>
       <c r="N7">
-        <v>1.015514981969503</v>
+        <v>1.012909512557312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028817236810443</v>
+        <v>1.002393413327445</v>
       </c>
       <c r="D8">
-        <v>1.03780377875667</v>
+        <v>1.039590024437293</v>
       </c>
       <c r="E8">
-        <v>1.037417880912095</v>
+        <v>1.014833974654356</v>
       </c>
       <c r="F8">
-        <v>1.045285408714451</v>
+        <v>1.017463143869301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03689666020922</v>
+        <v>1.051717127722764</v>
       </c>
       <c r="J8">
-        <v>1.033847906480433</v>
+        <v>1.023932414830018</v>
       </c>
       <c r="K8">
-        <v>1.0405302653758</v>
+        <v>1.050259153398014</v>
       </c>
       <c r="L8">
-        <v>1.040145442257511</v>
+        <v>1.025816690503037</v>
       </c>
       <c r="M8">
-        <v>1.047991228878748</v>
+        <v>1.028411649467548</v>
       </c>
       <c r="N8">
-        <v>1.015299578342354</v>
+        <v>1.01193602009477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026844350421973</v>
+        <v>0.9927148735924213</v>
       </c>
       <c r="D9">
-        <v>1.036592786822446</v>
+        <v>1.033426121993158</v>
       </c>
       <c r="E9">
-        <v>1.035588597258563</v>
+        <v>1.006531715261493</v>
       </c>
       <c r="F9">
-        <v>1.043083669944983</v>
+        <v>1.007630322732823</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036490320884332</v>
+        <v>1.0488342634159</v>
       </c>
       <c r="J9">
-        <v>1.03270158882821</v>
+        <v>1.018527537559734</v>
       </c>
       <c r="K9">
-        <v>1.039753432065143</v>
+        <v>1.045999201870037</v>
       </c>
       <c r="L9">
-        <v>1.0387525176692</v>
+        <v>1.019519701431913</v>
       </c>
       <c r="M9">
-        <v>1.046223311723763</v>
+        <v>1.020600804540609</v>
       </c>
       <c r="N9">
-        <v>1.014919130789967</v>
+        <v>1.010136221882498</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025531064044551</v>
+        <v>0.9859582921124096</v>
       </c>
       <c r="D10">
-        <v>1.035784207840833</v>
+        <v>1.029125830039259</v>
       </c>
       <c r="E10">
-        <v>1.034373222544149</v>
+        <v>1.000771304991838</v>
       </c>
       <c r="F10">
-        <v>1.041621747678446</v>
+        <v>1.000809135863381</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036211838901601</v>
+        <v>1.046760217892505</v>
       </c>
       <c r="J10">
-        <v>1.031936013225089</v>
+        <v>1.014740315312288</v>
       </c>
       <c r="K10">
-        <v>1.039230577592385</v>
+        <v>1.04298839474986</v>
       </c>
       <c r="L10">
-        <v>1.037824643489367</v>
+        <v>1.015126647239395</v>
       </c>
       <c r="M10">
-        <v>1.04504737992812</v>
+        <v>1.015163796464165</v>
       </c>
       <c r="N10">
-        <v>1.0146649327292</v>
+        <v>1.008875021140658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024962881313058</v>
+        <v>0.9829538464412733</v>
       </c>
       <c r="D11">
-        <v>1.035433812140337</v>
+        <v>1.027215548540362</v>
       </c>
       <c r="E11">
-        <v>1.033847955770299</v>
+        <v>0.9982187450303105</v>
       </c>
       <c r="F11">
-        <v>1.040990139694846</v>
+        <v>0.9977864952555272</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03608946437876</v>
+        <v>1.045824153453608</v>
       </c>
       <c r="J11">
-        <v>1.031604201276876</v>
+        <v>1.013053370909248</v>
       </c>
       <c r="K11">
-        <v>1.03900301591817</v>
+        <v>1.041641844154651</v>
       </c>
       <c r="L11">
-        <v>1.037423055689323</v>
+        <v>1.013174331572364</v>
       </c>
       <c r="M11">
-        <v>1.044538842020059</v>
+        <v>1.012750276109426</v>
       </c>
       <c r="N11">
-        <v>1.014554732957943</v>
+        <v>1.008313253882182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024751906258967</v>
+        <v>0.9818254175961806</v>
       </c>
       <c r="D12">
-        <v>1.035303620147436</v>
+        <v>1.026498475773995</v>
       </c>
       <c r="E12">
-        <v>1.033652999929034</v>
+        <v>0.9972614253814207</v>
       </c>
       <c r="F12">
-        <v>1.040755746423384</v>
+        <v>0.996652843564511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03604374098915</v>
+        <v>1.045470576548495</v>
       </c>
       <c r="J12">
-        <v>1.031480905697039</v>
+        <v>1.012419384940546</v>
       </c>
       <c r="K12">
-        <v>1.03891831619134</v>
+        <v>1.041135025977721</v>
       </c>
       <c r="L12">
-        <v>1.037273917587655</v>
+        <v>1.01244128090597</v>
       </c>
       <c r="M12">
-        <v>1.044350047231685</v>
+        <v>1.011844451991499</v>
       </c>
       <c r="N12">
-        <v>1.014513780681857</v>
+        <v>1.008102134871783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024797157784993</v>
+        <v>0.9820680426747184</v>
       </c>
       <c r="D13">
-        <v>1.035331548524266</v>
+        <v>1.026652634525342</v>
       </c>
       <c r="E13">
-        <v>1.033694811731502</v>
+        <v>0.9974671965719989</v>
       </c>
       <c r="F13">
-        <v>1.040806014863318</v>
+        <v>0.9968965183485217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036053560926812</v>
+        <v>1.045546689023617</v>
       </c>
       <c r="J13">
-        <v>1.031507355074133</v>
+        <v>1.01255571623523</v>
       </c>
       <c r="K13">
-        <v>1.038936492384622</v>
+        <v>1.041244044629734</v>
       </c>
       <c r="L13">
-        <v>1.037305906862006</v>
+        <v>1.01259888488558</v>
       </c>
       <c r="M13">
-        <v>1.044390539859287</v>
+        <v>1.012039184012583</v>
       </c>
       <c r="N13">
-        <v>1.014522565945252</v>
+        <v>1.008147533341774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024945440545908</v>
+        <v>0.9828608276500019</v>
       </c>
       <c r="D14">
-        <v>1.035423051222457</v>
+        <v>1.027156429845001</v>
       </c>
       <c r="E14">
-        <v>1.033831837557195</v>
+        <v>0.998139802655256</v>
       </c>
       <c r="F14">
-        <v>1.040970760297872</v>
+        <v>0.9976930130142041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036085690332017</v>
+        <v>1.045795047686286</v>
       </c>
       <c r="J14">
-        <v>1.031594010554573</v>
+        <v>1.013001117840661</v>
       </c>
       <c r="K14">
-        <v>1.038996018137113</v>
+        <v>1.041600087317988</v>
       </c>
       <c r="L14">
-        <v>1.037410727278448</v>
+        <v>1.013113900083413</v>
       </c>
       <c r="M14">
-        <v>1.044523234159513</v>
+        <v>1.012675593433943</v>
       </c>
       <c r="N14">
-        <v>1.014551348218829</v>
+        <v>1.008295853379303</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025036812203824</v>
+        <v>0.9833476209392589</v>
       </c>
       <c r="D15">
-        <v>1.035479423889424</v>
+        <v>1.027465831587308</v>
       </c>
       <c r="E15">
-        <v>1.033916283830967</v>
+        <v>0.9985529869700251</v>
       </c>
       <c r="F15">
-        <v>1.04107229381028</v>
+        <v>0.9981822975196986</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036105450827</v>
+        <v>1.045947285007226</v>
       </c>
       <c r="J15">
-        <v>1.031647395814349</v>
+        <v>1.013274556964127</v>
       </c>
       <c r="K15">
-        <v>1.039032671011114</v>
+        <v>1.041818569328719</v>
       </c>
       <c r="L15">
-        <v>1.037475314541839</v>
+        <v>1.013430163838754</v>
       </c>
       <c r="M15">
-        <v>1.044605004636514</v>
+        <v>1.013066455900305</v>
       </c>
       <c r="N15">
-        <v>1.014569079398874</v>
+        <v>1.008386909988236</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025568782667526</v>
+        <v>0.9861559762696518</v>
       </c>
       <c r="D16">
-        <v>1.03580745681136</v>
+        <v>1.029251570892518</v>
       </c>
       <c r="E16">
-        <v>1.034408103944936</v>
+        <v>1.000939446181184</v>
       </c>
       <c r="F16">
-        <v>1.041663695349706</v>
+        <v>1.001008239137378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036219922858047</v>
+        <v>1.046821526460167</v>
       </c>
       <c r="J16">
-        <v>1.031958027999996</v>
+        <v>1.014851254847967</v>
       </c>
       <c r="K16">
-        <v>1.039245655745946</v>
+        <v>1.043076840295049</v>
       </c>
       <c r="L16">
-        <v>1.037851299614842</v>
+        <v>1.015255131391802</v>
       </c>
       <c r="M16">
-        <v>1.045081143695719</v>
+        <v>1.015322689051082</v>
       </c>
       <c r="N16">
-        <v>1.014672243613843</v>
+        <v>1.00891196538536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025902602866647</v>
+        <v>0.9878960710285563</v>
       </c>
       <c r="D17">
-        <v>1.036013150799056</v>
+        <v>1.030358624948517</v>
       </c>
       <c r="E17">
-        <v>1.034716878174251</v>
+        <v>1.002420513448781</v>
       </c>
       <c r="F17">
-        <v>1.042035045621998</v>
+        <v>1.002762028683827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036291249532119</v>
+        <v>1.047359625188325</v>
       </c>
       <c r="J17">
-        <v>1.032152796450176</v>
+        <v>1.01582746532571</v>
       </c>
       <c r="K17">
-        <v>1.039378945286483</v>
+        <v>1.043854502644863</v>
       </c>
       <c r="L17">
-        <v>1.03808719630322</v>
+        <v>1.016386234985565</v>
       </c>
       <c r="M17">
-        <v>1.045379987731725</v>
+        <v>1.016721802229355</v>
       </c>
       <c r="N17">
-        <v>1.014736921193731</v>
+        <v>1.00923705704309</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026097360660425</v>
+        <v>0.9889034785427706</v>
       </c>
       <c r="D18">
-        <v>1.036133101891511</v>
+        <v>1.030999716270278</v>
       </c>
       <c r="E18">
-        <v>1.034897077190655</v>
+        <v>1.003278803785998</v>
       </c>
       <c r="F18">
-        <v>1.042251784275559</v>
+        <v>1.003778362964871</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036332680407585</v>
+        <v>1.047669835962061</v>
       </c>
       <c r="J18">
-        <v>1.03226637134941</v>
+        <v>1.016392354518641</v>
       </c>
       <c r="K18">
-        <v>1.039456578586186</v>
+        <v>1.044303980354419</v>
       </c>
       <c r="L18">
-        <v>1.038224808889731</v>
+        <v>1.017041179802898</v>
       </c>
       <c r="M18">
-        <v>1.045554360859387</v>
+        <v>1.017532194110544</v>
       </c>
       <c r="N18">
-        <v>1.014774633929296</v>
+        <v>1.009425173793356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026163775816528</v>
+        <v>0.9892457138474332</v>
       </c>
       <c r="D19">
-        <v>1.036173997519671</v>
+        <v>1.031217533494645</v>
       </c>
       <c r="E19">
-        <v>1.034958536672085</v>
+        <v>1.003570522933741</v>
       </c>
       <c r="F19">
-        <v>1.042325709628839</v>
+        <v>1.004123799384158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036346777934331</v>
+        <v>1.047774995278885</v>
       </c>
       <c r="J19">
-        <v>1.032305092291093</v>
+        <v>1.016584209942731</v>
       </c>
       <c r="K19">
-        <v>1.039483030454874</v>
+        <v>1.044456548096756</v>
       </c>
       <c r="L19">
-        <v>1.038271734246714</v>
+        <v>1.017263693612936</v>
       </c>
       <c r="M19">
-        <v>1.045613828140059</v>
+        <v>1.017807564841045</v>
       </c>
       <c r="N19">
-        <v>1.014787490847547</v>
+        <v>1.009489064652577</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025866782338362</v>
+        <v>0.9877101615765131</v>
       </c>
       <c r="D20">
-        <v>1.035991084531346</v>
+        <v>1.030240329758874</v>
       </c>
       <c r="E20">
-        <v>1.034683739656218</v>
+        <v>1.002262190301565</v>
       </c>
       <c r="F20">
-        <v>1.041995189140034</v>
+        <v>1.002574552341736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036283614718716</v>
+        <v>1.047302271365161</v>
       </c>
       <c r="J20">
-        <v>1.032131902758728</v>
+        <v>1.015723196667091</v>
       </c>
       <c r="K20">
-        <v>1.039364656178838</v>
+        <v>1.043771494429909</v>
       </c>
       <c r="L20">
-        <v>1.038061884946019</v>
+        <v>1.016265378112154</v>
       </c>
       <c r="M20">
-        <v>1.045347918124276</v>
+        <v>1.016572281913861</v>
       </c>
       <c r="N20">
-        <v>1.014729983202108</v>
+        <v>1.009202334031089</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024901772934039</v>
+        <v>0.9826277208039716</v>
       </c>
       <c r="D21">
-        <v>1.035396107030986</v>
+        <v>1.027008284164594</v>
       </c>
       <c r="E21">
-        <v>1.033791482668242</v>
+        <v>0.9979419940860929</v>
       </c>
       <c r="F21">
-        <v>1.040922240951581</v>
+        <v>0.9974587708075248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036076236415218</v>
+        <v>1.045722076039874</v>
       </c>
       <c r="J21">
-        <v>1.031568493932024</v>
+        <v>1.012870164479042</v>
       </c>
       <c r="K21">
-        <v>1.038978494056097</v>
+        <v>1.041495426936998</v>
       </c>
       <c r="L21">
-        <v>1.037379859454207</v>
+        <v>1.012962461197985</v>
       </c>
       <c r="M21">
-        <v>1.044484156255643</v>
+        <v>1.012488448024404</v>
       </c>
       <c r="N21">
-        <v>1.014542873082684</v>
+        <v>1.008252245401268</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024295458045913</v>
+        <v>0.9793598630166801</v>
       </c>
       <c r="D22">
-        <v>1.035021793918589</v>
+        <v>1.024932581194424</v>
       </c>
       <c r="E22">
-        <v>1.033231363345005</v>
+        <v>0.9951723388436036</v>
       </c>
       <c r="F22">
-        <v>1.040248875103393</v>
+        <v>0.9941788716254321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035944299065164</v>
+        <v>1.04469442550085</v>
       </c>
       <c r="J22">
-        <v>1.031213991732669</v>
+        <v>1.011033484776961</v>
       </c>
       <c r="K22">
-        <v>1.038734697286228</v>
+        <v>1.040025787809061</v>
       </c>
       <c r="L22">
-        <v>1.03695121419249</v>
+        <v>1.010840043152884</v>
       </c>
       <c r="M22">
-        <v>1.043941647413473</v>
+        <v>1.009866535000143</v>
       </c>
       <c r="N22">
-        <v>1.014425118787888</v>
+        <v>1.007640636178731</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02461683631829</v>
+        <v>0.9810992842938271</v>
       </c>
       <c r="D23">
-        <v>1.035220245251115</v>
+        <v>1.026037174318158</v>
       </c>
       <c r="E23">
-        <v>1.033528209428119</v>
+        <v>0.9966457961638052</v>
       </c>
       <c r="F23">
-        <v>1.040605721071914</v>
+        <v>0.9959238070282762</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036014388214948</v>
+        <v>1.04524249739757</v>
       </c>
       <c r="J23">
-        <v>1.031401944771881</v>
+        <v>1.012011315502689</v>
       </c>
       <c r="K23">
-        <v>1.038864033005985</v>
+        <v>1.04080860273323</v>
       </c>
       <c r="L23">
-        <v>1.037178430502245</v>
+        <v>1.011969634876298</v>
       </c>
       <c r="M23">
-        <v>1.044229186868685</v>
+        <v>1.01126175389688</v>
       </c>
       <c r="N23">
-        <v>1.01448755292845</v>
+        <v>1.007966248053162</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025882967950849</v>
+        <v>0.9877941893752917</v>
       </c>
       <c r="D24">
-        <v>1.036001055410734</v>
+        <v>1.03029379656669</v>
       </c>
       <c r="E24">
-        <v>1.03469871322893</v>
+        <v>1.002333746964177</v>
       </c>
       <c r="F24">
-        <v>1.042013198147594</v>
+        <v>1.002659285254509</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036287065096172</v>
+        <v>1.047328198365727</v>
       </c>
       <c r="J24">
-        <v>1.032141343812099</v>
+        <v>1.01577032512485</v>
       </c>
       <c r="K24">
-        <v>1.03937111315847</v>
+        <v>1.043809014984812</v>
       </c>
       <c r="L24">
-        <v>1.038073322003224</v>
+        <v>1.016320002966533</v>
       </c>
       <c r="M24">
-        <v>1.045362408806633</v>
+        <v>1.016639861252323</v>
       </c>
       <c r="N24">
-        <v>1.014733118220864</v>
+        <v>1.009218028505218</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027354047476105</v>
+        <v>0.9952685106833721</v>
       </c>
       <c r="D25">
-        <v>1.036906086296807</v>
+        <v>1.035052375917414</v>
       </c>
       <c r="E25">
-        <v>1.036060786881886</v>
+        <v>1.008716286309037</v>
       </c>
       <c r="F25">
-        <v>1.043651838737917</v>
+        <v>1.01021732704687</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03659671091345</v>
+        <v>1.049605761278342</v>
       </c>
       <c r="J25">
-        <v>1.032998184784613</v>
+        <v>1.019956164294343</v>
       </c>
       <c r="K25">
-        <v>1.039955143518099</v>
+        <v>1.047129869944184</v>
       </c>
       <c r="L25">
-        <v>1.039112496811935</v>
+        <v>1.021180783412711</v>
       </c>
       <c r="M25">
-        <v>1.046679894671931</v>
+        <v>1.022659076004834</v>
       </c>
       <c r="N25">
-        <v>1.015017587218659</v>
+        <v>1.01061196939386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00101256257664</v>
+        <v>1.00220075601736</v>
       </c>
       <c r="D2">
-        <v>1.03871073507185</v>
+        <v>1.03385651952766</v>
       </c>
       <c r="E2">
-        <v>1.013645674897913</v>
+        <v>1.017101635204687</v>
       </c>
       <c r="F2">
-        <v>1.016055537968805</v>
+        <v>1.025461667645501</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051313008669098</v>
+        <v>1.046370224388267</v>
       </c>
       <c r="J2">
-        <v>1.023163030192576</v>
+        <v>1.024315841510404</v>
       </c>
       <c r="K2">
-        <v>1.049655877420467</v>
+        <v>1.044863500000886</v>
       </c>
       <c r="L2">
-        <v>1.024918121632021</v>
+        <v>1.028327749513724</v>
       </c>
       <c r="M2">
-        <v>1.027295635023687</v>
+        <v>1.036577321298581</v>
       </c>
       <c r="N2">
-        <v>1.011679836478632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011981459494333</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037520880512914</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042792659208042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005066315445615</v>
+        <v>1.00567680484389</v>
       </c>
       <c r="D3">
-        <v>1.041291589608928</v>
+        <v>1.035461790127054</v>
       </c>
       <c r="E3">
-        <v>1.017137897342477</v>
+        <v>1.019835203928348</v>
       </c>
       <c r="F3">
-        <v>1.020192590663128</v>
+        <v>1.028205010258728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052491843485061</v>
+        <v>1.046914685438172</v>
       </c>
       <c r="J3">
-        <v>1.025419814001299</v>
+        <v>1.026013901703575</v>
       </c>
       <c r="K3">
-        <v>1.051422051102299</v>
+        <v>1.045660178684713</v>
       </c>
       <c r="L3">
-        <v>1.02755609281719</v>
+        <v>1.030220427401465</v>
       </c>
       <c r="M3">
-        <v>1.030573461680614</v>
+        <v>1.038489286697143</v>
       </c>
       <c r="N3">
-        <v>1.012431256585275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012559503632839</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039034077617809</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043353319749423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00763805623157</v>
+        <v>1.007887886316272</v>
       </c>
       <c r="D4">
-        <v>1.042927913382865</v>
+        <v>1.036489383784365</v>
       </c>
       <c r="E4">
-        <v>1.019359388292333</v>
+        <v>1.021580036112588</v>
       </c>
       <c r="F4">
-        <v>1.022824859061337</v>
+        <v>1.02995814238044</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053227306251829</v>
+        <v>1.047253654606194</v>
       </c>
       <c r="J4">
-        <v>1.02684837741365</v>
+        <v>1.027091948934731</v>
       </c>
       <c r="K4">
-        <v>1.052534437167117</v>
+        <v>1.046166491181308</v>
       </c>
       <c r="L4">
-        <v>1.029229645111453</v>
+        <v>1.031424803092122</v>
       </c>
       <c r="M4">
-        <v>1.032655396996603</v>
+        <v>1.039707959655392</v>
       </c>
       <c r="N4">
-        <v>1.012906864304109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01292634935209</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039998576873409</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043712210955947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008707325370051</v>
+        <v>1.008809026848304</v>
       </c>
       <c r="D5">
-        <v>1.04360793985863</v>
+        <v>1.036924391678692</v>
       </c>
       <c r="E5">
-        <v>1.020284439543438</v>
+        <v>1.022308414588204</v>
       </c>
       <c r="F5">
-        <v>1.023921121603632</v>
+        <v>1.030690376496318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053530065610195</v>
+        <v>1.047394774254039</v>
       </c>
       <c r="J5">
-        <v>1.027441552311155</v>
+        <v>1.027540782031423</v>
       </c>
       <c r="K5">
-        <v>1.052994933383528</v>
+        <v>1.046382741235124</v>
       </c>
       <c r="L5">
-        <v>1.029925439936721</v>
+        <v>1.031926807790258</v>
       </c>
       <c r="M5">
-        <v>1.033521580045387</v>
+        <v>1.040216306440345</v>
       </c>
       <c r="N5">
-        <v>1.01310433509253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013079191920998</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040400899437736</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04387224850146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008886174168904</v>
+        <v>1.008963766839447</v>
       </c>
       <c r="D6">
-        <v>1.043721661908347</v>
+        <v>1.037004119979132</v>
       </c>
       <c r="E6">
-        <v>1.020439247986621</v>
+        <v>1.022430929015534</v>
       </c>
       <c r="F6">
-        <v>1.024104592379574</v>
+        <v>1.030813443775247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053580526377433</v>
+        <v>1.047420439588345</v>
       </c>
       <c r="J6">
-        <v>1.027540721156467</v>
+        <v>1.02761643767618</v>
       </c>
       <c r="K6">
-        <v>1.053071837288211</v>
+        <v>1.04642569212908</v>
       </c>
       <c r="L6">
-        <v>1.030041817937553</v>
+        <v>1.03201135526892</v>
       </c>
       <c r="M6">
-        <v>1.03366649255663</v>
+        <v>1.040301823634106</v>
       </c>
       <c r="N6">
-        <v>1.013137348042751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013105131005764</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040468580568965</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043911317237901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007652390072936</v>
+        <v>1.007901787714766</v>
       </c>
       <c r="D7">
-        <v>1.042937030681966</v>
+        <v>1.036513501882382</v>
       </c>
       <c r="E7">
-        <v>1.019371783332151</v>
+        <v>1.021591223409456</v>
       </c>
       <c r="F7">
-        <v>1.022839547558595</v>
+        <v>1.029969055242868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053231376854616</v>
+        <v>1.047261292920112</v>
       </c>
       <c r="J7">
-        <v>1.026856332233988</v>
+        <v>1.027099484663975</v>
       </c>
       <c r="K7">
-        <v>1.052540618259073</v>
+        <v>1.046187482435048</v>
       </c>
       <c r="L7">
-        <v>1.029238972578832</v>
+        <v>1.031432945922665</v>
       </c>
       <c r="M7">
-        <v>1.032667006220058</v>
+        <v>1.03971586537714</v>
       </c>
       <c r="N7">
-        <v>1.012909512557312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012929399994861</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040004833726439</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043747058257984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002393413327445</v>
+        <v>1.003385367154896</v>
       </c>
       <c r="D8">
-        <v>1.039590024437293</v>
+        <v>1.034423763703614</v>
       </c>
       <c r="E8">
-        <v>1.014833974654356</v>
+        <v>1.01803220273416</v>
       </c>
       <c r="F8">
-        <v>1.017463143869301</v>
+        <v>1.026394735497044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051717127722764</v>
+        <v>1.046563931122254</v>
       </c>
       <c r="J8">
-        <v>1.023932414830018</v>
+        <v>1.024895820810441</v>
       </c>
       <c r="K8">
-        <v>1.050259153398014</v>
+        <v>1.045156789870808</v>
       </c>
       <c r="L8">
-        <v>1.025816690503037</v>
+        <v>1.028973332959448</v>
       </c>
       <c r="M8">
-        <v>1.028411649467548</v>
+        <v>1.03722865967676</v>
       </c>
       <c r="N8">
-        <v>1.01193602009477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012179551646289</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038036373124223</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04302281142096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9927148735924213</v>
+        <v>0.9951207176157267</v>
       </c>
       <c r="D9">
-        <v>1.033426121993158</v>
+        <v>1.030625396958948</v>
       </c>
       <c r="E9">
-        <v>1.006531715261493</v>
+        <v>1.011568340970294</v>
       </c>
       <c r="F9">
-        <v>1.007630322732823</v>
+        <v>1.019919844608946</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0488342634159</v>
+        <v>1.045222525283305</v>
       </c>
       <c r="J9">
-        <v>1.018527537559734</v>
+        <v>1.020846960336184</v>
       </c>
       <c r="K9">
-        <v>1.045999201870037</v>
+        <v>1.043240398392873</v>
       </c>
       <c r="L9">
-        <v>1.019519701431913</v>
+        <v>1.024476477297034</v>
       </c>
       <c r="M9">
-        <v>1.020600804540609</v>
+        <v>1.032697796851116</v>
       </c>
       <c r="N9">
-        <v>1.010136221882498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01080002547858</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034450477632051</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041664668084519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9859582921124096</v>
+        <v>0.9894602449828912</v>
       </c>
       <c r="D10">
-        <v>1.029125830039259</v>
+        <v>1.028052068447342</v>
       </c>
       <c r="E10">
-        <v>1.000771304991838</v>
+        <v>1.007217528974253</v>
       </c>
       <c r="F10">
-        <v>1.000809135863381</v>
+        <v>1.01562344560811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046760217892505</v>
+        <v>1.044279108906238</v>
       </c>
       <c r="J10">
-        <v>1.014740315312288</v>
+        <v>1.018098364930785</v>
       </c>
       <c r="K10">
-        <v>1.04298839474986</v>
+        <v>1.041932655675275</v>
       </c>
       <c r="L10">
-        <v>1.015126647239395</v>
+        <v>1.021457680129438</v>
       </c>
       <c r="M10">
-        <v>1.015163796464165</v>
+        <v>1.029716229512836</v>
       </c>
       <c r="N10">
-        <v>1.008875021140658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009866762109799</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032142579905605</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040756729258676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9829538464412733</v>
+        <v>0.9875281746964523</v>
       </c>
       <c r="D11">
-        <v>1.027215548540362</v>
+        <v>1.027068568099451</v>
       </c>
       <c r="E11">
-        <v>0.9982187450303105</v>
+        <v>1.006073888887429</v>
       </c>
       <c r="F11">
-        <v>0.9977864952555272</v>
+        <v>1.014904524187194</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045824153453608</v>
+        <v>1.044034599693978</v>
       </c>
       <c r="J11">
-        <v>1.013053370909248</v>
+        <v>1.017429160569491</v>
       </c>
       <c r="K11">
-        <v>1.041641844154651</v>
+        <v>1.041497448927366</v>
       </c>
       <c r="L11">
-        <v>1.013174331572364</v>
+        <v>1.020882162441929</v>
       </c>
       <c r="M11">
-        <v>1.012750276109426</v>
+        <v>1.029550732286802</v>
       </c>
       <c r="N11">
-        <v>1.008313253882182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009671336401249</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032450870744223</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040481630664386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9818254175961806</v>
+        <v>0.9870270634736601</v>
       </c>
       <c r="D12">
-        <v>1.026498475773995</v>
+        <v>1.026738355199667</v>
       </c>
       <c r="E12">
-        <v>0.9972614253814207</v>
+        <v>1.005938659653109</v>
       </c>
       <c r="F12">
-        <v>0.996652843564511</v>
+        <v>1.015067941928737</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045470576548495</v>
+        <v>1.044007606804023</v>
       </c>
       <c r="J12">
-        <v>1.012419384940546</v>
+        <v>1.017390793113248</v>
       </c>
       <c r="K12">
-        <v>1.041135025977721</v>
+        <v>1.041370613970773</v>
       </c>
       <c r="L12">
-        <v>1.01244128090597</v>
+        <v>1.020952961923466</v>
       </c>
       <c r="M12">
-        <v>1.011844451991499</v>
+        <v>1.029912047640037</v>
       </c>
       <c r="N12">
-        <v>1.008102134871783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009684395060173</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033065002687528</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040391955478319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9820680426747184</v>
+        <v>0.9875941454815618</v>
       </c>
       <c r="D13">
-        <v>1.026652634525342</v>
+        <v>1.026907181280265</v>
       </c>
       <c r="E13">
-        <v>0.9974671965719989</v>
+        <v>1.006572455453135</v>
       </c>
       <c r="F13">
-        <v>0.9968965183485217</v>
+        <v>1.01593444225139</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045546689023617</v>
+        <v>1.044155265608853</v>
       </c>
       <c r="J13">
-        <v>1.01255571623523</v>
+        <v>1.017838404661891</v>
       </c>
       <c r="K13">
-        <v>1.041244044629734</v>
+        <v>1.041494054594271</v>
       </c>
       <c r="L13">
-        <v>1.01259888488558</v>
+        <v>1.021531196938174</v>
       </c>
       <c r="M13">
-        <v>1.012039184012583</v>
+        <v>1.030719569788824</v>
       </c>
       <c r="N13">
-        <v>1.008147533341774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009860366314735</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033981534600968</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040476756259018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9828608276500019</v>
+        <v>0.9884720862936264</v>
       </c>
       <c r="D14">
-        <v>1.027156429845001</v>
+        <v>1.027255252082598</v>
       </c>
       <c r="E14">
-        <v>0.998139802655256</v>
+        <v>1.007360181211037</v>
       </c>
       <c r="F14">
-        <v>0.9976930130142041</v>
+        <v>1.016855012542718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045795047686286</v>
+        <v>1.044337779025116</v>
       </c>
       <c r="J14">
-        <v>1.013001117840661</v>
+        <v>1.018368782019853</v>
       </c>
       <c r="K14">
-        <v>1.041600087317988</v>
+        <v>1.041697169404773</v>
       </c>
       <c r="L14">
-        <v>1.013113900083413</v>
+        <v>1.022161405986749</v>
       </c>
       <c r="M14">
-        <v>1.012675593433943</v>
+        <v>1.031482479022478</v>
       </c>
       <c r="N14">
-        <v>1.008295853379303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010056333316834</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034758615125599</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040621777366725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9833476209392589</v>
+        <v>0.9889216941179187</v>
       </c>
       <c r="D15">
-        <v>1.027465831587308</v>
+        <v>1.02745423100738</v>
       </c>
       <c r="E15">
-        <v>0.9985529869700251</v>
+        <v>1.007727739155958</v>
       </c>
       <c r="F15">
-        <v>0.9981822975196986</v>
+        <v>1.017248931593324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045947285007226</v>
+        <v>1.044422960575112</v>
       </c>
       <c r="J15">
-        <v>1.013274556964127</v>
+        <v>1.018608790391788</v>
       </c>
       <c r="K15">
-        <v>1.041818569328719</v>
+        <v>1.041807171501035</v>
       </c>
       <c r="L15">
-        <v>1.013430163838754</v>
+        <v>1.022434252267982</v>
       </c>
       <c r="M15">
-        <v>1.013066455900305</v>
+        <v>1.031782565159563</v>
       </c>
       <c r="N15">
-        <v>1.008386909988236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010141386398071</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035033469935663</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040705380771292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9861559762696518</v>
+        <v>0.9911999151984392</v>
       </c>
       <c r="D16">
-        <v>1.029251570892518</v>
+        <v>1.028508116407675</v>
       </c>
       <c r="E16">
-        <v>1.000939446181184</v>
+        <v>1.009444958620041</v>
       </c>
       <c r="F16">
-        <v>1.001008239137378</v>
+        <v>1.018929421114448</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046821526460167</v>
+        <v>1.044804078883713</v>
       </c>
       <c r="J16">
-        <v>1.014851254847967</v>
+        <v>1.019689165763553</v>
       </c>
       <c r="K16">
-        <v>1.043076840295049</v>
+        <v>1.042345818843674</v>
       </c>
       <c r="L16">
-        <v>1.015255131391802</v>
+        <v>1.023609566938767</v>
       </c>
       <c r="M16">
-        <v>1.015322689051082</v>
+        <v>1.032929408408129</v>
       </c>
       <c r="N16">
-        <v>1.00891196538536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010503610952536</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035901076133746</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041089368494635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9878960710285563</v>
+        <v>0.992490221181802</v>
       </c>
       <c r="D17">
-        <v>1.030358624948517</v>
+        <v>1.02913783430989</v>
       </c>
       <c r="E17">
-        <v>1.002420513448781</v>
+        <v>1.010351646362649</v>
       </c>
       <c r="F17">
-        <v>1.002762028683827</v>
+        <v>1.019732521373053</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047359625188325</v>
+        <v>1.044999482973655</v>
       </c>
       <c r="J17">
-        <v>1.01582746532571</v>
+        <v>1.02024007975019</v>
       </c>
       <c r="K17">
-        <v>1.043854502644863</v>
+        <v>1.042653557627826</v>
       </c>
       <c r="L17">
-        <v>1.016386234985565</v>
+        <v>1.02418057591621</v>
       </c>
       <c r="M17">
-        <v>1.016721802229355</v>
+        <v>1.033403193250102</v>
       </c>
       <c r="N17">
-        <v>1.00923705704309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010678698194125</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036146048501256</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041309523042076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9889034785427706</v>
+        <v>0.9930399102008026</v>
       </c>
       <c r="D18">
-        <v>1.030999716270278</v>
+        <v>1.029448306816621</v>
       </c>
       <c r="E18">
-        <v>1.003278803785998</v>
+        <v>1.010614853013063</v>
       </c>
       <c r="F18">
-        <v>1.003778362964871</v>
+        <v>1.019798349800346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047669835962061</v>
+        <v>1.045046861625978</v>
       </c>
       <c r="J18">
-        <v>1.016392354518641</v>
+        <v>1.020368464795514</v>
       </c>
       <c r="K18">
-        <v>1.044303980354419</v>
+        <v>1.042777373452805</v>
       </c>
       <c r="L18">
-        <v>1.017041179802898</v>
+        <v>1.024252841686395</v>
       </c>
       <c r="M18">
-        <v>1.017532194110544</v>
+        <v>1.033283870183269</v>
       </c>
       <c r="N18">
-        <v>1.009425173793356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010702126833477</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03581299648152</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041385506098819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9892457138474332</v>
+        <v>0.9929187051622993</v>
       </c>
       <c r="D19">
-        <v>1.031217533494645</v>
+        <v>1.029496211866786</v>
       </c>
       <c r="E19">
-        <v>1.003570522933741</v>
+        <v>1.010289547683852</v>
       </c>
       <c r="F19">
-        <v>1.004123799384158</v>
+        <v>1.019184423304555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047774995278885</v>
+        <v>1.044970320567474</v>
       </c>
       <c r="J19">
-        <v>1.016584209942731</v>
+        <v>1.020115721541434</v>
       </c>
       <c r="K19">
-        <v>1.044456548096756</v>
+        <v>1.042762589920105</v>
       </c>
       <c r="L19">
-        <v>1.017263693612936</v>
+        <v>1.023869399047941</v>
       </c>
       <c r="M19">
-        <v>1.017807564841045</v>
+        <v>1.032617212873302</v>
       </c>
       <c r="N19">
-        <v>1.009489064652577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010591515769311</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034958659571482</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041381405233901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9877101615765131</v>
+        <v>0.9909308047214717</v>
       </c>
       <c r="D20">
-        <v>1.030240329758874</v>
+        <v>1.028759559572863</v>
       </c>
       <c r="E20">
-        <v>1.002262190301565</v>
+        <v>1.008347725960651</v>
       </c>
       <c r="F20">
-        <v>1.002574552341736</v>
+        <v>1.016740698509811</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047302271365161</v>
+        <v>1.044539658290957</v>
       </c>
       <c r="J20">
-        <v>1.015723196667091</v>
+        <v>1.018815861296821</v>
       </c>
       <c r="K20">
-        <v>1.043771494429909</v>
+        <v>1.042314879444612</v>
       </c>
       <c r="L20">
-        <v>1.016265378112154</v>
+        <v>1.022245361840528</v>
       </c>
       <c r="M20">
-        <v>1.016572281913861</v>
+        <v>1.030495434366532</v>
       </c>
       <c r="N20">
-        <v>1.009202334031089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010111995927689</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032748612970705</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041068745880725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9826277208039716</v>
+        <v>0.9865788622206142</v>
       </c>
       <c r="D21">
-        <v>1.027008284164594</v>
+        <v>1.026809331783028</v>
       </c>
       <c r="E21">
-        <v>0.9979419940860929</v>
+        <v>1.004951310275499</v>
       </c>
       <c r="F21">
-        <v>0.9974587708075248</v>
+        <v>1.013310394611652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045722076039874</v>
+        <v>1.043783837620083</v>
       </c>
       <c r="J21">
-        <v>1.012870164479042</v>
+        <v>1.016648633946247</v>
       </c>
       <c r="K21">
-        <v>1.041495426936998</v>
+        <v>1.041299991938604</v>
       </c>
       <c r="L21">
-        <v>1.012962461197985</v>
+        <v>1.019839481831554</v>
       </c>
       <c r="M21">
-        <v>1.012488448024404</v>
+        <v>1.028043910366916</v>
       </c>
       <c r="N21">
-        <v>1.008252245401268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009370146663189</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030767197591972</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040354381485514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9793598630166801</v>
+        <v>0.9838247107967238</v>
       </c>
       <c r="D22">
-        <v>1.024932581194424</v>
+        <v>1.025559812159557</v>
       </c>
       <c r="E22">
-        <v>0.9951723388436036</v>
+        <v>1.002830315016209</v>
       </c>
       <c r="F22">
-        <v>0.9941788716254321</v>
+        <v>1.011196217905181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04469442550085</v>
+        <v>1.043298562333356</v>
       </c>
       <c r="J22">
-        <v>1.011033484776961</v>
+        <v>1.015291644501967</v>
       </c>
       <c r="K22">
-        <v>1.040025787809061</v>
+        <v>1.040641378396666</v>
       </c>
       <c r="L22">
-        <v>1.010840043152884</v>
+        <v>1.018345910557798</v>
       </c>
       <c r="M22">
-        <v>1.009866535000143</v>
+        <v>1.026549091316115</v>
       </c>
       <c r="N22">
-        <v>1.007640636178731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008906707858559</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029584131267894</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039875307820023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9810992842938271</v>
+        <v>0.9852887587531385</v>
       </c>
       <c r="D23">
-        <v>1.026037174318158</v>
+        <v>1.026208037019254</v>
       </c>
       <c r="E23">
-        <v>0.9966457961638052</v>
+        <v>1.003956768507993</v>
       </c>
       <c r="F23">
-        <v>0.9959238070282762</v>
+        <v>1.012319074649753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04524249739757</v>
+        <v>1.043552833783598</v>
       </c>
       <c r="J23">
-        <v>1.012011315502689</v>
+        <v>1.016012643464774</v>
       </c>
       <c r="K23">
-        <v>1.04080860273323</v>
+        <v>1.040976374363088</v>
       </c>
       <c r="L23">
-        <v>1.011969634876298</v>
+        <v>1.01913924194617</v>
       </c>
       <c r="M23">
-        <v>1.01126175389688</v>
+        <v>1.027343122541132</v>
       </c>
       <c r="N23">
-        <v>1.007966248053162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009152410693133</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03021256316902</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040102600458296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9877941893752917</v>
+        <v>0.9909452822051259</v>
       </c>
       <c r="D24">
-        <v>1.03029379656669</v>
+        <v>1.028754359805259</v>
       </c>
       <c r="E24">
-        <v>1.002333746964177</v>
+        <v>1.008326062975933</v>
       </c>
       <c r="F24">
-        <v>1.002659285254509</v>
+        <v>1.016678891712203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047328198365727</v>
+        <v>1.04452749407341</v>
       </c>
       <c r="J24">
-        <v>1.01577032512485</v>
+        <v>1.018796397203552</v>
       </c>
       <c r="K24">
-        <v>1.043809014984812</v>
+        <v>1.042294656815407</v>
       </c>
       <c r="L24">
-        <v>1.016320002966533</v>
+        <v>1.022208524441526</v>
       </c>
       <c r="M24">
-        <v>1.016639861252323</v>
+        <v>1.030419304276278</v>
       </c>
       <c r="N24">
-        <v>1.009218028505218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010101781537457</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032647185913183</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041027232327853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9952685106833721</v>
+        <v>0.9972971063827563</v>
       </c>
       <c r="D25">
-        <v>1.035052375917414</v>
+        <v>1.031645905670275</v>
       </c>
       <c r="E25">
-        <v>1.008716286309037</v>
+        <v>1.013264918191639</v>
       </c>
       <c r="F25">
-        <v>1.01021732704687</v>
+        <v>1.021616928389939</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049605761278342</v>
+        <v>1.045590253400387</v>
       </c>
       <c r="J25">
-        <v>1.019956164294343</v>
+        <v>1.021915777328309</v>
       </c>
       <c r="K25">
-        <v>1.047129869944184</v>
+        <v>1.043772048137872</v>
       </c>
       <c r="L25">
-        <v>1.021180783412711</v>
+        <v>1.02566074506592</v>
       </c>
       <c r="M25">
-        <v>1.022659076004834</v>
+        <v>1.033888687813319</v>
       </c>
       <c r="N25">
-        <v>1.01061196939386</v>
+        <v>1.011165141509856</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035392995350826</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042068971860428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00220075601736</v>
+        <v>1.002356928118717</v>
       </c>
       <c r="D2">
-        <v>1.03385651952766</v>
+        <v>1.031490263824022</v>
       </c>
       <c r="E2">
-        <v>1.017101635204687</v>
+        <v>1.01722638946887</v>
       </c>
       <c r="F2">
-        <v>1.025461667645501</v>
+        <v>1.025562542144632</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046370224388267</v>
+        <v>1.045640548395361</v>
       </c>
       <c r="J2">
-        <v>1.024315841510404</v>
+        <v>1.02446737167865</v>
       </c>
       <c r="K2">
-        <v>1.044863500000886</v>
+        <v>1.042527652057565</v>
       </c>
       <c r="L2">
-        <v>1.028327749513724</v>
+        <v>1.028450838649947</v>
       </c>
       <c r="M2">
-        <v>1.036577321298581</v>
+        <v>1.036676876725838</v>
       </c>
       <c r="N2">
-        <v>1.011981459494333</v>
+        <v>1.013651773284031</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037520880512914</v>
+        <v>1.037599672281668</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042792659208042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041149758091799</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023402668846044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00567680484389</v>
+        <v>1.005785300619081</v>
       </c>
       <c r="D3">
-        <v>1.035461790127054</v>
+        <v>1.032968379561437</v>
       </c>
       <c r="E3">
-        <v>1.019835203928348</v>
+        <v>1.019921598594865</v>
       </c>
       <c r="F3">
-        <v>1.028205010258728</v>
+        <v>1.028274920968117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046914685438172</v>
+        <v>1.046133617703725</v>
       </c>
       <c r="J3">
-        <v>1.026013901703575</v>
+        <v>1.02611948541267</v>
       </c>
       <c r="K3">
-        <v>1.045660178684713</v>
+        <v>1.043196110440342</v>
       </c>
       <c r="L3">
-        <v>1.030220427401465</v>
+        <v>1.030305769557956</v>
       </c>
       <c r="M3">
-        <v>1.038489286697143</v>
+        <v>1.038558362805631</v>
       </c>
       <c r="N3">
-        <v>1.012559503632839</v>
+        <v>1.014099822503397</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039034077617809</v>
+        <v>1.039088746835655</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043353319749423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041619484242211</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023482710253988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007887886316272</v>
+        <v>1.007966295083196</v>
       </c>
       <c r="D4">
-        <v>1.036489383784365</v>
+        <v>1.033915107971736</v>
       </c>
       <c r="E4">
-        <v>1.021580036112588</v>
+        <v>1.021642193157339</v>
       </c>
       <c r="F4">
-        <v>1.02995814238044</v>
+        <v>1.030008504092365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047253654606194</v>
+        <v>1.046439815537846</v>
       </c>
       <c r="J4">
-        <v>1.027091948934731</v>
+        <v>1.027168394324521</v>
       </c>
       <c r="K4">
-        <v>1.046166491181308</v>
+        <v>1.043620738907769</v>
       </c>
       <c r="L4">
-        <v>1.031424803092122</v>
+        <v>1.031486248630997</v>
       </c>
       <c r="M4">
-        <v>1.039707959655392</v>
+        <v>1.039757756365788</v>
       </c>
       <c r="N4">
-        <v>1.01292634935209</v>
+        <v>1.01438418866694</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039998576873409</v>
+        <v>1.040037987657278</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043712210955947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041920705557822</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023531175349229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008809026848304</v>
+        <v>1.008874929682557</v>
       </c>
       <c r="D5">
-        <v>1.036924391678692</v>
+        <v>1.034316145020824</v>
       </c>
       <c r="E5">
-        <v>1.022308414588204</v>
+        <v>1.022360487657552</v>
       </c>
       <c r="F5">
-        <v>1.030690376496318</v>
+        <v>1.030732609231599</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047394774254039</v>
+        <v>1.046567184479768</v>
       </c>
       <c r="J5">
-        <v>1.027540782031423</v>
+        <v>1.02760508351756</v>
       </c>
       <c r="K5">
-        <v>1.046382741235124</v>
+        <v>1.043802647938813</v>
       </c>
       <c r="L5">
-        <v>1.031926807790258</v>
+        <v>1.031978300672364</v>
       </c>
       <c r="M5">
-        <v>1.040216306440345</v>
+        <v>1.040258077972003</v>
       </c>
       <c r="N5">
-        <v>1.013079191920998</v>
+        <v>1.014502662308363</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040400899437736</v>
+        <v>1.040433958808131</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04387224850146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042057181513037</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023552195332043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008963766839447</v>
+        <v>1.009027541601353</v>
       </c>
       <c r="D6">
-        <v>1.037004119979132</v>
+        <v>1.034389815840031</v>
       </c>
       <c r="E6">
-        <v>1.022430929015534</v>
+        <v>1.022481282006268</v>
       </c>
       <c r="F6">
-        <v>1.030813443775247</v>
+        <v>1.030854291128187</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047420439588345</v>
+        <v>1.04659044266071</v>
       </c>
       <c r="J6">
-        <v>1.02761643767618</v>
+        <v>1.027678670687489</v>
       </c>
       <c r="K6">
-        <v>1.04642569212908</v>
+        <v>1.043839481109926</v>
       </c>
       <c r="L6">
-        <v>1.03201135526892</v>
+        <v>1.032061149805321</v>
       </c>
       <c r="M6">
-        <v>1.040301823634106</v>
+        <v>1.040342226949638</v>
       </c>
       <c r="N6">
-        <v>1.013105131005764</v>
+        <v>1.014522758098715</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040468580568965</v>
+        <v>1.04050055708493</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043911317237901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042092802788446</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023557422115239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007901787714766</v>
+        <v>1.007988011243544</v>
       </c>
       <c r="D7">
-        <v>1.036513501882382</v>
+        <v>1.033939301130396</v>
       </c>
       <c r="E7">
-        <v>1.021591223409456</v>
+        <v>1.021659881162933</v>
       </c>
       <c r="F7">
-        <v>1.029969055242868</v>
+        <v>1.030024603274348</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047261292920112</v>
+        <v>1.046449456483662</v>
       </c>
       <c r="J7">
-        <v>1.027099484663975</v>
+        <v>1.027183550023437</v>
       </c>
       <c r="K7">
-        <v>1.046187482435048</v>
+        <v>1.043641793257134</v>
       </c>
       <c r="L7">
-        <v>1.031432945922665</v>
+        <v>1.03150081804731</v>
       </c>
       <c r="M7">
-        <v>1.03971586537714</v>
+        <v>1.039770790450351</v>
       </c>
       <c r="N7">
-        <v>1.012929399994861</v>
+        <v>1.014414527968022</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040004833726439</v>
+        <v>1.040048303267843</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043747058257984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041957617221215</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023536530436727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003385367154896</v>
+        <v>1.003550085169501</v>
       </c>
       <c r="D8">
-        <v>1.034423763703614</v>
+        <v>1.032017725565486</v>
       </c>
       <c r="E8">
-        <v>1.01803220273416</v>
+        <v>1.018164549054681</v>
       </c>
       <c r="F8">
-        <v>1.026394735497044</v>
+        <v>1.026501536628101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046563931122254</v>
+        <v>1.045824086047574</v>
       </c>
       <c r="J8">
-        <v>1.024895820810441</v>
+        <v>1.025055805819947</v>
       </c>
       <c r="K8">
-        <v>1.045156789870808</v>
+        <v>1.042780782198141</v>
       </c>
       <c r="L8">
-        <v>1.028973332959448</v>
+        <v>1.029103965464363</v>
       </c>
       <c r="M8">
-        <v>1.03722865967676</v>
+        <v>1.037334105743642</v>
       </c>
       <c r="N8">
-        <v>1.012179551646289</v>
+        <v>1.013890495008638</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038036373124223</v>
+        <v>1.038119826897854</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04302281142096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04135380643505</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023437349577862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9951207176157267</v>
+        <v>0.9954042734407755</v>
       </c>
       <c r="D9">
-        <v>1.030625396958948</v>
+        <v>1.028523607418813</v>
       </c>
       <c r="E9">
-        <v>1.011568340970294</v>
+        <v>1.01179625219716</v>
       </c>
       <c r="F9">
-        <v>1.019919844608946</v>
+        <v>1.020103849514755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045222525283305</v>
+        <v>1.044605952727691</v>
       </c>
       <c r="J9">
-        <v>1.020846960336184</v>
+        <v>1.021120369003438</v>
       </c>
       <c r="K9">
-        <v>1.043240398392873</v>
+        <v>1.04117025964698</v>
       </c>
       <c r="L9">
-        <v>1.024476477297034</v>
+        <v>1.024700799317365</v>
       </c>
       <c r="M9">
-        <v>1.032697796851116</v>
+        <v>1.032878964111929</v>
       </c>
       <c r="N9">
-        <v>1.01080002547858</v>
+        <v>1.012831885031604</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034450477632051</v>
+        <v>1.03459386057427</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041664668084519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040211629637513</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023228226635104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9894602449828912</v>
+        <v>0.989862999231077</v>
       </c>
       <c r="D10">
-        <v>1.028052068447342</v>
+        <v>1.026165496069317</v>
       </c>
       <c r="E10">
-        <v>1.007217528974253</v>
+        <v>1.007542143652901</v>
       </c>
       <c r="F10">
-        <v>1.01562344560811</v>
+        <v>1.015885337030778</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044279108906238</v>
+        <v>1.043757858852682</v>
       </c>
       <c r="J10">
-        <v>1.018098364930785</v>
+        <v>1.018484661761825</v>
       </c>
       <c r="K10">
-        <v>1.041932655675275</v>
+        <v>1.040077866262257</v>
       </c>
       <c r="L10">
-        <v>1.021457680129438</v>
+        <v>1.021776544657165</v>
       </c>
       <c r="M10">
-        <v>1.029716229512836</v>
+        <v>1.029973580311166</v>
       </c>
       <c r="N10">
-        <v>1.009866762109799</v>
+        <v>1.012236354535508</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032142579905605</v>
+        <v>1.032346245284434</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040756729258676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039457635139069</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023077538844091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9875281746964523</v>
+        <v>0.9880287496948307</v>
       </c>
       <c r="D11">
-        <v>1.027068568099451</v>
+        <v>1.025266758907749</v>
       </c>
       <c r="E11">
-        <v>1.006073888887429</v>
+        <v>1.006478623850344</v>
       </c>
       <c r="F11">
-        <v>1.014904524187194</v>
+        <v>1.01523035230129</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044034599693978</v>
+        <v>1.043564457284231</v>
       </c>
       <c r="J11">
-        <v>1.017429160569491</v>
+        <v>1.017908168423155</v>
       </c>
       <c r="K11">
-        <v>1.041497448927366</v>
+        <v>1.039727409568849</v>
       </c>
       <c r="L11">
-        <v>1.020882162441929</v>
+        <v>1.021279388357726</v>
       </c>
       <c r="M11">
-        <v>1.029550732286802</v>
+        <v>1.029870650744061</v>
       </c>
       <c r="N11">
-        <v>1.009671336401249</v>
+        <v>1.012334145487327</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032450870744223</v>
+        <v>1.032703922519897</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040481630664386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039245698200852</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023043005054336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9870270634736601</v>
+        <v>0.9875639404755712</v>
       </c>
       <c r="D12">
-        <v>1.026738355199667</v>
+        <v>1.024961615986379</v>
       </c>
       <c r="E12">
-        <v>1.005938659653109</v>
+        <v>1.006372790955316</v>
       </c>
       <c r="F12">
-        <v>1.015067941928737</v>
+        <v>1.015417146543735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044007606804023</v>
+        <v>1.043554731918357</v>
       </c>
       <c r="J12">
-        <v>1.017390793113248</v>
+        <v>1.0179041039445</v>
       </c>
       <c r="K12">
-        <v>1.041370613970773</v>
+        <v>1.039625722472592</v>
       </c>
       <c r="L12">
-        <v>1.020952961923466</v>
+        <v>1.021378908387216</v>
       </c>
       <c r="M12">
-        <v>1.029912047640037</v>
+        <v>1.030254821237774</v>
       </c>
       <c r="N12">
-        <v>1.009684395060173</v>
+        <v>1.012455078422272</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033065002687528</v>
+        <v>1.033336039744393</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040391955478319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039173804389464</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023037185527247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9875941454815618</v>
+        <v>0.9881107338872336</v>
       </c>
       <c r="D13">
-        <v>1.026907181280265</v>
+        <v>1.025107894926086</v>
       </c>
       <c r="E13">
-        <v>1.006572455453135</v>
+        <v>1.006989424023334</v>
       </c>
       <c r="F13">
-        <v>1.01593444225139</v>
+        <v>1.016269828427733</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044155265608853</v>
+        <v>1.043690909522342</v>
       </c>
       <c r="J13">
-        <v>1.017838404661891</v>
+        <v>1.018332437085341</v>
       </c>
       <c r="K13">
-        <v>1.041494054594271</v>
+        <v>1.039726899708782</v>
       </c>
       <c r="L13">
-        <v>1.021531196938174</v>
+        <v>1.021940343321751</v>
       </c>
       <c r="M13">
-        <v>1.030719569788824</v>
+        <v>1.031048813653376</v>
       </c>
       <c r="N13">
-        <v>1.009860366314735</v>
+        <v>1.012566563510309</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033981534600968</v>
+        <v>1.034241807437278</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040476756259018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039242618529467</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023059022422393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9884720862936264</v>
+        <v>0.9889494850455404</v>
       </c>
       <c r="D14">
-        <v>1.027255252082598</v>
+        <v>1.025418649786726</v>
       </c>
       <c r="E14">
-        <v>1.007360181211037</v>
+        <v>1.007744733148773</v>
       </c>
       <c r="F14">
-        <v>1.016855012542718</v>
+        <v>1.017164415780148</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044337779025116</v>
+        <v>1.043852630056954</v>
       </c>
       <c r="J14">
-        <v>1.018368782019853</v>
+        <v>1.018825638066031</v>
       </c>
       <c r="K14">
-        <v>1.041697169404773</v>
+        <v>1.039892978739881</v>
       </c>
       <c r="L14">
-        <v>1.022161405986749</v>
+        <v>1.022538837560844</v>
       </c>
       <c r="M14">
-        <v>1.031482479022478</v>
+        <v>1.031786291043474</v>
       </c>
       <c r="N14">
-        <v>1.010056333316834</v>
+        <v>1.012640781601116</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034758615125599</v>
+        <v>1.034998751043491</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040621777366725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039361592261971</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023087668807361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9889216941179187</v>
+        <v>0.9893781443637766</v>
       </c>
       <c r="D15">
-        <v>1.02745423100738</v>
+        <v>1.02559800658869</v>
       </c>
       <c r="E15">
-        <v>1.007727739155958</v>
+        <v>1.008095092999512</v>
       </c>
       <c r="F15">
-        <v>1.017248931593324</v>
+        <v>1.017544556559337</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044422960575112</v>
+        <v>1.043926732087708</v>
       </c>
       <c r="J15">
-        <v>1.018608790391788</v>
+        <v>1.019045771231682</v>
       </c>
       <c r="K15">
-        <v>1.041807171501035</v>
+        <v>1.039983466306019</v>
       </c>
       <c r="L15">
-        <v>1.022434252267982</v>
+        <v>1.022794857046487</v>
       </c>
       <c r="M15">
-        <v>1.031782565159563</v>
+        <v>1.032072889630309</v>
       </c>
       <c r="N15">
-        <v>1.010141386398071</v>
+        <v>1.012661252217979</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035033469935663</v>
+        <v>1.03526293910314</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040705380771292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039431973627738</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023102239579128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9911999151984392</v>
+        <v>0.9915559451129063</v>
       </c>
       <c r="D16">
-        <v>1.028508116407675</v>
+        <v>1.026554975045344</v>
       </c>
       <c r="E16">
-        <v>1.009444958620041</v>
+        <v>1.00973038510557</v>
       </c>
       <c r="F16">
-        <v>1.018929421114448</v>
+        <v>1.019159392956933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044804078883713</v>
+        <v>1.044253450385742</v>
       </c>
       <c r="J16">
-        <v>1.019689165763553</v>
+        <v>1.020030765379759</v>
       </c>
       <c r="K16">
-        <v>1.042345818843674</v>
+        <v>1.040425451148594</v>
       </c>
       <c r="L16">
-        <v>1.023609566938767</v>
+        <v>1.023889980812121</v>
       </c>
       <c r="M16">
-        <v>1.032929408408129</v>
+        <v>1.033155437818229</v>
       </c>
       <c r="N16">
-        <v>1.010503610952536</v>
+        <v>1.012717095451101</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035901076133746</v>
+        <v>1.036079732345455</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041089368494635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039747925527133</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023164850836127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.992490221181802</v>
+        <v>0.9927987558253569</v>
       </c>
       <c r="D17">
-        <v>1.02913783430989</v>
+        <v>1.027131339559544</v>
       </c>
       <c r="E17">
-        <v>1.010351646362649</v>
+        <v>1.010598481998082</v>
       </c>
       <c r="F17">
-        <v>1.019732521373053</v>
+        <v>1.01993156896658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044999482973655</v>
+        <v>1.044420574885417</v>
       </c>
       <c r="J17">
-        <v>1.02024007975019</v>
+        <v>1.020536507915479</v>
       </c>
       <c r="K17">
-        <v>1.042653557627826</v>
+        <v>1.040679812936411</v>
       </c>
       <c r="L17">
-        <v>1.02418057591621</v>
+        <v>1.024423198760466</v>
       </c>
       <c r="M17">
-        <v>1.033403193250102</v>
+        <v>1.033598923491246</v>
       </c>
       <c r="N17">
-        <v>1.010678698194125</v>
+        <v>1.012750274897461</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036146048501256</v>
+        <v>1.036300771409003</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041309523042076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039930593443425</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023197756733015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9930399102008026</v>
+        <v>0.9933304493172501</v>
       </c>
       <c r="D18">
-        <v>1.029448306816621</v>
+        <v>1.027419719825684</v>
       </c>
       <c r="E18">
-        <v>1.010614853013063</v>
+        <v>1.010847169691871</v>
       </c>
       <c r="F18">
-        <v>1.019798349800346</v>
+        <v>1.019985812375652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045046861625978</v>
+        <v>1.044456198493717</v>
       </c>
       <c r="J18">
-        <v>1.020368464795514</v>
+        <v>1.020647813918998</v>
       </c>
       <c r="K18">
-        <v>1.042777373452805</v>
+        <v>1.040781362693056</v>
       </c>
       <c r="L18">
-        <v>1.024252841686395</v>
+        <v>1.02448125731308</v>
       </c>
       <c r="M18">
-        <v>1.033283870183269</v>
+        <v>1.033468257193627</v>
       </c>
       <c r="N18">
-        <v>1.010702126833477</v>
+        <v>1.012723582195103</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03581299648152</v>
+        <v>1.035958783295218</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041385506098819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039989689018847</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023204545788277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9929187051622993</v>
+        <v>0.9932114893095906</v>
       </c>
       <c r="D19">
-        <v>1.029496211866786</v>
+        <v>1.027470748830353</v>
       </c>
       <c r="E19">
-        <v>1.010289547683852</v>
+        <v>1.010523819299174</v>
       </c>
       <c r="F19">
-        <v>1.019184423304555</v>
+        <v>1.019373573674357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044970320567474</v>
+        <v>1.044380469604238</v>
       </c>
       <c r="J19">
-        <v>1.020115721541434</v>
+        <v>1.020397291477165</v>
       </c>
       <c r="K19">
-        <v>1.042762589920105</v>
+        <v>1.040769475752889</v>
       </c>
       <c r="L19">
-        <v>1.023869399047941</v>
+        <v>1.024099754602299</v>
       </c>
       <c r="M19">
-        <v>1.032617212873302</v>
+        <v>1.032803271779248</v>
       </c>
       <c r="N19">
-        <v>1.010591515769311</v>
+        <v>1.012624813876928</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034958659571482</v>
+        <v>1.035105816847867</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041381405233901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039988265241245</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023194560044858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9909308047214717</v>
+        <v>0.9912794971727548</v>
       </c>
       <c r="D20">
-        <v>1.028759559572863</v>
+        <v>1.026810021107228</v>
       </c>
       <c r="E20">
-        <v>1.008347725960651</v>
+        <v>1.008627900865166</v>
       </c>
       <c r="F20">
-        <v>1.016740698509811</v>
+        <v>1.016966955347954</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044539658290957</v>
+        <v>1.0439857700101</v>
       </c>
       <c r="J20">
-        <v>1.018815861296821</v>
+        <v>1.019150768375114</v>
       </c>
       <c r="K20">
-        <v>1.042314879444612</v>
+        <v>1.04039727963125</v>
       </c>
       <c r="L20">
-        <v>1.022245361840528</v>
+        <v>1.022520716840162</v>
       </c>
       <c r="M20">
-        <v>1.030495434366532</v>
+        <v>1.030717881029714</v>
       </c>
       <c r="N20">
-        <v>1.010111995927689</v>
+        <v>1.012319171732454</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032748612970705</v>
+        <v>1.032924657634948</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041068745880725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039729383919594</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023127214863785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9865788622206142</v>
+        <v>0.9871313595042617</v>
       </c>
       <c r="D21">
-        <v>1.026809331783028</v>
+        <v>1.02504714917737</v>
       </c>
       <c r="E21">
-        <v>1.004951310275499</v>
+        <v>1.005399816028457</v>
       </c>
       <c r="F21">
-        <v>1.013310394611652</v>
+        <v>1.013671491515911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043783837620083</v>
+        <v>1.043338112776569</v>
       </c>
       <c r="J21">
-        <v>1.016648633946247</v>
+        <v>1.017177143382922</v>
       </c>
       <c r="K21">
-        <v>1.041299991938604</v>
+        <v>1.039569041226957</v>
       </c>
       <c r="L21">
-        <v>1.019839481831554</v>
+        <v>1.020279604329912</v>
       </c>
       <c r="M21">
-        <v>1.028043910366916</v>
+        <v>1.02839840125436</v>
       </c>
       <c r="N21">
-        <v>1.009370146663189</v>
+        <v>1.012199102448913</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030767197591972</v>
+        <v>1.031047757161473</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040354381485514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03914730686212</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02300753897847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9838247107967238</v>
+        <v>0.9845061436992804</v>
       </c>
       <c r="D22">
-        <v>1.025559812159557</v>
+        <v>1.02391745804648</v>
       </c>
       <c r="E22">
-        <v>1.002830315016209</v>
+        <v>1.003385569920392</v>
       </c>
       <c r="F22">
-        <v>1.011196217905181</v>
+        <v>1.011642764316864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043298562333356</v>
+        <v>1.042921935149059</v>
       </c>
       <c r="J22">
-        <v>1.015291644501967</v>
+        <v>1.015941768955951</v>
       </c>
       <c r="K22">
-        <v>1.040641378396666</v>
+        <v>1.039029543105652</v>
       </c>
       <c r="L22">
-        <v>1.018345910557798</v>
+        <v>1.018890255045262</v>
       </c>
       <c r="M22">
-        <v>1.026549091316115</v>
+        <v>1.026987051182547</v>
       </c>
       <c r="N22">
-        <v>1.008906707858559</v>
+        <v>1.012121615661138</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029584131267894</v>
+        <v>1.029930752406637</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039875307820023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038751133313616</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022925995400519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852887587531385</v>
+        <v>0.985888368774482</v>
       </c>
       <c r="D23">
-        <v>1.026208037019254</v>
+        <v>1.024500357511116</v>
       </c>
       <c r="E23">
-        <v>1.003956768507993</v>
+        <v>1.00444408940307</v>
       </c>
       <c r="F23">
-        <v>1.012319074649753</v>
+        <v>1.012711296404444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043552833783598</v>
+        <v>1.043135492799171</v>
       </c>
       <c r="J23">
-        <v>1.016012643464774</v>
+        <v>1.016585512617172</v>
       </c>
       <c r="K23">
-        <v>1.040976374363088</v>
+        <v>1.039299648716878</v>
       </c>
       <c r="L23">
-        <v>1.01913924194617</v>
+        <v>1.019617235720937</v>
       </c>
       <c r="M23">
-        <v>1.027343122541132</v>
+        <v>1.02772799743427</v>
       </c>
       <c r="N23">
-        <v>1.009152410693133</v>
+        <v>1.012119615701089</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03021256316902</v>
+        <v>1.030517170205296</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040102600458296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038931598458313</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022965146344319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909452822051259</v>
+        <v>0.9912932020855298</v>
       </c>
       <c r="D24">
-        <v>1.028754359805259</v>
+        <v>1.026805508675962</v>
       </c>
       <c r="E24">
-        <v>1.008326062975933</v>
+        <v>1.008605643857932</v>
       </c>
       <c r="F24">
-        <v>1.016678891712203</v>
+        <v>1.016904688501861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04452749407341</v>
+        <v>1.043973512607441</v>
       </c>
       <c r="J24">
-        <v>1.018796397203552</v>
+        <v>1.01913058217401</v>
       </c>
       <c r="K24">
-        <v>1.042294656815407</v>
+        <v>1.040377692628899</v>
       </c>
       <c r="L24">
-        <v>1.022208524441526</v>
+        <v>1.022483301553689</v>
       </c>
       <c r="M24">
-        <v>1.030419304276278</v>
+        <v>1.030641302919472</v>
       </c>
       <c r="N24">
-        <v>1.010101781537457</v>
+        <v>1.012306942147519</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032647185913183</v>
+        <v>1.032822884874564</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041027232327853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039685623023257</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023120291370216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9972971063827563</v>
+        <v>0.9975390473211569</v>
       </c>
       <c r="D25">
-        <v>1.031645905670275</v>
+        <v>1.029460490201957</v>
       </c>
       <c r="E25">
-        <v>1.013264918191639</v>
+        <v>1.01345907906218</v>
       </c>
       <c r="F25">
-        <v>1.021616928389939</v>
+        <v>1.021773742309181</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045590253400387</v>
+        <v>1.044937749367427</v>
       </c>
       <c r="J25">
-        <v>1.021915777328309</v>
+        <v>1.022149517127361</v>
       </c>
       <c r="K25">
-        <v>1.043772048137872</v>
+        <v>1.041618057765979</v>
       </c>
       <c r="L25">
-        <v>1.02566074506592</v>
+        <v>1.025851992168805</v>
       </c>
       <c r="M25">
-        <v>1.033888687813319</v>
+        <v>1.03404319692431</v>
       </c>
       <c r="N25">
-        <v>1.011165141509856</v>
+        <v>1.013078962282803</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035392995350826</v>
+        <v>1.035515279816609</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042068971860428</v>
+        <v>1.040559480947245</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023291826933067</v>
       </c>
     </row>
   </sheetData>
